--- a/field.xlsx
+++ b/field.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yodai/Documents/vscode/mypic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22FBDCD2-85AB-634F-A4EA-78A6996DDB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B05E12-C670-4D4F-90A2-474BC4A9E6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16560" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16560" activeTab="1" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
   </bookViews>
   <sheets>
     <sheet name="material" sheetId="1" r:id="rId1"/>
+    <sheet name="home" sheetId="2" r:id="rId2"/>
+    <sheet name="forest" sheetId="3" r:id="rId3"/>
+    <sheet name="cave" sheetId="5" r:id="rId4"/>
+    <sheet name="town" sheetId="7" r:id="rId5"/>
+    <sheet name="desert" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -171,6 +176,8964 @@
             <a:t>f</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC1F432B-9A94-0240-98F4-5AA4B50BAA9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10058400" y="3644900"/>
+          <a:ext cx="3276600" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>おうちのなか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{163F6E89-12E4-D942-9D98-1554B5A219EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9105900" y="5589814"/>
+          <a:ext cx="3238500" cy="1932215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>おうちのそと</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB9E9A3E-723C-184B-B983-4D892D777571}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6718300" y="3632200"/>
+          <a:ext cx="3289300" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>2 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>石碑（おうちのうら）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807F6B08-2ED2-6140-A91A-1BAB232AE33F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12560300" y="5676900"/>
+          <a:ext cx="3289300" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>3 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>おうちの周辺</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FC69FEF-7BEE-724A-ADBA-139E77880DEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8699500" y="6083300"/>
+          <a:ext cx="469900" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>10(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>森の入口）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D4AD0F3-75CF-7841-878B-A6401CC043B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15887700" y="6057900"/>
+          <a:ext cx="469900" cy="1346200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>30 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>都市へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33F05195-5C5A-104E-95E4-9332D44DF8D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11442700" y="5397500"/>
+          <a:ext cx="114300" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969F7A8D-5961-B94E-915B-D7A19CDABFFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9436100" y="5397500"/>
+          <a:ext cx="190500" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11CC245C-9F84-6043-8EA8-43160EF28493}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11137900" y="7239000"/>
+          <a:ext cx="317500" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>店</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C489C38-552D-CC45-81CF-8EB91D7B4FEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12827000" y="7239000"/>
+          <a:ext cx="330200" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>店</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40AF7D0F-9BA5-EE4A-9919-96B391DB2698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14122400" y="7251700"/>
+          <a:ext cx="317500" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>店</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F159358-AA04-A843-9C92-BB790E63E013}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13233400" y="7315200"/>
+          <a:ext cx="838200" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>アイテムとか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ACFC4CD-2FFD-F845-AF7B-5252D853D7C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13690600" y="5156200"/>
+          <a:ext cx="1714500" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>40 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>砂漠へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74080133-C483-3446-8046-861F6176AF97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11569700" y="7340600"/>
+          <a:ext cx="838200" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>アイテムとか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19376B94-58E7-764B-9B83-D4E01D99A90E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12268200" y="6718300"/>
+          <a:ext cx="558800" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>230414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>166913</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE75EF5-98E3-604D-A716-9996C2E1D6CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6718300" y="1477735"/>
+          <a:ext cx="3238500" cy="1932214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>石碑の裏　最終ステージ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>886883</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>162379</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{091B5A47-9F6E-354E-AE52-90CFAA397CD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7778750" y="2698750"/>
+          <a:ext cx="1680633" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ボス戦</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>22679</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22679</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23BBFA82-2008-EA41-BAF4-6721252C9387}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9538607" y="3129642"/>
+          <a:ext cx="9072" cy="635001"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4595C7C0-E3F3-7F48-AC9A-7AE3ADAFCD86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13665200" y="2425700"/>
+          <a:ext cx="3238500" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>18 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>森</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>　ボス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A1979E7-A3AE-4145-8EBA-3A3FF00E1580}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17030700" y="4483100"/>
+          <a:ext cx="3238500" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>17 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>森</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CCDAF9F-925A-1846-A3CB-4B59028ECD4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13677900" y="4470400"/>
+          <a:ext cx="3238500" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>16 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>森</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A1195B-929B-5242-9A93-4B62ACE9DFFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6946900" y="2349500"/>
+          <a:ext cx="3238500" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>13 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>森</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F99D7B0-8282-CD46-86FB-7E75E07E4EC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3568700" y="6553200"/>
+          <a:ext cx="3238500" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>10 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>森の入口</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B64C206-E9CE-1141-B1A6-D7FC1A29D361}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581400" y="4445000"/>
+          <a:ext cx="3238500" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>11 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>森１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA8C3CC-4A34-EE44-9F85-9A7E0A105F5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6946900" y="4432300"/>
+          <a:ext cx="3238500" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>12 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>森</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D2DA67-D1A7-1C42-931E-EFA422AB4CC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4521200" y="8039100"/>
+          <a:ext cx="457200" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>20(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>洞窟へ）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E726ED-AAA7-E14C-9FD6-58D51371AB71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6883400" y="6883400"/>
+          <a:ext cx="469900" cy="1346200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>1  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>おうちへ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70C410E-FDBF-9444-A866-DFBD38C9DADE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6565900" y="5435600"/>
+          <a:ext cx="787400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F9B417A-0B07-114A-9EC3-40A28420D6E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5156200" y="6197600"/>
+          <a:ext cx="12700" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A99A89EB-25D2-D747-8A3A-9BF29A3FCC67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9042400" y="3187700"/>
+          <a:ext cx="139700" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C53092C5-5158-A548-A200-C0DD9C2A2B49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10325100" y="4483100"/>
+          <a:ext cx="3238500" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>14 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>森</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{528DEFCA-A2FD-9649-BE0A-E1F431452298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9728200" y="5448300"/>
+          <a:ext cx="787400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CCCB025-577B-D349-B731-F6C5CC35ADFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9601200" y="2705100"/>
+          <a:ext cx="139700" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{129DDCC0-111E-1048-8E2C-F25349371164}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9893300" y="4013200"/>
+          <a:ext cx="1473200" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75C9AEED-13F7-E247-9550-410BEAAA937D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8674100" y="4051300"/>
+          <a:ext cx="12700" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4289A54A-4B91-E741-AFB0-C555100E8FF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10299700" y="6565900"/>
+          <a:ext cx="3238500" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>15 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>森</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>　水のほとり</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{240D0D16-177A-984A-9118-B9107B7F1655}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11976100" y="6083300"/>
+          <a:ext cx="50800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95916028-4924-EC4F-9D4F-0315DEF247C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13195300" y="5549900"/>
+          <a:ext cx="787400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AAD69F0-84BB-2B40-9614-7A3C9956DF6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16624300" y="5549900"/>
+          <a:ext cx="787400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82210A63-1857-3C4F-A863-D40EF875DA33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="15659100" y="4165600"/>
+          <a:ext cx="50800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>109753</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>658518</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>156790</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C31FFD23-076D-364F-97EC-68D383D27475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14456049" y="3010370"/>
+          <a:ext cx="1505185" cy="407655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ボス戦勃発</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>203828</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>125433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>521328</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>217469</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E468E718-EC45-194B-90BF-1E26D0794850}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10724445" y="7902223"/>
+          <a:ext cx="317500" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>店</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>256195</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>105835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>689876</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>78399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD50C6F-F3B1-0E49-B9EB-B05D5801BE0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="12622310" y="7652066"/>
+          <a:ext cx="2481206" cy="433681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>25(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>洞窟　明るみへ）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>436033</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>143932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>80432</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FA326B6-1B9C-3443-B628-2371749A17BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11815233" y="9541932"/>
+          <a:ext cx="3221567" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>27</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>　洞窟</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ボス戦</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>402166</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>778933</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>165098</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766A7588-651B-F740-B0EF-854A4DF88DCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11781366" y="7340598"/>
+          <a:ext cx="3221567" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>26</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>　洞窟</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>740833</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>8466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>169334</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>198966</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F17186CC-4A82-F74B-B4CF-DCE770C20C76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="9660466"/>
+          <a:ext cx="3221567" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>25</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>　洞窟</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>（明るみ）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>16934</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>397934</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AA1D8B-6A1B-AD47-9BDD-C05A4F643B0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6654801" y="7556500"/>
+          <a:ext cx="3225800" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>22 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>洞窟</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8DEA81-D5AA-354E-9BE5-1915E7C32ABF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4969933" y="3454400"/>
+          <a:ext cx="3225800" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>20 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>洞窟入り口</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>690033</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>143933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>118533</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>80433</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2C20A0-1261-B940-BFEB-4566ADA9D47C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8276166" y="4461933"/>
+          <a:ext cx="3221567" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>23</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>　洞窟</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>232834</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>173567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{708424FC-08E4-C94E-B8C6-DEBDFEF84F21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4974167" y="5507567"/>
+          <a:ext cx="3221567" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>21 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>洞窟</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>563033</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB74A8C-8E2A-EB4F-A20E-F040F38B2AC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8149166" y="8140700"/>
+          <a:ext cx="148167" cy="1346200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>846667</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>220135</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D197419-F69F-074F-9A52-87D2C51B1A74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7840134" y="5960533"/>
+          <a:ext cx="592666" cy="609602"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>97367</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>732367</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>237067</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3CE9CE-DA12-0341-9BDC-0B16CDC0F785}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6400800" y="5177367"/>
+          <a:ext cx="21167" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>143933</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>16934</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E009A1C9-01C3-B441-8D31-98EAA699C891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6781800" y="11209866"/>
+          <a:ext cx="821267" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>アイテムとか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>838201</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>143933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05BD9BE-2EA4-9F44-A4E5-DE618D073E59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5579534" y="2937933"/>
+          <a:ext cx="1680633" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>10 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>森の入り口へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C55131-321A-1244-8CED-D336EAED46B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7797800" y="5003801"/>
+          <a:ext cx="821267" cy="499532"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>795867</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97367</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>817034</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>237067</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB13D758-C5F1-7047-948C-E6DDD5F9AE5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7433734" y="7209367"/>
+          <a:ext cx="21167" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>592667</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>97366</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F5910D4-9D93-4D43-B864-495429D67788}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11595100" y="4478866"/>
+          <a:ext cx="3221567" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>24</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>　洞窟</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685802</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0942849D-FF21-D34C-A165-30BC80D1BBB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11116735" y="5503333"/>
+          <a:ext cx="770465" cy="8468"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>186266</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37AE5025-C5C2-744B-8896-F48486CCC882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9668933" y="6282267"/>
+          <a:ext cx="2421467" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>33866</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>351366</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05F37A7-3C80-374F-A1C9-2C6AC094C478}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14257866" y="4830233"/>
+          <a:ext cx="317500" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>店</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>80434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>833967</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>220134</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACB5855-06FC-FA43-A8E9-8A9519F7E312}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7450667" y="9224434"/>
+          <a:ext cx="21167" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>905937</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>135467</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB3B4B54-7664-2A4E-B95B-F6FDF9EE6347}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13233404" y="6223001"/>
+          <a:ext cx="1126063" cy="1329266"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4233</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>46567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>122767</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CB6E2C7-8B92-ED43-A30D-F1462865CE63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13279966" y="7920567"/>
+          <a:ext cx="148167" cy="1346200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>287868</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>728133</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>237067</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F4D570-6B9D-9A45-823F-F1960F7061F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9770535" y="8940800"/>
+          <a:ext cx="2336798" cy="186267"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>321733</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>389467</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58EB2A18-27FE-374A-9E87-2FCACFA72B3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12649200" y="9093200"/>
+          <a:ext cx="67734" cy="728134"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>287867</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>844786</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>204455</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF80C52F-52B7-A848-879F-FC3D614B4F07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12615334" y="10972800"/>
+          <a:ext cx="1505185" cy="407655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ボス戦勃発</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8659DB13-805D-3743-BD3F-1B9013B1CEC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13605933" y="8906933"/>
+          <a:ext cx="821267" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>アイテムとか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>29633</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>93134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>29634</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43EE1405-0F21-4247-80FD-36BB6593FFBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3822700" y="6189134"/>
+          <a:ext cx="3221567" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>35 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>廃墟</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>524933</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>905933</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>211667</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B928A65-3329-134D-AC14-CD820E8B170C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162800" y="6117167"/>
+          <a:ext cx="3225800" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>32 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>廃墟</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>（大都市）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>482599</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>863599</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>224367</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53581DD7-7958-9746-B2A3-A8FDA3AC8961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7120466" y="10193867"/>
+          <a:ext cx="3225800" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>30 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>廃墟の入口</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>452966</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>829733</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>198967</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C33CBA4-B110-5142-A629-F91D00B94FE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7090833" y="4072467"/>
+          <a:ext cx="3221567" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>33 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>廃墟</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>486833</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49613049-237E-5D49-9F7D-9E23870C4E52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7124700" y="8166100"/>
+          <a:ext cx="3221567" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>31 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>廃墟</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>173567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431799</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>173567</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36689292-3948-1446-BB1D-3086B39ECE27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6616700" y="10587567"/>
+          <a:ext cx="452966" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>3 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>おうちの前へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>372534</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>220133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>402167</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>224367</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4CC8963-37C5-1E44-99EF-EA67F07CF921}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8906934" y="9872133"/>
+          <a:ext cx="29633" cy="512234"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>745067</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>753533</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489D108A-0DB5-2B4A-BAC9-BDF05C2E4647}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9279467" y="5723467"/>
+          <a:ext cx="8466" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>808567</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>177801</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>182033</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B56D1EE9-F035-CC4E-B382-23379E42E3BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7446434" y="9491133"/>
+          <a:ext cx="317500" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>店</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>160866</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3623A3A8-8486-474D-BC91-4D68549A1D49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9635067" y="4643966"/>
+          <a:ext cx="317500" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>店</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>313266</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>186267</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D8EC7A-DDA5-C84C-AED2-FD0A142B559D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4106333" y="6807200"/>
+          <a:ext cx="821267" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>アイテムとか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>884768</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>143933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>757767</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>143933</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{629DE113-925C-D440-AB15-F1640E8E295C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5626101" y="7001933"/>
+          <a:ext cx="821266" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>アイテムとか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>736601</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>143933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>745067</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC35A09D-006F-3F4C-B4B2-7729032A205D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9271001" y="7763933"/>
+          <a:ext cx="8466" cy="787400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>177799</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>829732</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>118534</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA2B6CA-84F3-F14A-9E83-8B25CC64AD98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6815666" y="7454900"/>
+          <a:ext cx="651933" cy="29634"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>842433</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>270933</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{575FFA26-83A1-5F47-8B27-98CE6B0F7E3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3687233" y="4089400"/>
+          <a:ext cx="3221567" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>34 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>廃墟</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>（ボス戦）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160865</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>893232</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39C88B4D-7B23-5B47-A9FC-A6850F9C3F54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3953932" y="5410201"/>
+          <a:ext cx="1680633" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ボス戦</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>905934</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>778933</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92BC3001-BFD9-C94F-9E1E-5C2E01D11EC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6595534" y="5151967"/>
+          <a:ext cx="821266" cy="63500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>46568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>465667</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>237068</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8CF23E8-1C02-1D4A-9CE0-F6DBFFA74474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10519833" y="6142568"/>
+          <a:ext cx="3221567" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>36 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>廃墟</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>516467</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>173568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>389467</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>237068</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E48521F4-96A8-3442-B736-095A3FF030C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9999134" y="7285568"/>
+          <a:ext cx="821266" cy="63500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>29633</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59AB7223-92AC-C749-A25E-C6A735286E82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11091333" y="7607300"/>
+          <a:ext cx="317500" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>店</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>897467</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>156633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>245533</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442A1813-3D75-6344-9F96-F1AFC94BCE55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12276667" y="6760633"/>
+          <a:ext cx="317500" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>店</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>156633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>486833</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>245533</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E131D89-4383-7A46-93D9-1A001710C130}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12496800" y="7522633"/>
+          <a:ext cx="317500" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>店</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>237067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>575733</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>182033</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D587813D-60B5-204B-9141-C83A224E9CB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11914717" y="7575550"/>
+          <a:ext cx="452966" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>45 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>砂漠へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>910166</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>338666</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED2E624-EF76-1A4D-9D23-4DD305ABF760}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6599766" y="0"/>
+          <a:ext cx="3221567" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>46 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>砂漠</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>（ボス戦）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>63499</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>440266</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{707049A9-3082-4644-B0E9-53CA940C8FF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12390966" y="0"/>
+          <a:ext cx="3221567" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>45 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>砂漠</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12699</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>110068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>389466</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>46568</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3906E788-AE6E-934C-9384-51EF1041394A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9495366" y="1634068"/>
+          <a:ext cx="3221567" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>44 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>砂漠</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>880533</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>313266</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3227CC9A-22A0-FD44-8DA2-782CA2381475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9414933" y="3746501"/>
+          <a:ext cx="3225800" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>42 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>砂漠</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>397933</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>778933</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A68106C-5E6A-8C4C-B442-31C6BB79F894}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6087533" y="5926667"/>
+          <a:ext cx="3225800" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>40 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>砂漠入り口</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>452966</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>110068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>829733</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>46568</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02F4AB3B-1953-D649-B0A8-35AF6D56B628}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6142566" y="1634068"/>
+          <a:ext cx="3221567" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>43 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>砂漠</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>795867</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F01CA478-280C-814C-B95A-25DDDDDC31B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6108700" y="3746500"/>
+          <a:ext cx="3221567" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>41 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>砂漠</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>103716</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>372532</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>27516</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5677608-029F-B942-AEA4-4AB279DFBDCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7597775" y="7100358"/>
+          <a:ext cx="452966" cy="2165349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>3(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>おうちの前へ）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>148167</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>237067</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>55033</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E7A5A6-0AA5-0D42-ACBF-04F6315926D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7734300" y="5503333"/>
+          <a:ext cx="88900" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F64EA373-0F5A-524D-91EE-C175A3862398}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8119533" y="3915834"/>
+          <a:ext cx="2565401" cy="1604433"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>770466</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>135466</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A5C7D9-10F1-C44B-A72B-C9DCA3CC41DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14994466" y="1498600"/>
+          <a:ext cx="313267" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>店</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>364067</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>237067</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C102DE5-E020-3048-9FE2-127EA9199718}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13639800" y="558799"/>
+          <a:ext cx="821267" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>アイテムとか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>177801</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>194733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>910167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>143933</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22447924-C38F-0142-B223-50CBBCC55F07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7763934" y="702733"/>
+          <a:ext cx="1680633" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>40 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ボス戦</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>211667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>211667</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8D843BF-36B0-6E4E-A598-AD2BC01B35AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7539567" y="4783667"/>
+          <a:ext cx="821266" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>アイテムとか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>499532</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE2E21A4-0861-AC48-9609-2589B0949B8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9033932" y="2700867"/>
+          <a:ext cx="855135" cy="8466"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>550332</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F1FF562-47C8-C740-BB69-9D0E2934B290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11929532" y="3454400"/>
+          <a:ext cx="8468" cy="461434"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>431799</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>338667</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679A7DF5-2775-4B46-B988-1D5B75BC4E87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8966199" y="4665133"/>
+          <a:ext cx="855135" cy="8466"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>931333</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="グループ化 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD64D363-C0B4-6E4B-B443-511F695C65FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="16200000">
+          <a:off x="-42333" y="4021666"/>
+          <a:ext cx="5418666" cy="1574800"/>
+          <a:chOff x="6095999" y="1371599"/>
+          <a:chExt cx="6654800" cy="1574800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="屈折矢印 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48B2268-9B00-4541-A089-3FB8DB933714}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="6095999" y="1371599"/>
+            <a:ext cx="3335867" cy="1574800"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 5230"/>
+              <a:gd name="adj2" fmla="val 10142"/>
+              <a:gd name="adj3" fmla="val 6182"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="屈折矢印 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1516A36-E9E4-4240-82CE-C4C7440FA9BB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipH="1">
+            <a:off x="9414932" y="1371599"/>
+            <a:ext cx="3335867" cy="1574800"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 5230"/>
+              <a:gd name="adj2" fmla="val 10142"/>
+              <a:gd name="adj3" fmla="val 6182"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>728133</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>135468</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>237067</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44B077B-9FFC-5444-A9D4-CEFCE39A52CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6417733" y="2573866"/>
+          <a:ext cx="6045202" cy="2235201"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>694267</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>118533</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BC4C845-77A5-5B47-8F8F-AEB784C2BD33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6383867" y="2726267"/>
+          <a:ext cx="6062133" cy="2015066"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E22ED442-DE87-B84E-B521-94A86F569113}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11912599" y="1337733"/>
+          <a:ext cx="1024468" cy="478368"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>224368</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F701295D-724E-B14E-9C36-BE9EEADD3CFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8525933" y="1337733"/>
+          <a:ext cx="59267" cy="664635"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>429683</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>198966</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AA3B26D-A700-ED4E-B206-11907B653957}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="15189200" y="-535517"/>
+          <a:ext cx="452966" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>36 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>廃墟へ</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -476,10 +9439,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2D0C2B-2ED1-A941-88A1-CD5503BA2F5E}">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7877633-74E2-BA40-B0D9-78E8C4C95323}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="82" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D18A778-2E0D-8D4E-916A-03B4F547035D}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286BBF9C-3380-5D43-A026-AD540F035A9E}">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="C10" zoomScale="75" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4153F1A4-6F5C-8C4D-84B8-D821799EDC3B}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScale="75" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E494DD31-31E3-704E-9D82-0190F79574F9}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/field.xlsx
+++ b/field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yodai/Documents/vscode/mypic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B05E12-C670-4D4F-90A2-474BC4A9E6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10098A5-FA7D-814C-A512-73FFC05A3496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16560" activeTab="1" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
+    <workbookView xWindow="-19320" yWindow="-9800" windowWidth="28300" windowHeight="16560" activeTab="1" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
   </bookViews>
   <sheets>
     <sheet name="material" sheetId="1" r:id="rId1"/>
@@ -219,9 +219,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="57150">
@@ -309,9 +309,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="57150">
@@ -369,14 +369,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>90758</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>479502</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -392,16 +392,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6718300" y="3632200"/>
-          <a:ext cx="3289300" cy="1968500"/>
+          <a:off x="5852221" y="5527907"/>
+          <a:ext cx="3269476" cy="1918939"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="57150">
@@ -489,9 +489,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="57150">
@@ -529,7 +529,7 @@
               <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>3 </a:t>
+            <a:t>4 </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
@@ -548,16 +548,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>461846</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
+      <xdr:rowOff>101910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>931746</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:rowOff>101910</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -572,8 +572,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8699500" y="6083300"/>
-          <a:ext cx="469900" cy="1524000"/>
+          <a:off x="5263066" y="5801422"/>
+          <a:ext cx="469900" cy="1486829"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -767,73 +767,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969F7A8D-5961-B94E-915B-D7A19CDABFFE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9436100" y="5397500"/>
-          <a:ext cx="190500" cy="431800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
+      <xdr:colOff>216829</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
+      <xdr:colOff>758902</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:rowOff>170366</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -848,8 +791,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11137900" y="7239000"/>
-          <a:ext cx="317500" cy="342900"/>
+          <a:off x="10779512" y="7065536"/>
+          <a:ext cx="542073" cy="291171"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -888,6 +831,17 @@
             </a:rPr>
             <a:t>店</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -902,9 +856,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>913780</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:rowOff>232318</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -919,8 +873,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12827000" y="7239000"/>
-          <a:ext cx="330200" cy="342900"/>
+          <a:off x="12762571" y="7065537"/>
+          <a:ext cx="634380" cy="353122"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -959,6 +913,17 @@
             </a:rPr>
             <a:t>店</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -967,15 +932,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>532161</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>155188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>201341</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>123902</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -990,8 +955,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14122400" y="7251700"/>
-          <a:ext cx="317500" cy="342900"/>
+          <a:off x="13975576" y="6598115"/>
+          <a:ext cx="629424" cy="464324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1030,6 +995,17 @@
             </a:rPr>
             <a:t>店</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1037,16 +1013,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
+      <xdr:colOff>190190</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:rowOff>1860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>63190</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1859</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1061,8 +1037,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13233400" y="7315200"/>
-          <a:ext cx="838200" cy="254000"/>
+          <a:off x="13633605" y="7188201"/>
+          <a:ext cx="833244" cy="247804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1319,16 +1295,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>230414</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190191</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>166913</xdr:rowOff>
+      <xdr:rowOff>245901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571191</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>182400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1343,16 +1319,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6718300" y="1477735"/>
-          <a:ext cx="3238500" cy="1932214"/>
+          <a:off x="5951654" y="3467364"/>
+          <a:ext cx="3261732" cy="1918938"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="57150">
@@ -1383,16 +1359,6 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -1400,7 +1366,7 @@
               <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t>3 </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1" baseline="0">
@@ -1426,16 +1392,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19359</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>204107</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>886883</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>162379</xdr:rowOff>
+      <xdr:colOff>747492</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100428</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1450,8 +1416,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7778750" y="2698750"/>
-          <a:ext cx="1680633" cy="457200"/>
+          <a:off x="6741066" y="4602644"/>
+          <a:ext cx="1688377" cy="453882"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1500,16 +1466,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>22679</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>22679</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>896412</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>905484</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>146581</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1524,8 +1490,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9538607" y="3129642"/>
-          <a:ext cx="9072" cy="635001"/>
+          <a:off x="8578363" y="5216071"/>
+          <a:ext cx="9072" cy="630022"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9461,7 +9427,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E2" zoomScale="82" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/field.xlsx
+++ b/field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yodai/Documents/vscode/mypic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10098A5-FA7D-814C-A512-73FFC05A3496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376936AC-3C08-7C42-8E06-AA2D5F3004E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-9800" windowWidth="28300" windowHeight="16560" activeTab="1" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16560" activeTab="2" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
   </bookViews>
   <sheets>
     <sheet name="material" sheetId="1" r:id="rId1"/>
@@ -1619,7 +1619,7 @@
               <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>7</a:t>
+            <a:t>8</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
@@ -1729,7 +1729,7 @@
               <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>8</a:t>
+            <a:t>7</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
             <a:solidFill>
@@ -1776,9 +1776,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="57150">
@@ -1883,9 +1883,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="57150">
@@ -1990,9 +1990,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="57150">
@@ -2080,9 +2080,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="57150">
@@ -2170,9 +2170,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="57150">
@@ -2624,9 +2624,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="57150">
@@ -2973,9 +2973,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="57150">
@@ -3356,9 +3356,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>521328</xdr:colOff>
+      <xdr:colOff>778934</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>217469</xdr:rowOff>
+      <xdr:rowOff>186267</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3373,8 +3373,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10724445" y="7902223"/>
-          <a:ext cx="317500" cy="342900"/>
+          <a:off x="10634761" y="7999433"/>
+          <a:ext cx="575106" cy="314834"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3411,7 +3411,7 @@
               <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>店</a:t>
+            <a:t>店３</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9426,7 +9426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7877633-74E2-BA40-B0D9-78E8C4C95323}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="82" workbookViewId="0">
+    <sheetView topLeftCell="E2" zoomScale="82" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -9445,8 +9445,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/field.xlsx
+++ b/field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yodai/Documents/vscode/mypic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376936AC-3C08-7C42-8E06-AA2D5F3004E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D77FE3A-1C2B-0349-8388-C569687A930B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16560" activeTab="2" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
   </bookViews>
@@ -9446,7 +9446,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D7" zoomScale="75" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/field.xlsx
+++ b/field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yodai/Documents/vscode/mypic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D77FE3A-1C2B-0349-8388-C569687A930B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1562BE3A-377D-7340-93E6-AF700B2B6256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16560" activeTab="2" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
+    <workbookView xWindow="5700" yWindow="-19920" windowWidth="28300" windowHeight="16560" activeTab="2" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
   </bookViews>
   <sheets>
     <sheet name="material" sheetId="1" r:id="rId1"/>
@@ -1599,7 +1599,7 @@
               <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>18 </a:t>
+            <a:t>17 </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
@@ -1619,7 +1619,7 @@
               <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>8</a:t>
+            <a:t>7</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
@@ -1709,7 +1709,17 @@
               <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>17 </a:t>
+            <a:t>18</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
@@ -1729,15 +1739,18 @@
               <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>7</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>　崖</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9446,7 +9459,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D7" zoomScale="75" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+      <selection activeCell="Q32" sqref="Q32:Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/field.xlsx
+++ b/field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yodai/Documents/vscode/mypic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1562BE3A-377D-7340-93E6-AF700B2B6256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECBBB0E-E904-F442-9E2F-EBFD7D2FEF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="-19920" windowWidth="28300" windowHeight="16560" activeTab="2" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16560" activeTab="2" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
   </bookViews>
   <sheets>
     <sheet name="material" sheetId="1" r:id="rId1"/>
@@ -9459,7 +9459,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D7" zoomScale="75" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32:Q33"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/field.xlsx
+++ b/field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yodai/Documents/vscode/mypic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECBBB0E-E904-F442-9E2F-EBFD7D2FEF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35675F98-D6CC-D249-A712-D0344B599CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16560" activeTab="2" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16560" activeTab="3" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
   </bookViews>
   <sheets>
     <sheet name="material" sheetId="1" r:id="rId1"/>
@@ -3880,7 +3880,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
+          <a:schemeClr val="accent2">
             <a:lumMod val="20000"/>
             <a:lumOff val="80000"/>
           </a:schemeClr>
@@ -3941,6 +3941,206 @@
               <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
             <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>　滝</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8DEA81-D5AA-354E-9BE5-1915E7C32ABF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4969933" y="3454400"/>
+          <a:ext cx="3225800" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>20 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>洞窟入り口</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>690033</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>143933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>118533</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>80433</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2C20A0-1261-B940-BFEB-4566ADA9D47C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8276166" y="4461933"/>
+          <a:ext cx="3221567" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>23</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>　洞窟</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
             <a:solidFill>
@@ -3957,203 +4157,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8DEA81-D5AA-354E-9BE5-1915E7C32ABF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4969933" y="3454400"/>
-          <a:ext cx="3225800" cy="1968500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>20 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>洞窟入り口</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>690033</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>143933</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>118533</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>80433</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2C20A0-1261-B940-BFEB-4566ADA9D47C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8276166" y="4461933"/>
-          <a:ext cx="3221567" cy="1968500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>23</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>　洞窟</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
       <xdr:colOff>232834</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>173567</xdr:rowOff>
@@ -4184,9 +4187,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="57150">
@@ -4876,16 +4879,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>186266</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>931333</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>186267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>135467</xdr:rowOff>
+      <xdr:colOff>829733</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4900,8 +4903,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9668933" y="6282267"/>
-          <a:ext cx="2421467" cy="1981200"/>
+          <a:off x="9465733" y="6536267"/>
+          <a:ext cx="2743200" cy="897466"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5436,6 +5439,87 @@
               <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
             <a:t>アイテムとか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>16935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>687681</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>243499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0828F459-2B2A-CC4E-866E-3671C8F823EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3007626" y="10454376"/>
+          <a:ext cx="2512564" cy="433681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>15(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>森へ）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9458,7 +9542,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="D7" zoomScale="75" workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
@@ -9477,8 +9561,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="75" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="75" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/field.xlsx
+++ b/field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yodai/Documents/vscode/mypic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35675F98-D6CC-D249-A712-D0344B599CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DDFAF52-C4D0-074C-B341-53D3D3431C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16560" activeTab="3" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
   </bookViews>
@@ -3663,7 +3663,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
+          <a:schemeClr val="accent2">
             <a:lumMod val="20000"/>
             <a:lumOff val="80000"/>
           </a:schemeClr>
@@ -3881,8 +3881,8 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="57150">
@@ -4080,9 +4080,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="57150">
@@ -4746,7 +4746,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
+          <a:schemeClr val="accent2">
             <a:lumMod val="20000"/>
             <a:lumOff val="80000"/>
           </a:schemeClr>
@@ -5064,14 +5064,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>905937</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>745067</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:rowOff>135467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>135467</xdr:colOff>
+      <xdr:colOff>135468</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>186267</xdr:rowOff>
     </xdr:to>
@@ -5088,8 +5088,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="13233404" y="6223001"/>
-          <a:ext cx="1126063" cy="1329266"/>
+          <a:off x="14020800" y="6231467"/>
+          <a:ext cx="338668" cy="1320800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9562,7 +9562,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C12" zoomScale="75" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/field.xlsx
+++ b/field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yodai/Documents/vscode/mypic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DDFAF52-C4D0-074C-B341-53D3D3431C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F68B48-9C17-E449-A100-49712DE42217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16560" activeTab="3" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
   </bookViews>
@@ -1599,7 +1599,7 @@
               <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>17 </a:t>
+            <a:t>18 </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
@@ -1619,7 +1619,7 @@
               <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>7</a:t>
+            <a:t>8</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
@@ -1630,6 +1630,26 @@
               <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
             <a:t>　ボス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>森の奥</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1709,7 +1729,7 @@
               <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>18</a:t>
+            <a:t>17</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1" baseline="0">
@@ -1739,7 +1759,7 @@
               <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>8</a:t>
+            <a:t>7</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
@@ -2699,13 +2719,16 @@
             </a:rPr>
             <a:t>4</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>　森の中</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3294,15 +3317,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>109753</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>658518</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>156790</xdr:rowOff>
+      <xdr:colOff>516153</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>116652</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>55190</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3317,8 +3340,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14456049" y="3010370"/>
-          <a:ext cx="1505185" cy="407655"/>
+          <a:off x="14740153" y="3708400"/>
+          <a:ext cx="1497032" cy="410790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3623,7 +3646,7 @@
               <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>ボス戦</a:t>
+            <a:t>ボス戦　洞窟の奥</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4808,13 +4831,19 @@
             </a:rPr>
             <a:t>4</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>洞窟の中</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9543,7 +9572,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="D7" zoomScale="75" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9561,8 +9590,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="75" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="75" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/field.xlsx
+++ b/field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yodai/Documents/vscode/mypic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F68B48-9C17-E449-A100-49712DE42217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A29513-DFCD-3647-941E-35F0ED4C81D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16560" activeTab="3" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16560" activeTab="5" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
   </bookViews>
   <sheets>
     <sheet name="material" sheetId="1" r:id="rId1"/>
@@ -3573,9 +3573,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="57150">
@@ -3687,8 +3687,8 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="57150">
@@ -3793,9 +3793,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="57150">
@@ -4770,8 +4770,8 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="57150">
@@ -5564,14 +5564,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>29633</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>93134</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>143934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>29634</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>80434</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5586,14 +5586,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3822700" y="6189134"/>
+          <a:off x="3822700" y="6493934"/>
           <a:ext cx="3221567" cy="1968500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
+          <a:schemeClr val="accent2">
             <a:lumMod val="20000"/>
             <a:lumOff val="80000"/>
           </a:schemeClr>
@@ -5700,7 +5700,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
+          <a:schemeClr val="accent2">
             <a:lumMod val="20000"/>
             <a:lumOff val="80000"/>
           </a:schemeClr>
@@ -5770,7 +5770,7 @@
               <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>（大都市）</a:t>
+            <a:t>（大通り）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5810,7 +5810,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
+          <a:schemeClr val="accent2">
             <a:lumMod val="20000"/>
             <a:lumOff val="80000"/>
           </a:schemeClr>
@@ -5870,15 +5870,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>452966</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>8467</xdr:rowOff>
+      <xdr:colOff>249766</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>211667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>829733</xdr:colOff>
+      <xdr:colOff>626533</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>198967</xdr:rowOff>
+      <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5893,14 +5893,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7090833" y="4072467"/>
+          <a:off x="6887633" y="4021667"/>
           <a:ext cx="3221567" cy="1968500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
+          <a:schemeClr val="accent2">
             <a:lumMod val="20000"/>
             <a:lumOff val="80000"/>
           </a:schemeClr>
@@ -6007,7 +6007,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
+          <a:schemeClr val="accent2">
             <a:lumMod val="20000"/>
             <a:lumOff val="80000"/>
           </a:schemeClr>
@@ -6421,15 +6421,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>313266</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:colOff>397933</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>220134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>186267</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:colOff>270934</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>220134</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6444,7 +6444,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4106333" y="6807200"/>
+          <a:off x="4191000" y="7586134"/>
           <a:ext cx="821267" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6493,15 +6493,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>884768</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>143933</xdr:rowOff>
+      <xdr:colOff>918635</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>757767</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>143933</xdr:rowOff>
+      <xdr:colOff>791634</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6516,7 +6516,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5626101" y="7001933"/>
+          <a:off x="5659968" y="7797800"/>
           <a:ext cx="821266" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6679,15 +6679,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>842433</xdr:colOff>
+      <xdr:colOff>537633</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>270933</xdr:colOff>
+      <xdr:rowOff>8467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:rowOff>198967</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6702,14 +6702,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3687233" y="4089400"/>
+          <a:off x="3382433" y="4072467"/>
           <a:ext cx="3221567" cy="1968500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
+          <a:schemeClr val="accent2">
             <a:lumMod val="20000"/>
             <a:lumOff val="80000"/>
           </a:schemeClr>
@@ -6862,16 +6862,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>905934</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>71967</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>778933</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>135467</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>677334</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>795867</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6885,9 +6885,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6595534" y="5151967"/>
-          <a:ext cx="821266" cy="63500"/>
+        <a:xfrm flipH="1">
+          <a:off x="5418667" y="4013200"/>
+          <a:ext cx="2963333" cy="1981200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6950,7 +6950,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
+          <a:schemeClr val="accent2">
             <a:lumMod val="20000"/>
             <a:lumOff val="80000"/>
           </a:schemeClr>
@@ -7375,6 +7375,63 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>220133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>423333</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>71967</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBAAB295-6B29-4C41-8FD3-2ACD6EC6A759}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6121400" y="5808133"/>
+          <a:ext cx="939800" cy="1121834"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7523,7 +7580,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
+          <a:schemeClr val="accent2">
             <a:lumMod val="20000"/>
             <a:lumOff val="80000"/>
           </a:schemeClr>
@@ -7630,7 +7687,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
+          <a:schemeClr val="accent2">
             <a:lumMod val="20000"/>
             <a:lumOff val="80000"/>
           </a:schemeClr>
@@ -7737,7 +7794,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
+          <a:schemeClr val="accent2">
             <a:lumMod val="20000"/>
             <a:lumOff val="80000"/>
           </a:schemeClr>
@@ -7844,7 +7901,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
+          <a:schemeClr val="accent2">
             <a:lumMod val="20000"/>
             <a:lumOff val="80000"/>
           </a:schemeClr>
@@ -7934,7 +7991,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
+          <a:schemeClr val="accent2">
             <a:lumMod val="20000"/>
             <a:lumOff val="80000"/>
           </a:schemeClr>
@@ -8041,7 +8098,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
+          <a:schemeClr val="accent2">
             <a:lumMod val="20000"/>
             <a:lumOff val="80000"/>
           </a:schemeClr>
@@ -9590,8 +9647,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="75" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView topLeftCell="A12" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9609,8 +9666,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="75" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="A15" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9628,8 +9685,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/field.xlsx
+++ b/field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yodai/Documents/vscode/mypic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A29513-DFCD-3647-941E-35F0ED4C81D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692A9D07-32AF-9441-9D37-923C57907646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16560" activeTab="5" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
+    <workbookView xWindow="-5780" yWindow="-20060" windowWidth="28300" windowHeight="16560" activeTab="5" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
   </bookViews>
   <sheets>
     <sheet name="material" sheetId="1" r:id="rId1"/>
@@ -6148,7 +6148,7 @@
               <a:latin typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="HGPGothicE" panose="020B0900000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>3 </a:t>
+            <a:t>4 </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
@@ -9286,6 +9286,62 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>541866</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B0AD03-1913-124F-B9A8-3AB9F968A22A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7179733" y="3352800"/>
+          <a:ext cx="16934" cy="643467"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9667,7 +9723,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="P44" sqref="P44:P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9685,8 +9741,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/field.xlsx
+++ b/field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yodai/Documents/vscode/mypic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692A9D07-32AF-9441-9D37-923C57907646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBB5020-BFE5-234E-B551-48728EB991EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5780" yWindow="-20060" windowWidth="28300" windowHeight="16560" activeTab="5" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
   </bookViews>

--- a/field.xlsx
+++ b/field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yodai/Documents/vscode/mypic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBB5020-BFE5-234E-B551-48728EB991EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1034270E-4D28-0646-A8DF-845CE28C5CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5780" yWindow="-20060" windowWidth="28300" windowHeight="16560" activeTab="5" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" activeTab="5" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
   </bookViews>
   <sheets>
     <sheet name="material" sheetId="1" r:id="rId1"/>
@@ -9742,7 +9742,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/field.xlsx
+++ b/field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yodai/Documents/vscode/mypic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1034270E-4D28-0646-A8DF-845CE28C5CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF955F36-F990-0840-87F4-6F119E12DABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" activeTab="5" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
   </bookViews>
@@ -9703,7 +9703,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="E13" zoomScale="75" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -9741,8 +9741,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/field.xlsx
+++ b/field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yodai/Documents/vscode/mypic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF955F36-F990-0840-87F4-6F119E12DABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8D6465-15AE-044D-BB09-A7C2EAA460D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" activeTab="5" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
+    <workbookView xWindow="-4420" yWindow="-19120" windowWidth="28800" windowHeight="16560" activeTab="8" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
   </bookViews>
   <sheets>
     <sheet name="material" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,11 @@
     <sheet name="cave" sheetId="5" r:id="rId4"/>
     <sheet name="town" sheetId="7" r:id="rId5"/>
     <sheet name="desert" sheetId="6" r:id="rId6"/>
+    <sheet name="title" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
+    <sheet name="level_cal" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,6 +40,96 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>LV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>At</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Df</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素早さ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">スバヤサ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種族値</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">シュゾクチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>獲得ex</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カクトク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">コウゲキリョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ボウギョリョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>威力</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イリョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58,20 +151,47 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -80,8 +200,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9342,6 +9471,452 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>129400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>113205</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="グループ化 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40C33307-8939-AB40-9635-3E72FAC15082}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4038600" y="3022600"/>
+          <a:ext cx="10378300" cy="5726605"/>
+          <a:chOff x="4038600" y="3022600"/>
+          <a:chExt cx="10378300" cy="5726605"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="図 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8305188E-660B-574F-9FAF-A35FF3CFD414}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4038600" y="3022600"/>
+            <a:ext cx="5328500" cy="2987273"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:softEdge rad="127000"/>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="図 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0B0BF2-5EE0-A74E-8C13-CA41D849CE38}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048900" y="5712601"/>
+            <a:ext cx="5328500" cy="2991340"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:softEdge rad="127000"/>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="図 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63EE18B-4C5B-3E4D-A846-D493CBE36059}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9088400" y="5761001"/>
+            <a:ext cx="5328500" cy="2988204"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:softEdge rad="127000"/>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="図 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4B2A91-3A31-F64A-B852-3099CA811C72}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9086000" y="3028100"/>
+            <a:ext cx="5328500" cy="2990655"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:softEdge rad="127000"/>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>446900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>240205</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D3EE5C-324E-7247-B589-09AA2F0A61A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2451100" y="355600"/>
+          <a:ext cx="10378300" cy="5726605"/>
+          <a:chOff x="4038600" y="3022600"/>
+          <a:chExt cx="10378300" cy="5726605"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="図 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4634004-25E2-EE4A-BEC8-35048B3B2574}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4038600" y="3022600"/>
+            <a:ext cx="5328500" cy="2987273"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:softEdge rad="127000"/>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="図 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6A6D9D-9958-0641-AD54-E91130AC82C8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048900" y="5712601"/>
+            <a:ext cx="5328500" cy="2991340"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:softEdge rad="127000"/>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="図 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8ECE2F7-7CED-E340-9EC7-7AE9C4E6AAB2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9088400" y="5761001"/>
+            <a:ext cx="5328500" cy="2988204"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:softEdge rad="127000"/>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="図 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE795C7-CAD5-2B41-907F-4A7D711CAD6A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9086000" y="3028100"/>
+            <a:ext cx="5328500" cy="2990655"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:softEdge rad="127000"/>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65784FAC-9421-2F41-AC71-3909B3E21650}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId6">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="21000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-44000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13284200" y="850899"/>
+          <a:ext cx="7772400" cy="4142232"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9684,7 +10259,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
@@ -9741,8 +10316,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView topLeftCell="E1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9751,4 +10326,3878 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F148419D-2102-1040-8182-CC8C5431FA95}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E8738C-AC26-3645-88A8-361E23E6525D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B76B096-F1A5-704B-96A2-409EEA586FEC}">
+  <dimension ref="B2:O101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <f>FLOOR(FLOOR(5*POWER(N3,1.2),1),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <f>FLOOR(POWER(C3,1.004)+1.1+1,1)</f>
+        <v>42</v>
+      </c>
+      <c r="D4" s="1">
+        <f>FLOOR(POWER(D3,1.004)+1.1+1,1)</f>
+        <v>42</v>
+      </c>
+      <c r="E4" s="1">
+        <f>FLOOR(POWER(E3,1.004)+1.1+1,1)</f>
+        <v>25</v>
+      </c>
+      <c r="F4" s="1">
+        <f>FLOOR(POWER(F3,1.004)+1.1+1,1)</f>
+        <v>25</v>
+      </c>
+      <c r="G4" s="1">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <f>FLOOR(POWER(B4,2.5+(3-$L$5)/3),1)</f>
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O67" si="0">FLOOR(FLOOR(5*POWER(N4,1.2),1),1)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:C68" si="1">FLOOR(POWER(C4,1.004)+1.1+1,1)</f>
+        <v>44</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D8" si="2">FLOOR(POWER(D4,1.004)+1.1+1,1)</f>
+        <v>44</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E8" si="3">FLOOR(POWER(E4,1.004)+1.1+1,1)</f>
+        <v>27</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F8" si="4">FLOOR(POWER(F4,1.004)+1.1+1,1)</f>
+        <v>27</v>
+      </c>
+      <c r="G5" s="1">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I68" si="5">FLOOR(POWER(B5,2.5+(3-$L$5)/3),1)</f>
+        <v>15</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="F6" s="1">
+        <f>FLOOR(POWER(F5,1.004)+1.1+1,1)</f>
+        <v>29</v>
+      </c>
+      <c r="G6" s="1">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="G7" s="1">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="N7" s="1">
+        <v>5</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="G8" s="1">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="1">
+        <v>6</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ref="D9:D72" si="6">FLOOR(POWER(D8,1.004)+1.1+1,1)</f>
+        <v>52</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" ref="E9:E72" si="7">FLOOR(POWER(E8,1.004)+1.1+1,1)</f>
+        <v>35</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" ref="F9:F72" si="8">FLOOR(POWER(F8,1.004)+1.1+1,1)</f>
+        <v>35</v>
+      </c>
+      <c r="G9" s="1">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="5"/>
+        <v>129</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3</v>
+      </c>
+      <c r="N9" s="1">
+        <v>7</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="G10" s="1">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="5"/>
+        <v>181</v>
+      </c>
+      <c r="N10" s="1">
+        <v>8</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="G11" s="1">
+        <v>15</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="5"/>
+        <v>243</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="1">
+        <v>9</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="G12" s="1">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="5"/>
+        <v>316</v>
+      </c>
+      <c r="L12" s="1">
+        <v>30</v>
+      </c>
+      <c r="N12" s="1">
+        <v>10</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="G13" s="1">
+        <v>15</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="5"/>
+        <v>401</v>
+      </c>
+      <c r="N13" s="1">
+        <v>11</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="G14" s="1">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="5"/>
+        <v>498</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="1">
+        <v>12</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="G15" s="1">
+        <v>16</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1">
+        <f>FLOOR(POWER(B15,2.5+(3-$L$5)/3),1)</f>
+        <v>609</v>
+      </c>
+      <c r="L15" s="1">
+        <v>40</v>
+      </c>
+      <c r="N15" s="1">
+        <v>13</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="G16" s="1">
+        <v>16</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1">
+        <f>FLOOR(POWER(B16,2.5+(3-$L$5)/3),1)</f>
+        <v>733</v>
+      </c>
+      <c r="N16" s="1">
+        <v>14</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="G17" s="1">
+        <v>16</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="5"/>
+        <v>871</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="1">
+        <v>15</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="7"/>
+        <v>53</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="8"/>
+        <v>53</v>
+      </c>
+      <c r="G18" s="1">
+        <v>16</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="5"/>
+        <v>1024</v>
+      </c>
+      <c r="L18" s="1">
+        <v>30</v>
+      </c>
+      <c r="N18" s="1">
+        <v>16</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="G19" s="1">
+        <v>16</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="5"/>
+        <v>1191</v>
+      </c>
+      <c r="N19" s="1">
+        <v>17</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="7"/>
+        <v>57</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="8"/>
+        <v>57</v>
+      </c>
+      <c r="G20" s="1">
+        <v>16</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="5"/>
+        <v>1374</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="1">
+        <v>18</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="G21" s="1">
+        <v>16</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="5"/>
+        <v>1573</v>
+      </c>
+      <c r="L21" s="3">
+        <f>FLOOR(L18*POWER(L12,0.8)/L15*(POWER(L9,0.05)/4+2),1)</f>
+        <v>25</v>
+      </c>
+      <c r="N21" s="1">
+        <v>19</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="G22" s="1">
+        <v>16</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="5"/>
+        <v>1788</v>
+      </c>
+      <c r="N22" s="1">
+        <v>20</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="G23" s="1">
+        <v>16</v>
+      </c>
+      <c r="H23" s="1">
+        <v>4</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="5"/>
+        <v>2020</v>
+      </c>
+      <c r="N23" s="1">
+        <v>21</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="8"/>
+        <v>69</v>
+      </c>
+      <c r="G24" s="1">
+        <v>16</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="5"/>
+        <v>2270</v>
+      </c>
+      <c r="N24" s="1">
+        <v>22</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+      <c r="G25" s="1">
+        <v>16</v>
+      </c>
+      <c r="H25" s="1">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="5"/>
+        <v>2536</v>
+      </c>
+      <c r="N25" s="1">
+        <v>23</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="6"/>
+        <v>101</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+      <c r="G26" s="1">
+        <v>16</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="5"/>
+        <v>2821</v>
+      </c>
+      <c r="N26" s="1">
+        <v>24</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="6"/>
+        <v>104</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+      <c r="G27" s="1">
+        <v>17</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="5"/>
+        <v>3125</v>
+      </c>
+      <c r="N27" s="1">
+        <v>25</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="6"/>
+        <v>108</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="8"/>
+        <v>81</v>
+      </c>
+      <c r="G28" s="1">
+        <v>17</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="5"/>
+        <v>3446</v>
+      </c>
+      <c r="N28" s="1">
+        <v>26</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="G29" s="1">
+        <v>17</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="5"/>
+        <v>3787</v>
+      </c>
+      <c r="N29" s="1">
+        <v>27</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="6"/>
+        <v>116</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="8"/>
+        <v>87</v>
+      </c>
+      <c r="G30" s="1">
+        <v>17</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="5"/>
+        <v>4148</v>
+      </c>
+      <c r="N30" s="1">
+        <v>28</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="0"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="1">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="G31" s="1">
+        <v>17</v>
+      </c>
+      <c r="H31" s="1">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="5"/>
+        <v>4528</v>
+      </c>
+      <c r="N31" s="1">
+        <v>29</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="0"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="1">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="6"/>
+        <v>124</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="7"/>
+        <v>93</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="8"/>
+        <v>93</v>
+      </c>
+      <c r="G32" s="1">
+        <v>17</v>
+      </c>
+      <c r="H32" s="1">
+        <v>6</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="5"/>
+        <v>4929</v>
+      </c>
+      <c r="N32" s="1">
+        <v>30</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="0"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="1">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="8"/>
+        <v>96</v>
+      </c>
+      <c r="G33" s="1">
+        <v>17</v>
+      </c>
+      <c r="H33" s="1">
+        <v>6</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="5"/>
+        <v>5350</v>
+      </c>
+      <c r="N33" s="1">
+        <v>31</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="0"/>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="6"/>
+        <v>132</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="8"/>
+        <v>99</v>
+      </c>
+      <c r="G34" s="1">
+        <v>17</v>
+      </c>
+      <c r="H34" s="1">
+        <v>6</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="5"/>
+        <v>5792</v>
+      </c>
+      <c r="N34" s="1">
+        <v>32</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="1">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="6"/>
+        <v>136</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="8"/>
+        <v>102</v>
+      </c>
+      <c r="G35" s="1">
+        <v>17</v>
+      </c>
+      <c r="H35" s="1">
+        <v>6</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="5"/>
+        <v>6255</v>
+      </c>
+      <c r="N35" s="1">
+        <v>33</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="0"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="1">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="7"/>
+        <v>106</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="8"/>
+        <v>106</v>
+      </c>
+      <c r="G36" s="1">
+        <v>17</v>
+      </c>
+      <c r="H36" s="1">
+        <v>6</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="5"/>
+        <v>6740</v>
+      </c>
+      <c r="N36" s="1">
+        <v>34</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="0"/>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="1">
+        <v>35</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="8"/>
+        <v>110</v>
+      </c>
+      <c r="G37" s="1">
+        <v>17</v>
+      </c>
+      <c r="H37" s="1">
+        <v>6</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="5"/>
+        <v>7247</v>
+      </c>
+      <c r="N37" s="1">
+        <v>35</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="0"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="1">
+        <v>36</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="6"/>
+        <v>148</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="7"/>
+        <v>114</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="8"/>
+        <v>114</v>
+      </c>
+      <c r="G38" s="1">
+        <v>18</v>
+      </c>
+      <c r="H38" s="1">
+        <v>6</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="5"/>
+        <v>7775</v>
+      </c>
+      <c r="N38" s="1">
+        <v>36</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="0"/>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="1">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="6"/>
+        <v>153</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="7"/>
+        <v>118</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="8"/>
+        <v>118</v>
+      </c>
+      <c r="G39" s="1">
+        <v>18</v>
+      </c>
+      <c r="H39" s="1">
+        <v>7</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="5"/>
+        <v>8327</v>
+      </c>
+      <c r="N39" s="1">
+        <v>37</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="1">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="1"/>
+        <v>158</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="6"/>
+        <v>158</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="7"/>
+        <v>122</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="8"/>
+        <v>122</v>
+      </c>
+      <c r="G40" s="1">
+        <v>18</v>
+      </c>
+      <c r="H40" s="1">
+        <v>7</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="5"/>
+        <v>8901</v>
+      </c>
+      <c r="N40" s="1">
+        <v>38</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="0"/>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="1">
+        <v>39</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="1"/>
+        <v>163</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="6"/>
+        <v>163</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="7"/>
+        <v>126</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="8"/>
+        <v>126</v>
+      </c>
+      <c r="G41" s="1">
+        <v>18</v>
+      </c>
+      <c r="H41" s="1">
+        <v>7</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="5"/>
+        <v>9498</v>
+      </c>
+      <c r="N41" s="1">
+        <v>39</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="1">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="6"/>
+        <v>168</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="7"/>
+        <v>130</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="8"/>
+        <v>130</v>
+      </c>
+      <c r="G42" s="1">
+        <v>18</v>
+      </c>
+      <c r="H42" s="1">
+        <v>7</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="5"/>
+        <v>10119</v>
+      </c>
+      <c r="N42" s="1">
+        <v>40</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="0"/>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="1">
+        <v>41</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="1"/>
+        <v>173</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="6"/>
+        <v>173</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="7"/>
+        <v>134</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="8"/>
+        <v>134</v>
+      </c>
+      <c r="G43" s="1">
+        <v>18</v>
+      </c>
+      <c r="H43" s="1">
+        <v>7</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="5"/>
+        <v>10763</v>
+      </c>
+      <c r="N43" s="1">
+        <v>41</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="1">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="1"/>
+        <v>178</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="6"/>
+        <v>178</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="7"/>
+        <v>138</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="8"/>
+        <v>138</v>
+      </c>
+      <c r="G44" s="1">
+        <v>18</v>
+      </c>
+      <c r="H44" s="1">
+        <v>7</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="5"/>
+        <v>11432</v>
+      </c>
+      <c r="N44" s="1">
+        <v>42</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="0"/>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="1">
+        <v>43</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="1"/>
+        <v>183</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="6"/>
+        <v>183</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="7"/>
+        <v>142</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="8"/>
+        <v>142</v>
+      </c>
+      <c r="G45" s="1">
+        <v>18</v>
+      </c>
+      <c r="H45" s="1">
+        <v>7</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="5"/>
+        <v>12124</v>
+      </c>
+      <c r="N45" s="1">
+        <v>43</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="0"/>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="1">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="1"/>
+        <v>188</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="6"/>
+        <v>188</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="7"/>
+        <v>146</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="8"/>
+        <v>146</v>
+      </c>
+      <c r="G46" s="1">
+        <v>18</v>
+      </c>
+      <c r="H46" s="1">
+        <v>7</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="5"/>
+        <v>12841</v>
+      </c>
+      <c r="N46" s="1">
+        <v>44</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="0"/>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="1">
+        <v>45</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="1"/>
+        <v>194</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="6"/>
+        <v>194</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="7"/>
+        <v>151</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="8"/>
+        <v>151</v>
+      </c>
+      <c r="G47" s="1">
+        <v>18</v>
+      </c>
+      <c r="H47" s="1">
+        <v>7</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="5"/>
+        <v>13584</v>
+      </c>
+      <c r="N47" s="1">
+        <v>45</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="0"/>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="1">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="7"/>
+        <v>156</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="8"/>
+        <v>156</v>
+      </c>
+      <c r="G48" s="1">
+        <v>18</v>
+      </c>
+      <c r="H48" s="1">
+        <v>7</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="5"/>
+        <v>14351</v>
+      </c>
+      <c r="N48" s="1">
+        <v>46</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="0"/>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="1">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="6"/>
+        <v>206</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="7"/>
+        <v>161</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="8"/>
+        <v>161</v>
+      </c>
+      <c r="G49" s="1">
+        <v>19</v>
+      </c>
+      <c r="H49" s="1">
+        <v>7</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="5"/>
+        <v>15144</v>
+      </c>
+      <c r="N49" s="1">
+        <v>47</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="0"/>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="1">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="6"/>
+        <v>212</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="7"/>
+        <v>166</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="8"/>
+        <v>166</v>
+      </c>
+      <c r="G50" s="1">
+        <v>19</v>
+      </c>
+      <c r="H50" s="1">
+        <v>8</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="5"/>
+        <v>15962</v>
+      </c>
+      <c r="N50" s="1">
+        <v>48</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="1">
+        <v>49</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="6"/>
+        <v>218</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="7"/>
+        <v>171</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="8"/>
+        <v>171</v>
+      </c>
+      <c r="G51" s="1">
+        <v>19</v>
+      </c>
+      <c r="H51" s="1">
+        <v>8</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="5"/>
+        <v>16807</v>
+      </c>
+      <c r="N51" s="1">
+        <v>49</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="0"/>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="1">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="6"/>
+        <v>224</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="7"/>
+        <v>176</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="8"/>
+        <v>176</v>
+      </c>
+      <c r="G52" s="1">
+        <v>19</v>
+      </c>
+      <c r="H52" s="1">
+        <v>8</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="5"/>
+        <v>17677</v>
+      </c>
+      <c r="N52" s="1">
+        <v>50</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" si="0"/>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="1">
+        <v>51</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="1"/>
+        <v>231</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="6"/>
+        <v>231</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="7"/>
+        <v>181</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="8"/>
+        <v>181</v>
+      </c>
+      <c r="G53" s="1">
+        <v>19</v>
+      </c>
+      <c r="H53" s="1">
+        <v>8</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="5"/>
+        <v>18574</v>
+      </c>
+      <c r="N53" s="1">
+        <v>51</v>
+      </c>
+      <c r="O53" s="1">
+        <f t="shared" si="0"/>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="1">
+        <v>52</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="6"/>
+        <v>238</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="7"/>
+        <v>186</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="8"/>
+        <v>186</v>
+      </c>
+      <c r="G54" s="1">
+        <v>19</v>
+      </c>
+      <c r="H54" s="1">
+        <v>8</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="5"/>
+        <v>19498</v>
+      </c>
+      <c r="N54" s="1">
+        <v>52</v>
+      </c>
+      <c r="O54" s="1">
+        <f t="shared" si="0"/>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="1">
+        <v>53</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="6"/>
+        <v>245</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="7"/>
+        <v>192</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="8"/>
+        <v>192</v>
+      </c>
+      <c r="G55" s="1">
+        <v>19</v>
+      </c>
+      <c r="H55" s="1">
+        <v>8</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="5"/>
+        <v>20449</v>
+      </c>
+      <c r="N55" s="1">
+        <v>53</v>
+      </c>
+      <c r="O55" s="1">
+        <f t="shared" si="0"/>
+        <v>586</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" s="1">
+        <v>54</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="6"/>
+        <v>252</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="7"/>
+        <v>198</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="8"/>
+        <v>198</v>
+      </c>
+      <c r="G56" s="1">
+        <v>19</v>
+      </c>
+      <c r="H56" s="1">
+        <v>8</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="5"/>
+        <v>21428</v>
+      </c>
+      <c r="N56" s="1">
+        <v>54</v>
+      </c>
+      <c r="O56" s="1">
+        <f t="shared" si="0"/>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="B57" s="1">
+        <v>55</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="1"/>
+        <v>259</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="6"/>
+        <v>259</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="7"/>
+        <v>204</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="8"/>
+        <v>204</v>
+      </c>
+      <c r="G57" s="1">
+        <v>19</v>
+      </c>
+      <c r="H57" s="1">
+        <v>8</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="5"/>
+        <v>22434</v>
+      </c>
+      <c r="N57" s="1">
+        <v>55</v>
+      </c>
+      <c r="O57" s="1">
+        <f t="shared" si="0"/>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="B58" s="1">
+        <v>56</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="1"/>
+        <v>266</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="6"/>
+        <v>266</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="8"/>
+        <v>210</v>
+      </c>
+      <c r="G58" s="1">
+        <v>19</v>
+      </c>
+      <c r="H58" s="1">
+        <v>8</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="5"/>
+        <v>23467</v>
+      </c>
+      <c r="N58" s="1">
+        <v>56</v>
+      </c>
+      <c r="O58" s="1">
+        <f t="shared" si="0"/>
+        <v>626</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="B59" s="1">
+        <v>57</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="1"/>
+        <v>274</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="6"/>
+        <v>274</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="7"/>
+        <v>216</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="8"/>
+        <v>216</v>
+      </c>
+      <c r="G59" s="1">
+        <v>19</v>
+      </c>
+      <c r="H59" s="1">
+        <v>8</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="5"/>
+        <v>24529</v>
+      </c>
+      <c r="N59" s="1">
+        <v>57</v>
+      </c>
+      <c r="O59" s="1">
+        <f t="shared" si="0"/>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="B60" s="1">
+        <v>58</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="1"/>
+        <v>282</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="6"/>
+        <v>282</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="7"/>
+        <v>222</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="8"/>
+        <v>222</v>
+      </c>
+      <c r="G60" s="1">
+        <v>19</v>
+      </c>
+      <c r="H60" s="1">
+        <v>8</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="5"/>
+        <v>25619</v>
+      </c>
+      <c r="N60" s="1">
+        <v>58</v>
+      </c>
+      <c r="O60" s="1">
+        <f t="shared" si="0"/>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="B61" s="1">
+        <v>59</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="6"/>
+        <v>290</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="7"/>
+        <v>228</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="8"/>
+        <v>228</v>
+      </c>
+      <c r="G61" s="1">
+        <v>19</v>
+      </c>
+      <c r="H61" s="1">
+        <v>8</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="5"/>
+        <v>26738</v>
+      </c>
+      <c r="N61" s="1">
+        <v>59</v>
+      </c>
+      <c r="O61" s="1">
+        <f t="shared" si="0"/>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15">
+      <c r="B62" s="1">
+        <v>60</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="1"/>
+        <v>298</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="6"/>
+        <v>298</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="7"/>
+        <v>235</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="8"/>
+        <v>235</v>
+      </c>
+      <c r="G62" s="1">
+        <v>20</v>
+      </c>
+      <c r="H62" s="1">
+        <v>9</v>
+      </c>
+      <c r="I62" s="1">
+        <f t="shared" si="5"/>
+        <v>27885</v>
+      </c>
+      <c r="N62" s="1">
+        <v>60</v>
+      </c>
+      <c r="O62" s="1">
+        <f t="shared" si="0"/>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15">
+      <c r="B63" s="1">
+        <v>61</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="1"/>
+        <v>306</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="6"/>
+        <v>306</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="7"/>
+        <v>242</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="8"/>
+        <v>242</v>
+      </c>
+      <c r="G63" s="1">
+        <v>20</v>
+      </c>
+      <c r="H63" s="1">
+        <v>9</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" si="5"/>
+        <v>29061</v>
+      </c>
+      <c r="N63" s="1">
+        <v>61</v>
+      </c>
+      <c r="O63" s="1">
+        <f t="shared" si="0"/>
+        <v>694</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15">
+      <c r="B64" s="1">
+        <v>62</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="6"/>
+        <v>315</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="7"/>
+        <v>249</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="8"/>
+        <v>249</v>
+      </c>
+      <c r="G64" s="1">
+        <v>20</v>
+      </c>
+      <c r="H64" s="1">
+        <v>9</v>
+      </c>
+      <c r="I64" s="1">
+        <f t="shared" si="5"/>
+        <v>30267</v>
+      </c>
+      <c r="N64" s="1">
+        <v>62</v>
+      </c>
+      <c r="O64" s="1">
+        <f t="shared" si="0"/>
+        <v>707</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15">
+      <c r="B65" s="1">
+        <v>63</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="6"/>
+        <v>324</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="7"/>
+        <v>256</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="8"/>
+        <v>256</v>
+      </c>
+      <c r="G65" s="1">
+        <v>20</v>
+      </c>
+      <c r="H65" s="1">
+        <v>9</v>
+      </c>
+      <c r="I65" s="1">
+        <f t="shared" si="5"/>
+        <v>31502</v>
+      </c>
+      <c r="N65" s="1">
+        <v>63</v>
+      </c>
+      <c r="O65" s="1">
+        <f t="shared" si="0"/>
+        <v>721</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15">
+      <c r="B66" s="1">
+        <v>64</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="1"/>
+        <v>333</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="6"/>
+        <v>333</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" si="7"/>
+        <v>263</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="8"/>
+        <v>263</v>
+      </c>
+      <c r="G66" s="1">
+        <v>20</v>
+      </c>
+      <c r="H66" s="1">
+        <v>9</v>
+      </c>
+      <c r="I66" s="1">
+        <f t="shared" si="5"/>
+        <v>32768</v>
+      </c>
+      <c r="N66" s="1">
+        <v>64</v>
+      </c>
+      <c r="O66" s="1">
+        <f t="shared" si="0"/>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15">
+      <c r="B67" s="1">
+        <v>65</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="1"/>
+        <v>342</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="6"/>
+        <v>342</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" si="7"/>
+        <v>271</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="8"/>
+        <v>271</v>
+      </c>
+      <c r="G67" s="1">
+        <v>20</v>
+      </c>
+      <c r="H67" s="1">
+        <v>9</v>
+      </c>
+      <c r="I67" s="1">
+        <f t="shared" si="5"/>
+        <v>34063</v>
+      </c>
+      <c r="N67" s="1">
+        <v>65</v>
+      </c>
+      <c r="O67" s="1">
+        <f t="shared" si="0"/>
+        <v>748</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15">
+      <c r="B68" s="1">
+        <v>66</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="1"/>
+        <v>352</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="6"/>
+        <v>352</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" si="7"/>
+        <v>279</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="8"/>
+        <v>279</v>
+      </c>
+      <c r="G68" s="1">
+        <v>20</v>
+      </c>
+      <c r="H68" s="1">
+        <v>9</v>
+      </c>
+      <c r="I68" s="1">
+        <f t="shared" si="5"/>
+        <v>35388</v>
+      </c>
+      <c r="N68" s="1">
+        <v>66</v>
+      </c>
+      <c r="O68" s="1">
+        <f t="shared" ref="O68:O100" si="9">FLOOR(FLOOR(5*POWER(N68,1.2),1),1)</f>
+        <v>762</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15">
+      <c r="B69" s="1">
+        <v>67</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" ref="C69:C101" si="10">FLOOR(POWER(C68,1.004)+1.1+1,1)</f>
+        <v>362</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="6"/>
+        <v>362</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" si="7"/>
+        <v>287</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="8"/>
+        <v>287</v>
+      </c>
+      <c r="G69" s="1">
+        <v>20</v>
+      </c>
+      <c r="H69" s="1">
+        <v>9</v>
+      </c>
+      <c r="I69" s="1">
+        <f t="shared" ref="I69:I101" si="11">FLOOR(POWER(B69,2.5+(3-$L$5)/3),1)</f>
+        <v>36744</v>
+      </c>
+      <c r="N69" s="1">
+        <v>67</v>
+      </c>
+      <c r="O69" s="1">
+        <f t="shared" si="9"/>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15">
+      <c r="B70" s="1">
+        <v>68</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="10"/>
+        <v>372</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="6"/>
+        <v>372</v>
+      </c>
+      <c r="E70" s="1">
+        <f t="shared" si="7"/>
+        <v>295</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="8"/>
+        <v>295</v>
+      </c>
+      <c r="G70" s="1">
+        <v>20</v>
+      </c>
+      <c r="H70" s="1">
+        <v>9</v>
+      </c>
+      <c r="I70" s="1">
+        <f t="shared" si="11"/>
+        <v>38130</v>
+      </c>
+      <c r="N70" s="1">
+        <v>68</v>
+      </c>
+      <c r="O70" s="1">
+        <f t="shared" si="9"/>
+        <v>790</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15">
+      <c r="B71" s="1">
+        <v>69</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="10"/>
+        <v>383</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="6"/>
+        <v>383</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" si="7"/>
+        <v>303</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="8"/>
+        <v>303</v>
+      </c>
+      <c r="G71" s="1">
+        <v>20</v>
+      </c>
+      <c r="H71" s="1">
+        <v>9</v>
+      </c>
+      <c r="I71" s="1">
+        <f t="shared" si="11"/>
+        <v>39547</v>
+      </c>
+      <c r="N71" s="1">
+        <v>69</v>
+      </c>
+      <c r="O71" s="1">
+        <f t="shared" si="9"/>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15">
+      <c r="B72" s="1">
+        <v>70</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="10"/>
+        <v>394</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="6"/>
+        <v>394</v>
+      </c>
+      <c r="E72" s="1">
+        <f t="shared" si="7"/>
+        <v>312</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="8"/>
+        <v>312</v>
+      </c>
+      <c r="G72" s="1">
+        <v>20</v>
+      </c>
+      <c r="H72" s="1">
+        <v>9</v>
+      </c>
+      <c r="I72" s="1">
+        <f t="shared" si="11"/>
+        <v>40996</v>
+      </c>
+      <c r="N72" s="1">
+        <v>70</v>
+      </c>
+      <c r="O72" s="1">
+        <f t="shared" si="9"/>
+        <v>818</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15">
+      <c r="B73" s="1">
+        <v>71</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="10"/>
+        <v>405</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" ref="D73:D101" si="12">FLOOR(POWER(D72,1.004)+1.1+1,1)</f>
+        <v>405</v>
+      </c>
+      <c r="E73" s="1">
+        <f t="shared" ref="E73:E101" si="13">FLOOR(POWER(E72,1.004)+1.1+1,1)</f>
+        <v>321</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" ref="F73:F101" si="14">FLOOR(POWER(F72,1.004)+1.1+1,1)</f>
+        <v>321</v>
+      </c>
+      <c r="G73" s="1">
+        <v>20</v>
+      </c>
+      <c r="H73" s="1">
+        <v>9</v>
+      </c>
+      <c r="I73" s="1">
+        <f t="shared" si="11"/>
+        <v>42476</v>
+      </c>
+      <c r="N73" s="1">
+        <v>71</v>
+      </c>
+      <c r="O73" s="1">
+        <f t="shared" si="9"/>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15">
+      <c r="B74" s="1">
+        <v>72</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="10"/>
+        <v>416</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="12"/>
+        <v>416</v>
+      </c>
+      <c r="E74" s="1">
+        <f t="shared" si="13"/>
+        <v>330</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="14"/>
+        <v>330</v>
+      </c>
+      <c r="G74" s="1">
+        <v>20</v>
+      </c>
+      <c r="H74" s="1">
+        <v>9</v>
+      </c>
+      <c r="I74" s="1">
+        <f t="shared" si="11"/>
+        <v>43987</v>
+      </c>
+      <c r="N74" s="1">
+        <v>72</v>
+      </c>
+      <c r="O74" s="1">
+        <f t="shared" si="9"/>
+        <v>846</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15">
+      <c r="B75" s="1">
+        <v>73</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="10"/>
+        <v>428</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="12"/>
+        <v>428</v>
+      </c>
+      <c r="E75" s="1">
+        <f t="shared" si="13"/>
+        <v>339</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="14"/>
+        <v>339</v>
+      </c>
+      <c r="G75" s="1">
+        <v>21</v>
+      </c>
+      <c r="H75" s="1">
+        <v>9</v>
+      </c>
+      <c r="I75" s="1">
+        <f t="shared" si="11"/>
+        <v>45530</v>
+      </c>
+      <c r="N75" s="1">
+        <v>73</v>
+      </c>
+      <c r="O75" s="1">
+        <f t="shared" si="9"/>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15">
+      <c r="B76" s="1">
+        <v>74</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="10"/>
+        <v>440</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="12"/>
+        <v>440</v>
+      </c>
+      <c r="E76" s="1">
+        <f t="shared" si="13"/>
+        <v>349</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="14"/>
+        <v>349</v>
+      </c>
+      <c r="G76" s="1">
+        <v>21</v>
+      </c>
+      <c r="H76" s="1">
+        <v>9</v>
+      </c>
+      <c r="I76" s="1">
+        <f t="shared" si="11"/>
+        <v>47106</v>
+      </c>
+      <c r="N76" s="1">
+        <v>74</v>
+      </c>
+      <c r="O76" s="1">
+        <f t="shared" si="9"/>
+        <v>875</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15">
+      <c r="B77" s="1">
+        <v>75</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="10"/>
+        <v>452</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="12"/>
+        <v>452</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" si="13"/>
+        <v>359</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="14"/>
+        <v>359</v>
+      </c>
+      <c r="G77" s="1">
+        <v>21</v>
+      </c>
+      <c r="H77" s="1">
+        <v>9</v>
+      </c>
+      <c r="I77" s="1">
+        <f t="shared" si="11"/>
+        <v>48713</v>
+      </c>
+      <c r="N77" s="1">
+        <v>75</v>
+      </c>
+      <c r="O77" s="1">
+        <f t="shared" si="9"/>
+        <v>889</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15">
+      <c r="B78" s="1">
+        <v>76</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="10"/>
+        <v>465</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="12"/>
+        <v>465</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" si="13"/>
+        <v>369</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="14"/>
+        <v>369</v>
+      </c>
+      <c r="G78" s="1">
+        <v>21</v>
+      </c>
+      <c r="H78" s="1">
+        <v>9</v>
+      </c>
+      <c r="I78" s="1">
+        <f t="shared" si="11"/>
+        <v>50354</v>
+      </c>
+      <c r="N78" s="1">
+        <v>76</v>
+      </c>
+      <c r="O78" s="1">
+        <f t="shared" si="9"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15">
+      <c r="B79" s="1">
+        <v>77</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="10"/>
+        <v>478</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="12"/>
+        <v>478</v>
+      </c>
+      <c r="E79" s="1">
+        <f t="shared" si="13"/>
+        <v>379</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="14"/>
+        <v>379</v>
+      </c>
+      <c r="G79" s="1">
+        <v>21</v>
+      </c>
+      <c r="H79" s="1">
+        <v>10</v>
+      </c>
+      <c r="I79" s="1">
+        <f t="shared" si="11"/>
+        <v>52026</v>
+      </c>
+      <c r="N79" s="1">
+        <v>77</v>
+      </c>
+      <c r="O79" s="1">
+        <f t="shared" si="9"/>
+        <v>917</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15">
+      <c r="B80" s="1">
+        <v>78</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="10"/>
+        <v>492</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="12"/>
+        <v>492</v>
+      </c>
+      <c r="E80" s="1">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="14"/>
+        <v>390</v>
+      </c>
+      <c r="G80" s="1">
+        <v>21</v>
+      </c>
+      <c r="H80" s="1">
+        <v>10</v>
+      </c>
+      <c r="I80" s="1">
+        <f t="shared" si="11"/>
+        <v>53732</v>
+      </c>
+      <c r="N80" s="1">
+        <v>78</v>
+      </c>
+      <c r="O80" s="1">
+        <f t="shared" si="9"/>
+        <v>932</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15">
+      <c r="B81" s="1">
+        <v>79</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="10"/>
+        <v>506</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="12"/>
+        <v>506</v>
+      </c>
+      <c r="E81" s="1">
+        <f t="shared" si="13"/>
+        <v>401</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="14"/>
+        <v>401</v>
+      </c>
+      <c r="G81" s="1">
+        <v>21</v>
+      </c>
+      <c r="H81" s="1">
+        <v>10</v>
+      </c>
+      <c r="I81" s="1">
+        <f t="shared" si="11"/>
+        <v>55471</v>
+      </c>
+      <c r="N81" s="1">
+        <v>79</v>
+      </c>
+      <c r="O81" s="1">
+        <f t="shared" si="9"/>
+        <v>946</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15">
+      <c r="B82" s="1">
+        <v>80</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="10"/>
+        <v>520</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="12"/>
+        <v>520</v>
+      </c>
+      <c r="E82" s="1">
+        <f t="shared" si="13"/>
+        <v>412</v>
+      </c>
+      <c r="F82" s="1">
+        <f t="shared" si="14"/>
+        <v>412</v>
+      </c>
+      <c r="G82" s="1">
+        <v>21</v>
+      </c>
+      <c r="H82" s="1">
+        <v>10</v>
+      </c>
+      <c r="I82" s="1">
+        <f t="shared" si="11"/>
+        <v>57243</v>
+      </c>
+      <c r="N82" s="1">
+        <v>80</v>
+      </c>
+      <c r="O82" s="1">
+        <f t="shared" si="9"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15">
+      <c r="B83" s="1">
+        <v>81</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="10"/>
+        <v>535</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="12"/>
+        <v>535</v>
+      </c>
+      <c r="E83" s="1">
+        <f t="shared" si="13"/>
+        <v>424</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" si="14"/>
+        <v>424</v>
+      </c>
+      <c r="G83" s="1">
+        <v>21</v>
+      </c>
+      <c r="H83" s="1">
+        <v>10</v>
+      </c>
+      <c r="I83" s="1">
+        <f t="shared" si="11"/>
+        <v>59049</v>
+      </c>
+      <c r="N83" s="1">
+        <v>81</v>
+      </c>
+      <c r="O83" s="1">
+        <f t="shared" si="9"/>
+        <v>975</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15">
+      <c r="B84" s="1">
+        <v>82</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="10"/>
+        <v>550</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="12"/>
+        <v>550</v>
+      </c>
+      <c r="E84" s="1">
+        <f t="shared" si="13"/>
+        <v>436</v>
+      </c>
+      <c r="F84" s="1">
+        <f t="shared" si="14"/>
+        <v>436</v>
+      </c>
+      <c r="G84" s="1">
+        <v>21</v>
+      </c>
+      <c r="H84" s="1">
+        <v>10</v>
+      </c>
+      <c r="I84" s="1">
+        <f t="shared" si="11"/>
+        <v>60888</v>
+      </c>
+      <c r="N84" s="1">
+        <v>82</v>
+      </c>
+      <c r="O84" s="1">
+        <f t="shared" si="9"/>
+        <v>989</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15">
+      <c r="B85" s="1">
+        <v>83</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="10"/>
+        <v>566</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="12"/>
+        <v>566</v>
+      </c>
+      <c r="E85" s="1">
+        <f t="shared" si="13"/>
+        <v>448</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" si="14"/>
+        <v>448</v>
+      </c>
+      <c r="G85" s="1">
+        <v>21</v>
+      </c>
+      <c r="H85" s="1">
+        <v>10</v>
+      </c>
+      <c r="I85" s="1">
+        <f t="shared" si="11"/>
+        <v>62761</v>
+      </c>
+      <c r="N85" s="1">
+        <v>83</v>
+      </c>
+      <c r="O85" s="1">
+        <f t="shared" si="9"/>
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15">
+      <c r="B86" s="1">
+        <v>84</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="10"/>
+        <v>582</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="12"/>
+        <v>582</v>
+      </c>
+      <c r="E86" s="1">
+        <f t="shared" si="13"/>
+        <v>461</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="shared" si="14"/>
+        <v>461</v>
+      </c>
+      <c r="G86" s="1">
+        <v>21</v>
+      </c>
+      <c r="H86" s="1">
+        <v>10</v>
+      </c>
+      <c r="I86" s="1">
+        <f t="shared" si="11"/>
+        <v>64669</v>
+      </c>
+      <c r="N86" s="1">
+        <v>84</v>
+      </c>
+      <c r="O86" s="1">
+        <f t="shared" si="9"/>
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15">
+      <c r="B87" s="1">
+        <v>85</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="10"/>
+        <v>599</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="12"/>
+        <v>599</v>
+      </c>
+      <c r="E87" s="1">
+        <f t="shared" si="13"/>
+        <v>474</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" si="14"/>
+        <v>474</v>
+      </c>
+      <c r="G87" s="1">
+        <v>22</v>
+      </c>
+      <c r="H87" s="1">
+        <v>10</v>
+      </c>
+      <c r="I87" s="1">
+        <f t="shared" si="11"/>
+        <v>66611</v>
+      </c>
+      <c r="N87" s="1">
+        <v>85</v>
+      </c>
+      <c r="O87" s="1">
+        <f t="shared" si="9"/>
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15">
+      <c r="B88" s="1">
+        <v>86</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="10"/>
+        <v>616</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="12"/>
+        <v>616</v>
+      </c>
+      <c r="E88" s="1">
+        <f t="shared" si="13"/>
+        <v>487</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" si="14"/>
+        <v>487</v>
+      </c>
+      <c r="G88" s="1">
+        <v>22</v>
+      </c>
+      <c r="H88" s="1">
+        <v>10</v>
+      </c>
+      <c r="I88" s="1">
+        <f t="shared" si="11"/>
+        <v>68587</v>
+      </c>
+      <c r="N88" s="1">
+        <v>86</v>
+      </c>
+      <c r="O88" s="1">
+        <f t="shared" si="9"/>
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15">
+      <c r="B89" s="1">
+        <v>87</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="10"/>
+        <v>634</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="12"/>
+        <v>634</v>
+      </c>
+      <c r="E89" s="1">
+        <f t="shared" si="13"/>
+        <v>501</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="14"/>
+        <v>501</v>
+      </c>
+      <c r="G89" s="1">
+        <v>22</v>
+      </c>
+      <c r="H89" s="1">
+        <v>10</v>
+      </c>
+      <c r="I89" s="1">
+        <f t="shared" si="11"/>
+        <v>70598</v>
+      </c>
+      <c r="N89" s="1">
+        <v>87</v>
+      </c>
+      <c r="O89" s="1">
+        <f t="shared" si="9"/>
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15">
+      <c r="B90" s="1">
+        <v>88</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="10"/>
+        <v>652</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="12"/>
+        <v>652</v>
+      </c>
+      <c r="E90" s="1">
+        <f t="shared" si="13"/>
+        <v>515</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="14"/>
+        <v>515</v>
+      </c>
+      <c r="G90" s="1">
+        <v>22</v>
+      </c>
+      <c r="H90" s="1">
+        <v>10</v>
+      </c>
+      <c r="I90" s="1">
+        <f t="shared" si="11"/>
+        <v>72645</v>
+      </c>
+      <c r="N90" s="1">
+        <v>88</v>
+      </c>
+      <c r="O90" s="1">
+        <f t="shared" si="9"/>
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15">
+      <c r="B91" s="1">
+        <v>89</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="10"/>
+        <v>671</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="12"/>
+        <v>671</v>
+      </c>
+      <c r="E91" s="1">
+        <f t="shared" si="13"/>
+        <v>530</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="14"/>
+        <v>530</v>
+      </c>
+      <c r="G91" s="1">
+        <v>22</v>
+      </c>
+      <c r="H91" s="1">
+        <v>10</v>
+      </c>
+      <c r="I91" s="1">
+        <f t="shared" si="11"/>
+        <v>74726</v>
+      </c>
+      <c r="N91" s="1">
+        <v>89</v>
+      </c>
+      <c r="O91" s="1">
+        <f t="shared" si="9"/>
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15">
+      <c r="B92" s="1">
+        <v>90</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="10"/>
+        <v>690</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="12"/>
+        <v>690</v>
+      </c>
+      <c r="E92" s="1">
+        <f t="shared" si="13"/>
+        <v>545</v>
+      </c>
+      <c r="F92" s="1">
+        <f t="shared" si="14"/>
+        <v>545</v>
+      </c>
+      <c r="G92" s="1">
+        <v>22</v>
+      </c>
+      <c r="H92" s="1">
+        <v>10</v>
+      </c>
+      <c r="I92" s="1">
+        <f t="shared" si="11"/>
+        <v>76843</v>
+      </c>
+      <c r="N92" s="1">
+        <v>90</v>
+      </c>
+      <c r="O92" s="1">
+        <f t="shared" si="9"/>
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15">
+      <c r="B93" s="1">
+        <v>91</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="10"/>
+        <v>710</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="12"/>
+        <v>710</v>
+      </c>
+      <c r="E93" s="1">
+        <f t="shared" si="13"/>
+        <v>561</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" si="14"/>
+        <v>561</v>
+      </c>
+      <c r="G93" s="1">
+        <v>22</v>
+      </c>
+      <c r="H93" s="1">
+        <v>10</v>
+      </c>
+      <c r="I93" s="1">
+        <f t="shared" si="11"/>
+        <v>78995</v>
+      </c>
+      <c r="N93" s="1">
+        <v>91</v>
+      </c>
+      <c r="O93" s="1">
+        <f t="shared" si="9"/>
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15">
+      <c r="B94" s="1">
+        <v>92</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="10"/>
+        <v>730</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="12"/>
+        <v>730</v>
+      </c>
+      <c r="E94" s="1">
+        <f t="shared" si="13"/>
+        <v>577</v>
+      </c>
+      <c r="F94" s="1">
+        <f t="shared" si="14"/>
+        <v>577</v>
+      </c>
+      <c r="G94" s="1">
+        <v>22</v>
+      </c>
+      <c r="H94" s="1">
+        <v>10</v>
+      </c>
+      <c r="I94" s="1">
+        <f t="shared" si="11"/>
+        <v>81183</v>
+      </c>
+      <c r="N94" s="1">
+        <v>92</v>
+      </c>
+      <c r="O94" s="1">
+        <f t="shared" si="9"/>
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15">
+      <c r="B95" s="1">
+        <v>93</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="10"/>
+        <v>751</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="12"/>
+        <v>751</v>
+      </c>
+      <c r="E95" s="1">
+        <f t="shared" si="13"/>
+        <v>593</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" si="14"/>
+        <v>593</v>
+      </c>
+      <c r="G95" s="1">
+        <v>22</v>
+      </c>
+      <c r="H95" s="1">
+        <v>10</v>
+      </c>
+      <c r="I95" s="1">
+        <f t="shared" si="11"/>
+        <v>83407</v>
+      </c>
+      <c r="N95" s="1">
+        <v>93</v>
+      </c>
+      <c r="O95" s="1">
+        <f t="shared" si="9"/>
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15">
+      <c r="B96" s="1">
+        <v>94</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="10"/>
+        <v>773</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="12"/>
+        <v>773</v>
+      </c>
+      <c r="E96" s="1">
+        <f t="shared" si="13"/>
+        <v>610</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="14"/>
+        <v>610</v>
+      </c>
+      <c r="G96" s="1">
+        <v>22</v>
+      </c>
+      <c r="H96" s="1">
+        <v>10</v>
+      </c>
+      <c r="I96" s="1">
+        <f t="shared" si="11"/>
+        <v>85668</v>
+      </c>
+      <c r="N96" s="1">
+        <v>94</v>
+      </c>
+      <c r="O96" s="1">
+        <f t="shared" si="9"/>
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15">
+      <c r="B97" s="1">
+        <v>95</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="10"/>
+        <v>795</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="12"/>
+        <v>795</v>
+      </c>
+      <c r="E97" s="1">
+        <f t="shared" si="13"/>
+        <v>627</v>
+      </c>
+      <c r="F97" s="1">
+        <f t="shared" si="14"/>
+        <v>627</v>
+      </c>
+      <c r="G97" s="1">
+        <v>23</v>
+      </c>
+      <c r="H97" s="1">
+        <v>10</v>
+      </c>
+      <c r="I97" s="1">
+        <f t="shared" si="11"/>
+        <v>87964</v>
+      </c>
+      <c r="N97" s="1">
+        <v>95</v>
+      </c>
+      <c r="O97" s="1">
+        <f t="shared" si="9"/>
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15">
+      <c r="B98" s="1">
+        <v>96</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="10"/>
+        <v>818</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="12"/>
+        <v>818</v>
+      </c>
+      <c r="E98" s="1">
+        <f t="shared" si="13"/>
+        <v>645</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" si="14"/>
+        <v>645</v>
+      </c>
+      <c r="G98" s="1">
+        <v>23</v>
+      </c>
+      <c r="H98" s="1">
+        <v>10</v>
+      </c>
+      <c r="I98" s="1">
+        <f t="shared" si="11"/>
+        <v>90297</v>
+      </c>
+      <c r="N98" s="1">
+        <v>96</v>
+      </c>
+      <c r="O98" s="1">
+        <f t="shared" si="9"/>
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15">
+      <c r="B99" s="1">
+        <v>97</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="10"/>
+        <v>842</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="12"/>
+        <v>842</v>
+      </c>
+      <c r="E99" s="1">
+        <f t="shared" si="13"/>
+        <v>664</v>
+      </c>
+      <c r="F99" s="1">
+        <f t="shared" si="14"/>
+        <v>664</v>
+      </c>
+      <c r="G99" s="1">
+        <v>23</v>
+      </c>
+      <c r="H99" s="1">
+        <v>10</v>
+      </c>
+      <c r="I99" s="1">
+        <f t="shared" si="11"/>
+        <v>92667</v>
+      </c>
+      <c r="N99" s="1">
+        <v>97</v>
+      </c>
+      <c r="O99" s="1">
+        <f t="shared" si="9"/>
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15">
+      <c r="B100" s="1">
+        <v>98</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="10"/>
+        <v>867</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="12"/>
+        <v>867</v>
+      </c>
+      <c r="E100" s="1">
+        <f t="shared" si="13"/>
+        <v>683</v>
+      </c>
+      <c r="F100" s="1">
+        <f t="shared" si="14"/>
+        <v>683</v>
+      </c>
+      <c r="G100" s="1">
+        <v>23</v>
+      </c>
+      <c r="H100" s="1">
+        <v>10</v>
+      </c>
+      <c r="I100" s="1">
+        <f t="shared" si="11"/>
+        <v>95074</v>
+      </c>
+      <c r="N100" s="1">
+        <v>98</v>
+      </c>
+      <c r="O100" s="1">
+        <f t="shared" si="9"/>
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15">
+      <c r="B101" s="1">
+        <v>99</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="10"/>
+        <v>892</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="12"/>
+        <v>892</v>
+      </c>
+      <c r="E101" s="1">
+        <f t="shared" si="13"/>
+        <v>703</v>
+      </c>
+      <c r="F101" s="1">
+        <f t="shared" si="14"/>
+        <v>703</v>
+      </c>
+      <c r="G101" s="1">
+        <v>23</v>
+      </c>
+      <c r="H101" s="1">
+        <v>10</v>
+      </c>
+      <c r="I101" s="1">
+        <f t="shared" si="11"/>
+        <v>97518</v>
+      </c>
+      <c r="N101" s="1">
+        <v>99</v>
+      </c>
+      <c r="O101" s="1">
+        <f>FLOOR(FLOOR(5*POWER(N101,1.2),1),1)</f>
+        <v>1240</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/field.xlsx
+++ b/field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yodai/Documents/vscode/mypic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8D6465-15AE-044D-BB09-A7C2EAA460D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A33F9E-E4BA-A24E-AB29-F603F27A3186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4420" yWindow="-19120" windowWidth="28800" windowHeight="16560" activeTab="8" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
   </bookViews>
@@ -151,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +167,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,7 +206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -211,6 +217,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10365,7 +10377,7 @@
   <dimension ref="B2:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -10403,28 +10415,28 @@
       </c>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>40</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>40</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>23</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>23</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="5">
         <v>15</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="5">
         <v>1</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="5">
         <v>0</v>
       </c>
       <c r="N3" s="1">
@@ -10506,7 +10518,7 @@
         <f t="shared" ref="I5:I68" si="5">FLOOR(POWER(B5,2.5+(3-$L$5)/3),1)</f>
         <v>15</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>3</v>
       </c>
       <c r="N5" s="1">
@@ -10664,7 +10676,7 @@
         <f t="shared" si="5"/>
         <v>129</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>3</v>
       </c>
       <c r="N9" s="1">
@@ -10784,8 +10796,8 @@
         <f t="shared" si="5"/>
         <v>316</v>
       </c>
-      <c r="L12" s="1">
-        <v>30</v>
+      <c r="L12" s="4">
+        <v>29</v>
       </c>
       <c r="N12" s="1">
         <v>10</v>
@@ -10904,8 +10916,8 @@
         <f>FLOOR(POWER(B15,2.5+(3-$L$5)/3),1)</f>
         <v>609</v>
       </c>
-      <c r="L15" s="1">
-        <v>40</v>
+      <c r="L15" s="4">
+        <v>15</v>
       </c>
       <c r="N15" s="1">
         <v>13</v>
@@ -11024,7 +11036,7 @@
         <f t="shared" si="5"/>
         <v>1024</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>30</v>
       </c>
       <c r="N18" s="1">
@@ -11145,8 +11157,8 @@
         <v>1573</v>
       </c>
       <c r="L21" s="3">
-        <f>FLOOR(L18*POWER(L12,0.8)/L15*(POWER(L9,0.05)/4+2),1)</f>
-        <v>25</v>
+        <f>FLOOR(L18*POWER(L12,0.8)/L15*(POWER(L9,0.05)/4+2)/3,1)</f>
+        <v>22</v>
       </c>
       <c r="N21" s="1">
         <v>19</v>

--- a/field.xlsx
+++ b/field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yodai/Documents/vscode/mypic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A33F9E-E4BA-A24E-AB29-F603F27A3186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EE7C38-18F4-FE48-BFCD-54BDBD7FFA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4420" yWindow="-19120" windowWidth="28800" windowHeight="16560" activeTab="8" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
   </bookViews>

--- a/field.xlsx
+++ b/field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yodai/Documents/vscode/mypic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EE7C38-18F4-FE48-BFCD-54BDBD7FFA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7A6C1D-661C-7645-9890-B991ACE3EC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4420" yWindow="-19120" windowWidth="28800" windowHeight="16560" activeTab="8" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" activeTab="8" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
   </bookViews>
   <sheets>
     <sheet name="material" sheetId="1" r:id="rId1"/>
@@ -10377,7 +10377,7 @@
   <dimension ref="B2:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -10474,8 +10474,8 @@
         <v>2</v>
       </c>
       <c r="I4" s="1">
-        <f>FLOOR(POWER(B4,2.5+(3-$L$5)/3),1)</f>
-        <v>5</v>
+        <f>FLOOR(POWER(B4,2+($L$5)/6),1)</f>
+        <v>4</v>
       </c>
       <c r="L4" t="s">
         <v>8</v>
@@ -10515,11 +10515,11 @@
         <v>2</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I68" si="5">FLOOR(POWER(B5,2.5+(3-$L$5)/3),1)</f>
-        <v>15</v>
+        <f t="shared" ref="I5:I68" si="5">FLOOR(POWER(B5,2+($L$5)/6),1)</f>
+        <v>9</v>
       </c>
       <c r="L5" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
         <v>3</v>
@@ -10557,7 +10557,7 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N6" s="1">
         <v>4</v>
@@ -10595,7 +10595,7 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" si="5"/>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N7" s="1">
         <v>5</v>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" si="5"/>
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>14</v>
@@ -10674,7 +10674,7 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" si="5"/>
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="L9" s="4">
         <v>3</v>
@@ -10715,7 +10715,7 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="5"/>
-        <v>181</v>
+        <v>64</v>
       </c>
       <c r="N10" s="1">
         <v>8</v>
@@ -10753,7 +10753,7 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" si="5"/>
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>11</v>
@@ -10794,7 +10794,7 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="5"/>
-        <v>316</v>
+        <v>100</v>
       </c>
       <c r="L12" s="4">
         <v>29</v>
@@ -10835,7 +10835,7 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="5"/>
-        <v>401</v>
+        <v>121</v>
       </c>
       <c r="N13" s="1">
         <v>11</v>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" si="5"/>
-        <v>498</v>
+        <v>144</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>12</v>
@@ -10913,8 +10913,8 @@
         <v>3</v>
       </c>
       <c r="I15" s="1">
-        <f>FLOOR(POWER(B15,2.5+(3-$L$5)/3),1)</f>
-        <v>609</v>
+        <f t="shared" si="5"/>
+        <v>169</v>
       </c>
       <c r="L15" s="4">
         <v>15</v>
@@ -10954,8 +10954,8 @@
         <v>3</v>
       </c>
       <c r="I16" s="1">
-        <f>FLOOR(POWER(B16,2.5+(3-$L$5)/3),1)</f>
-        <v>733</v>
+        <f t="shared" si="5"/>
+        <v>196</v>
       </c>
       <c r="N16" s="1">
         <v>14</v>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="I17" s="1">
         <f t="shared" si="5"/>
-        <v>871</v>
+        <v>225</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>15</v>
@@ -11034,7 +11034,7 @@
       </c>
       <c r="I18" s="1">
         <f t="shared" si="5"/>
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="L18" s="4">
         <v>30</v>
@@ -11075,7 +11075,7 @@
       </c>
       <c r="I19" s="1">
         <f t="shared" si="5"/>
-        <v>1191</v>
+        <v>289</v>
       </c>
       <c r="N19" s="1">
         <v>17</v>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I20" s="1">
         <f t="shared" si="5"/>
-        <v>1374</v>
+        <v>324</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>13</v>
@@ -11154,7 +11154,7 @@
       </c>
       <c r="I21" s="1">
         <f t="shared" si="5"/>
-        <v>1573</v>
+        <v>361</v>
       </c>
       <c r="L21" s="3">
         <f>FLOOR(L18*POWER(L12,0.8)/L15*(POWER(L9,0.05)/4+2)/3,1)</f>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="I22" s="1">
         <f t="shared" si="5"/>
-        <v>1788</v>
+        <v>400</v>
       </c>
       <c r="N22" s="1">
         <v>20</v>
@@ -11234,7 +11234,7 @@
       </c>
       <c r="I23" s="1">
         <f t="shared" si="5"/>
-        <v>2020</v>
+        <v>441</v>
       </c>
       <c r="N23" s="1">
         <v>21</v>
@@ -11272,7 +11272,7 @@
       </c>
       <c r="I24" s="1">
         <f t="shared" si="5"/>
-        <v>2270</v>
+        <v>484</v>
       </c>
       <c r="N24" s="1">
         <v>22</v>
@@ -11310,7 +11310,7 @@
       </c>
       <c r="I25" s="1">
         <f t="shared" si="5"/>
-        <v>2536</v>
+        <v>529</v>
       </c>
       <c r="N25" s="1">
         <v>23</v>
@@ -11348,7 +11348,7 @@
       </c>
       <c r="I26" s="1">
         <f t="shared" si="5"/>
-        <v>2821</v>
+        <v>576</v>
       </c>
       <c r="N26" s="1">
         <v>24</v>
@@ -11386,7 +11386,7 @@
       </c>
       <c r="I27" s="1">
         <f t="shared" si="5"/>
-        <v>3125</v>
+        <v>625</v>
       </c>
       <c r="N27" s="1">
         <v>25</v>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="I28" s="1">
         <f t="shared" si="5"/>
-        <v>3446</v>
+        <v>676</v>
       </c>
       <c r="N28" s="1">
         <v>26</v>
@@ -11462,7 +11462,7 @@
       </c>
       <c r="I29" s="1">
         <f t="shared" si="5"/>
-        <v>3787</v>
+        <v>729</v>
       </c>
       <c r="N29" s="1">
         <v>27</v>
@@ -11500,7 +11500,7 @@
       </c>
       <c r="I30" s="1">
         <f t="shared" si="5"/>
-        <v>4148</v>
+        <v>784</v>
       </c>
       <c r="N30" s="1">
         <v>28</v>
@@ -11538,7 +11538,7 @@
       </c>
       <c r="I31" s="1">
         <f t="shared" si="5"/>
-        <v>4528</v>
+        <v>841</v>
       </c>
       <c r="N31" s="1">
         <v>29</v>
@@ -11576,7 +11576,7 @@
       </c>
       <c r="I32" s="1">
         <f t="shared" si="5"/>
-        <v>4929</v>
+        <v>900</v>
       </c>
       <c r="N32" s="1">
         <v>30</v>
@@ -11614,7 +11614,7 @@
       </c>
       <c r="I33" s="1">
         <f t="shared" si="5"/>
-        <v>5350</v>
+        <v>961</v>
       </c>
       <c r="N33" s="1">
         <v>31</v>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="I34" s="1">
         <f t="shared" si="5"/>
-        <v>5792</v>
+        <v>1024</v>
       </c>
       <c r="N34" s="1">
         <v>32</v>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="I35" s="1">
         <f t="shared" si="5"/>
-        <v>6255</v>
+        <v>1089</v>
       </c>
       <c r="N35" s="1">
         <v>33</v>
@@ -11728,7 +11728,7 @@
       </c>
       <c r="I36" s="1">
         <f t="shared" si="5"/>
-        <v>6740</v>
+        <v>1156</v>
       </c>
       <c r="N36" s="1">
         <v>34</v>
@@ -11766,7 +11766,7 @@
       </c>
       <c r="I37" s="1">
         <f t="shared" si="5"/>
-        <v>7247</v>
+        <v>1225</v>
       </c>
       <c r="N37" s="1">
         <v>35</v>
@@ -11804,7 +11804,7 @@
       </c>
       <c r="I38" s="1">
         <f t="shared" si="5"/>
-        <v>7775</v>
+        <v>1296</v>
       </c>
       <c r="N38" s="1">
         <v>36</v>
@@ -11842,7 +11842,7 @@
       </c>
       <c r="I39" s="1">
         <f t="shared" si="5"/>
-        <v>8327</v>
+        <v>1369</v>
       </c>
       <c r="N39" s="1">
         <v>37</v>
@@ -11880,7 +11880,7 @@
       </c>
       <c r="I40" s="1">
         <f t="shared" si="5"/>
-        <v>8901</v>
+        <v>1444</v>
       </c>
       <c r="N40" s="1">
         <v>38</v>
@@ -11918,7 +11918,7 @@
       </c>
       <c r="I41" s="1">
         <f t="shared" si="5"/>
-        <v>9498</v>
+        <v>1521</v>
       </c>
       <c r="N41" s="1">
         <v>39</v>
@@ -11956,7 +11956,7 @@
       </c>
       <c r="I42" s="1">
         <f t="shared" si="5"/>
-        <v>10119</v>
+        <v>1600</v>
       </c>
       <c r="N42" s="1">
         <v>40</v>
@@ -11994,7 +11994,7 @@
       </c>
       <c r="I43" s="1">
         <f t="shared" si="5"/>
-        <v>10763</v>
+        <v>1681</v>
       </c>
       <c r="N43" s="1">
         <v>41</v>
@@ -12032,7 +12032,7 @@
       </c>
       <c r="I44" s="1">
         <f t="shared" si="5"/>
-        <v>11432</v>
+        <v>1764</v>
       </c>
       <c r="N44" s="1">
         <v>42</v>
@@ -12070,7 +12070,7 @@
       </c>
       <c r="I45" s="1">
         <f t="shared" si="5"/>
-        <v>12124</v>
+        <v>1849</v>
       </c>
       <c r="N45" s="1">
         <v>43</v>
@@ -12108,7 +12108,7 @@
       </c>
       <c r="I46" s="1">
         <f t="shared" si="5"/>
-        <v>12841</v>
+        <v>1936</v>
       </c>
       <c r="N46" s="1">
         <v>44</v>
@@ -12146,7 +12146,7 @@
       </c>
       <c r="I47" s="1">
         <f t="shared" si="5"/>
-        <v>13584</v>
+        <v>2025</v>
       </c>
       <c r="N47" s="1">
         <v>45</v>
@@ -12184,7 +12184,7 @@
       </c>
       <c r="I48" s="1">
         <f t="shared" si="5"/>
-        <v>14351</v>
+        <v>2116</v>
       </c>
       <c r="N48" s="1">
         <v>46</v>
@@ -12222,7 +12222,7 @@
       </c>
       <c r="I49" s="1">
         <f t="shared" si="5"/>
-        <v>15144</v>
+        <v>2209</v>
       </c>
       <c r="N49" s="1">
         <v>47</v>
@@ -12260,7 +12260,7 @@
       </c>
       <c r="I50" s="1">
         <f t="shared" si="5"/>
-        <v>15962</v>
+        <v>2304</v>
       </c>
       <c r="N50" s="1">
         <v>48</v>
@@ -12298,7 +12298,7 @@
       </c>
       <c r="I51" s="1">
         <f t="shared" si="5"/>
-        <v>16807</v>
+        <v>2401</v>
       </c>
       <c r="N51" s="1">
         <v>49</v>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="I52" s="1">
         <f t="shared" si="5"/>
-        <v>17677</v>
+        <v>2500</v>
       </c>
       <c r="N52" s="1">
         <v>50</v>
@@ -12374,7 +12374,7 @@
       </c>
       <c r="I53" s="1">
         <f t="shared" si="5"/>
-        <v>18574</v>
+        <v>2601</v>
       </c>
       <c r="N53" s="1">
         <v>51</v>
@@ -12412,7 +12412,7 @@
       </c>
       <c r="I54" s="1">
         <f t="shared" si="5"/>
-        <v>19498</v>
+        <v>2704</v>
       </c>
       <c r="N54" s="1">
         <v>52</v>
@@ -12450,7 +12450,7 @@
       </c>
       <c r="I55" s="1">
         <f t="shared" si="5"/>
-        <v>20449</v>
+        <v>2809</v>
       </c>
       <c r="N55" s="1">
         <v>53</v>
@@ -12488,7 +12488,7 @@
       </c>
       <c r="I56" s="1">
         <f t="shared" si="5"/>
-        <v>21428</v>
+        <v>2916</v>
       </c>
       <c r="N56" s="1">
         <v>54</v>
@@ -12526,7 +12526,7 @@
       </c>
       <c r="I57" s="1">
         <f t="shared" si="5"/>
-        <v>22434</v>
+        <v>3025</v>
       </c>
       <c r="N57" s="1">
         <v>55</v>
@@ -12564,7 +12564,7 @@
       </c>
       <c r="I58" s="1">
         <f t="shared" si="5"/>
-        <v>23467</v>
+        <v>3136</v>
       </c>
       <c r="N58" s="1">
         <v>56</v>
@@ -12602,7 +12602,7 @@
       </c>
       <c r="I59" s="1">
         <f t="shared" si="5"/>
-        <v>24529</v>
+        <v>3249</v>
       </c>
       <c r="N59" s="1">
         <v>57</v>
@@ -12640,7 +12640,7 @@
       </c>
       <c r="I60" s="1">
         <f t="shared" si="5"/>
-        <v>25619</v>
+        <v>3364</v>
       </c>
       <c r="N60" s="1">
         <v>58</v>
@@ -12678,7 +12678,7 @@
       </c>
       <c r="I61" s="1">
         <f t="shared" si="5"/>
-        <v>26738</v>
+        <v>3481</v>
       </c>
       <c r="N61" s="1">
         <v>59</v>
@@ -12716,7 +12716,7 @@
       </c>
       <c r="I62" s="1">
         <f t="shared" si="5"/>
-        <v>27885</v>
+        <v>3600</v>
       </c>
       <c r="N62" s="1">
         <v>60</v>
@@ -12754,7 +12754,7 @@
       </c>
       <c r="I63" s="1">
         <f t="shared" si="5"/>
-        <v>29061</v>
+        <v>3721</v>
       </c>
       <c r="N63" s="1">
         <v>61</v>
@@ -12792,7 +12792,7 @@
       </c>
       <c r="I64" s="1">
         <f t="shared" si="5"/>
-        <v>30267</v>
+        <v>3844</v>
       </c>
       <c r="N64" s="1">
         <v>62</v>
@@ -12830,7 +12830,7 @@
       </c>
       <c r="I65" s="1">
         <f t="shared" si="5"/>
-        <v>31502</v>
+        <v>3969</v>
       </c>
       <c r="N65" s="1">
         <v>63</v>
@@ -12868,7 +12868,7 @@
       </c>
       <c r="I66" s="1">
         <f t="shared" si="5"/>
-        <v>32768</v>
+        <v>4096</v>
       </c>
       <c r="N66" s="1">
         <v>64</v>
@@ -12906,7 +12906,7 @@
       </c>
       <c r="I67" s="1">
         <f t="shared" si="5"/>
-        <v>34063</v>
+        <v>4225</v>
       </c>
       <c r="N67" s="1">
         <v>65</v>
@@ -12944,7 +12944,7 @@
       </c>
       <c r="I68" s="1">
         <f t="shared" si="5"/>
-        <v>35388</v>
+        <v>4356</v>
       </c>
       <c r="N68" s="1">
         <v>66</v>
@@ -12981,8 +12981,8 @@
         <v>9</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" ref="I69:I101" si="11">FLOOR(POWER(B69,2.5+(3-$L$5)/3),1)</f>
-        <v>36744</v>
+        <f t="shared" ref="I69:I101" si="11">FLOOR(POWER(B69,2+($L$5)/6),1)</f>
+        <v>4489</v>
       </c>
       <c r="N69" s="1">
         <v>67</v>
@@ -13020,7 +13020,7 @@
       </c>
       <c r="I70" s="1">
         <f t="shared" si="11"/>
-        <v>38130</v>
+        <v>4624</v>
       </c>
       <c r="N70" s="1">
         <v>68</v>
@@ -13058,7 +13058,7 @@
       </c>
       <c r="I71" s="1">
         <f t="shared" si="11"/>
-        <v>39547</v>
+        <v>4761</v>
       </c>
       <c r="N71" s="1">
         <v>69</v>
@@ -13096,7 +13096,7 @@
       </c>
       <c r="I72" s="1">
         <f t="shared" si="11"/>
-        <v>40996</v>
+        <v>4900</v>
       </c>
       <c r="N72" s="1">
         <v>70</v>
@@ -13134,7 +13134,7 @@
       </c>
       <c r="I73" s="1">
         <f t="shared" si="11"/>
-        <v>42476</v>
+        <v>5041</v>
       </c>
       <c r="N73" s="1">
         <v>71</v>
@@ -13172,7 +13172,7 @@
       </c>
       <c r="I74" s="1">
         <f t="shared" si="11"/>
-        <v>43987</v>
+        <v>5184</v>
       </c>
       <c r="N74" s="1">
         <v>72</v>
@@ -13210,7 +13210,7 @@
       </c>
       <c r="I75" s="1">
         <f t="shared" si="11"/>
-        <v>45530</v>
+        <v>5329</v>
       </c>
       <c r="N75" s="1">
         <v>73</v>
@@ -13248,7 +13248,7 @@
       </c>
       <c r="I76" s="1">
         <f t="shared" si="11"/>
-        <v>47106</v>
+        <v>5476</v>
       </c>
       <c r="N76" s="1">
         <v>74</v>
@@ -13286,7 +13286,7 @@
       </c>
       <c r="I77" s="1">
         <f t="shared" si="11"/>
-        <v>48713</v>
+        <v>5625</v>
       </c>
       <c r="N77" s="1">
         <v>75</v>
@@ -13324,7 +13324,7 @@
       </c>
       <c r="I78" s="1">
         <f t="shared" si="11"/>
-        <v>50354</v>
+        <v>5776</v>
       </c>
       <c r="N78" s="1">
         <v>76</v>
@@ -13362,7 +13362,7 @@
       </c>
       <c r="I79" s="1">
         <f t="shared" si="11"/>
-        <v>52026</v>
+        <v>5929</v>
       </c>
       <c r="N79" s="1">
         <v>77</v>
@@ -13400,7 +13400,7 @@
       </c>
       <c r="I80" s="1">
         <f t="shared" si="11"/>
-        <v>53732</v>
+        <v>6084</v>
       </c>
       <c r="N80" s="1">
         <v>78</v>
@@ -13438,7 +13438,7 @@
       </c>
       <c r="I81" s="1">
         <f t="shared" si="11"/>
-        <v>55471</v>
+        <v>6241</v>
       </c>
       <c r="N81" s="1">
         <v>79</v>
@@ -13476,7 +13476,7 @@
       </c>
       <c r="I82" s="1">
         <f t="shared" si="11"/>
-        <v>57243</v>
+        <v>6400</v>
       </c>
       <c r="N82" s="1">
         <v>80</v>
@@ -13514,7 +13514,7 @@
       </c>
       <c r="I83" s="1">
         <f t="shared" si="11"/>
-        <v>59049</v>
+        <v>6561</v>
       </c>
       <c r="N83" s="1">
         <v>81</v>
@@ -13552,7 +13552,7 @@
       </c>
       <c r="I84" s="1">
         <f t="shared" si="11"/>
-        <v>60888</v>
+        <v>6724</v>
       </c>
       <c r="N84" s="1">
         <v>82</v>
@@ -13590,7 +13590,7 @@
       </c>
       <c r="I85" s="1">
         <f t="shared" si="11"/>
-        <v>62761</v>
+        <v>6889</v>
       </c>
       <c r="N85" s="1">
         <v>83</v>
@@ -13628,7 +13628,7 @@
       </c>
       <c r="I86" s="1">
         <f t="shared" si="11"/>
-        <v>64669</v>
+        <v>7056</v>
       </c>
       <c r="N86" s="1">
         <v>84</v>
@@ -13666,7 +13666,7 @@
       </c>
       <c r="I87" s="1">
         <f t="shared" si="11"/>
-        <v>66611</v>
+        <v>7225</v>
       </c>
       <c r="N87" s="1">
         <v>85</v>
@@ -13704,7 +13704,7 @@
       </c>
       <c r="I88" s="1">
         <f t="shared" si="11"/>
-        <v>68587</v>
+        <v>7396</v>
       </c>
       <c r="N88" s="1">
         <v>86</v>
@@ -13742,7 +13742,7 @@
       </c>
       <c r="I89" s="1">
         <f t="shared" si="11"/>
-        <v>70598</v>
+        <v>7569</v>
       </c>
       <c r="N89" s="1">
         <v>87</v>
@@ -13780,7 +13780,7 @@
       </c>
       <c r="I90" s="1">
         <f t="shared" si="11"/>
-        <v>72645</v>
+        <v>7744</v>
       </c>
       <c r="N90" s="1">
         <v>88</v>
@@ -13818,7 +13818,7 @@
       </c>
       <c r="I91" s="1">
         <f t="shared" si="11"/>
-        <v>74726</v>
+        <v>7921</v>
       </c>
       <c r="N91" s="1">
         <v>89</v>
@@ -13856,7 +13856,7 @@
       </c>
       <c r="I92" s="1">
         <f t="shared" si="11"/>
-        <v>76843</v>
+        <v>8100</v>
       </c>
       <c r="N92" s="1">
         <v>90</v>
@@ -13894,7 +13894,7 @@
       </c>
       <c r="I93" s="1">
         <f t="shared" si="11"/>
-        <v>78995</v>
+        <v>8281</v>
       </c>
       <c r="N93" s="1">
         <v>91</v>
@@ -13932,7 +13932,7 @@
       </c>
       <c r="I94" s="1">
         <f t="shared" si="11"/>
-        <v>81183</v>
+        <v>8464</v>
       </c>
       <c r="N94" s="1">
         <v>92</v>
@@ -13970,7 +13970,7 @@
       </c>
       <c r="I95" s="1">
         <f t="shared" si="11"/>
-        <v>83407</v>
+        <v>8649</v>
       </c>
       <c r="N95" s="1">
         <v>93</v>
@@ -14008,7 +14008,7 @@
       </c>
       <c r="I96" s="1">
         <f t="shared" si="11"/>
-        <v>85668</v>
+        <v>8836</v>
       </c>
       <c r="N96" s="1">
         <v>94</v>
@@ -14046,7 +14046,7 @@
       </c>
       <c r="I97" s="1">
         <f t="shared" si="11"/>
-        <v>87964</v>
+        <v>9025</v>
       </c>
       <c r="N97" s="1">
         <v>95</v>
@@ -14084,7 +14084,7 @@
       </c>
       <c r="I98" s="1">
         <f t="shared" si="11"/>
-        <v>90297</v>
+        <v>9216</v>
       </c>
       <c r="N98" s="1">
         <v>96</v>
@@ -14122,7 +14122,7 @@
       </c>
       <c r="I99" s="1">
         <f t="shared" si="11"/>
-        <v>92667</v>
+        <v>9409</v>
       </c>
       <c r="N99" s="1">
         <v>97</v>
@@ -14160,7 +14160,7 @@
       </c>
       <c r="I100" s="1">
         <f t="shared" si="11"/>
-        <v>95074</v>
+        <v>9604</v>
       </c>
       <c r="N100" s="1">
         <v>98</v>
@@ -14198,7 +14198,7 @@
       </c>
       <c r="I101" s="1">
         <f t="shared" si="11"/>
-        <v>97518</v>
+        <v>9801</v>
       </c>
       <c r="N101" s="1">
         <v>99</v>

--- a/field.xlsx
+++ b/field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yodai/Documents/vscode/mypic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7A6C1D-661C-7645-9890-B991ACE3EC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15101C6-A597-8A43-ABA1-C5F6472F4130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" activeTab="8" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
   </bookViews>
@@ -24,7 +24,6 @@
     <sheet name="level_cal" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>LV</t>
     <phoneticPr fontId="1"/>
@@ -129,6 +128,13 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>次のレベルまでの差</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ツギノレベルマデ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -177,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -200,13 +206,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,6 +240,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10377,7 +10397,7 @@
   <dimension ref="B2:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -10407,6 +10427,9 @@
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J2" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
@@ -10439,6 +10462,10 @@
       <c r="I3" s="5">
         <v>0</v>
       </c>
+      <c r="J3">
+        <f>I4--I3</f>
+        <v>4</v>
+      </c>
       <c r="N3" s="1">
         <v>1</v>
       </c>
@@ -10474,8 +10501,12 @@
         <v>2</v>
       </c>
       <c r="I4" s="1">
-        <f>FLOOR(POWER(B4,2+($L$5)/6),1)</f>
+        <f>FLOOR(POWER(B4,2.25+($L$5)/12),1)</f>
         <v>4</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J67" si="0">I5--I4</f>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
         <v>8</v>
@@ -10484,7 +10515,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" ref="O4:O67" si="0">FLOOR(FLOOR(5*POWER(N4,1.2),1),1)</f>
+        <f t="shared" ref="O4:O67" si="1">FLOOR(FLOOR(5*POWER(N4,1.2),1),1)</f>
         <v>11</v>
       </c>
     </row>
@@ -10493,19 +10524,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C68" si="1">FLOOR(POWER(C4,1.004)+1.1+1,1)</f>
+        <f t="shared" ref="C5:C68" si="2">FLOOR(POWER(C4,1.004)+1.1+1,1)</f>
         <v>44</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D8" si="2">FLOOR(POWER(D4,1.004)+1.1+1,1)</f>
+        <f t="shared" ref="D5:D8" si="3">FLOOR(POWER(D4,1.004)+1.1+1,1)</f>
         <v>44</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E8" si="3">FLOOR(POWER(E4,1.004)+1.1+1,1)</f>
+        <f t="shared" ref="E5:E8" si="4">FLOOR(POWER(E4,1.004)+1.1+1,1)</f>
         <v>27</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F8" si="4">FLOOR(POWER(F4,1.004)+1.1+1,1)</f>
+        <f t="shared" ref="F5:F8" si="5">FLOOR(POWER(F4,1.004)+1.1+1,1)</f>
         <v>27</v>
       </c>
       <c r="G5" s="1">
@@ -10515,8 +10546,12 @@
         <v>2</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I68" si="5">FLOOR(POWER(B5,2+($L$5)/6),1)</f>
-        <v>9</v>
+        <f t="shared" ref="I5:I68" si="6">FLOOR(POWER(B5,2.25+($L$5)/12),1)</f>
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
@@ -10525,7 +10560,7 @@
         <v>3</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
@@ -10534,15 +10569,15 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="D6" s="1">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
+      <c r="D6" s="1">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
       <c r="E6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="F6" s="1">
@@ -10556,14 +10591,18 @@
         <v>2</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>59</v>
       </c>
       <c r="N6" s="1">
         <v>4</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
@@ -10572,21 +10611,21 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="D7" s="1">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
+      <c r="D7" s="1">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
       <c r="E7" s="1">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="F7" s="1">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
+      <c r="F7" s="1">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
       <c r="G7" s="1">
         <v>15</v>
       </c>
@@ -10594,14 +10633,18 @@
         <v>3</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="5"/>
-        <v>25</v>
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>93</v>
       </c>
       <c r="N7" s="1">
         <v>5</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
@@ -10610,21 +10653,21 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="D8" s="1">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
+      <c r="D8" s="1">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
       <c r="E8" s="1">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="F8" s="1">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
+      <c r="F8" s="1">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
       <c r="G8" s="1">
         <v>15</v>
       </c>
@@ -10632,8 +10675,12 @@
         <v>3</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="5"/>
-        <v>36</v>
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>135</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>14</v>
@@ -10642,7 +10689,7 @@
         <v>6</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
@@ -10651,19 +10698,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ref="D9:D72" si="6">FLOOR(POWER(D8,1.004)+1.1+1,1)</f>
+        <f t="shared" ref="D9:D72" si="7">FLOOR(POWER(D8,1.004)+1.1+1,1)</f>
         <v>52</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ref="E9:E72" si="7">FLOOR(POWER(E8,1.004)+1.1+1,1)</f>
+        <f t="shared" ref="E9:E72" si="8">FLOOR(POWER(E8,1.004)+1.1+1,1)</f>
         <v>35</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ref="F9:F72" si="8">FLOOR(POWER(F8,1.004)+1.1+1,1)</f>
+        <f t="shared" ref="F9:F72" si="9">FLOOR(POWER(F8,1.004)+1.1+1,1)</f>
         <v>35</v>
       </c>
       <c r="G9" s="1">
@@ -10673,8 +10720,12 @@
         <v>3</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="5"/>
-        <v>49</v>
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>186</v>
       </c>
       <c r="L9" s="4">
         <v>3</v>
@@ -10683,7 +10734,7 @@
         <v>7</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
     </row>
@@ -10692,21 +10743,21 @@
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="7"/>
-        <v>37</v>
-      </c>
-      <c r="F10" s="1">
         <f t="shared" si="8"/>
         <v>37</v>
       </c>
+      <c r="F10" s="1">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
       <c r="G10" s="1">
         <v>15</v>
       </c>
@@ -10714,14 +10765,18 @@
         <v>3</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="5"/>
-        <v>64</v>
+        <f t="shared" si="6"/>
+        <v>107</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>247</v>
       </c>
       <c r="N10" s="1">
         <v>8</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -10730,21 +10785,21 @@
         <v>9</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-      <c r="F11" s="1">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
+      <c r="F11" s="1">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
       <c r="G11" s="1">
         <v>15</v>
       </c>
@@ -10752,8 +10807,12 @@
         <v>3</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="5"/>
-        <v>81</v>
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>317</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>11</v>
@@ -10762,7 +10821,7 @@
         <v>9</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
     </row>
@@ -10771,21 +10830,21 @@
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="7"/>
-        <v>41</v>
-      </c>
-      <c r="F12" s="1">
         <f t="shared" si="8"/>
         <v>41</v>
       </c>
+      <c r="F12" s="1">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
       <c r="G12" s="1">
         <v>15</v>
       </c>
@@ -10793,8 +10852,12 @@
         <v>3</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>177</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>397</v>
       </c>
       <c r="L12" s="4">
         <v>29</v>
@@ -10803,7 +10866,7 @@
         <v>10</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
     </row>
@@ -10812,21 +10875,21 @@
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="7"/>
-        <v>43</v>
-      </c>
-      <c r="F13" s="1">
         <f t="shared" si="8"/>
         <v>43</v>
       </c>
+      <c r="F13" s="1">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
       <c r="G13" s="1">
         <v>15</v>
       </c>
@@ -10834,14 +10897,18 @@
         <v>3</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="5"/>
-        <v>121</v>
+        <f t="shared" si="6"/>
+        <v>220</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>488</v>
       </c>
       <c r="N13" s="1">
         <v>11</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
@@ -10850,21 +10917,21 @@
         <v>12</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="7"/>
-        <v>45</v>
-      </c>
-      <c r="F14" s="1">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
+      <c r="F14" s="1">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
       <c r="G14" s="1">
         <v>15</v>
       </c>
@@ -10872,8 +10939,12 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="5"/>
-        <v>144</v>
+        <f t="shared" si="6"/>
+        <v>268</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>588</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>12</v>
@@ -10882,7 +10953,7 @@
         <v>12</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
     </row>
@@ -10891,21 +10962,21 @@
         <v>13</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="7"/>
-        <v>47</v>
-      </c>
-      <c r="F15" s="1">
         <f t="shared" si="8"/>
         <v>47</v>
       </c>
+      <c r="F15" s="1">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
       <c r="G15" s="1">
         <v>16</v>
       </c>
@@ -10913,8 +10984,12 @@
         <v>3</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="5"/>
-        <v>169</v>
+        <f t="shared" si="6"/>
+        <v>320</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>699</v>
       </c>
       <c r="L15" s="4">
         <v>15</v>
@@ -10923,7 +10998,7 @@
         <v>13</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
     </row>
@@ -10932,21 +11007,21 @@
         <v>14</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="7"/>
-        <v>49</v>
-      </c>
-      <c r="F16" s="1">
         <f t="shared" si="8"/>
         <v>49</v>
       </c>
+      <c r="F16" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
       <c r="G16" s="1">
         <v>16</v>
       </c>
@@ -10954,14 +11029,18 @@
         <v>3</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="5"/>
-        <v>196</v>
+        <f t="shared" si="6"/>
+        <v>379</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>821</v>
       </c>
       <c r="N16" s="1">
         <v>14</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
     </row>
@@ -10970,21 +11049,21 @@
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>74</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="7"/>
-        <v>51</v>
-      </c>
-      <c r="F17" s="1">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
+      <c r="F17" s="1">
+        <f t="shared" si="9"/>
+        <v>51</v>
+      </c>
       <c r="G17" s="1">
         <v>16</v>
       </c>
@@ -10992,8 +11071,12 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="5"/>
-        <v>225</v>
+        <f t="shared" si="6"/>
+        <v>442</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>954</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>15</v>
@@ -11002,7 +11085,7 @@
         <v>15</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
     </row>
@@ -11011,21 +11094,21 @@
         <v>16</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="7"/>
-        <v>53</v>
-      </c>
-      <c r="F18" s="1">
         <f t="shared" si="8"/>
         <v>53</v>
       </c>
+      <c r="F18" s="1">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
       <c r="G18" s="1">
         <v>16</v>
       </c>
@@ -11033,8 +11116,12 @@
         <v>4</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="5"/>
-        <v>256</v>
+        <f t="shared" si="6"/>
+        <v>512</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>1098</v>
       </c>
       <c r="L18" s="4">
         <v>30</v>
@@ -11043,7 +11130,7 @@
         <v>16</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>139</v>
       </c>
     </row>
@@ -11052,21 +11139,21 @@
         <v>17</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="7"/>
-        <v>55</v>
-      </c>
-      <c r="F19" s="1">
         <f t="shared" si="8"/>
         <v>55</v>
       </c>
+      <c r="F19" s="1">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
       <c r="G19" s="1">
         <v>16</v>
       </c>
@@ -11074,14 +11161,18 @@
         <v>4</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="5"/>
-        <v>289</v>
+        <f t="shared" si="6"/>
+        <v>586</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>1253</v>
       </c>
       <c r="N19" s="1">
         <v>17</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>149</v>
       </c>
     </row>
@@ -11090,21 +11181,21 @@
         <v>18</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="7"/>
-        <v>57</v>
-      </c>
-      <c r="F20" s="1">
         <f t="shared" si="8"/>
         <v>57</v>
       </c>
+      <c r="F20" s="1">
+        <f t="shared" si="9"/>
+        <v>57</v>
+      </c>
       <c r="G20" s="1">
         <v>16</v>
       </c>
@@ -11112,8 +11203,12 @@
         <v>4</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="5"/>
-        <v>324</v>
+        <f t="shared" si="6"/>
+        <v>667</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>1420</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>13</v>
@@ -11122,7 +11217,7 @@
         <v>18</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
     </row>
@@ -11131,21 +11226,21 @@
         <v>19</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>86</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="F21" s="1">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
+      <c r="F21" s="1">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
       <c r="G21" s="1">
         <v>16</v>
       </c>
@@ -11153,8 +11248,12 @@
         <v>4</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="5"/>
-        <v>361</v>
+        <f t="shared" si="6"/>
+        <v>753</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>1598</v>
       </c>
       <c r="L21" s="3">
         <f>FLOOR(L18*POWER(L12,0.8)/L15*(POWER(L9,0.05)/4+2)/3,1)</f>
@@ -11164,7 +11263,7 @@
         <v>19</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>171</v>
       </c>
     </row>
@@ -11173,21 +11272,21 @@
         <v>20</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>89</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="7"/>
-        <v>63</v>
-      </c>
-      <c r="F22" s="1">
         <f t="shared" si="8"/>
         <v>63</v>
       </c>
+      <c r="F22" s="1">
+        <f t="shared" si="9"/>
+        <v>63</v>
+      </c>
       <c r="G22" s="1">
         <v>16</v>
       </c>
@@ -11195,14 +11294,18 @@
         <v>4</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="5"/>
-        <v>400</v>
+        <f t="shared" si="6"/>
+        <v>845</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>1789</v>
       </c>
       <c r="N22" s="1">
         <v>20</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>182</v>
       </c>
     </row>
@@ -11211,21 +11314,21 @@
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="7"/>
-        <v>66</v>
-      </c>
-      <c r="F23" s="1">
         <f t="shared" si="8"/>
         <v>66</v>
       </c>
+      <c r="F23" s="1">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
       <c r="G23" s="1">
         <v>16</v>
       </c>
@@ -11233,14 +11336,18 @@
         <v>4</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="5"/>
-        <v>441</v>
+        <f t="shared" si="6"/>
+        <v>944</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>1992</v>
       </c>
       <c r="N23" s="1">
         <v>21</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>193</v>
       </c>
     </row>
@@ -11249,21 +11356,21 @@
         <v>22</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="7"/>
-        <v>69</v>
-      </c>
-      <c r="F24" s="1">
         <f t="shared" si="8"/>
         <v>69</v>
       </c>
+      <c r="F24" s="1">
+        <f t="shared" si="9"/>
+        <v>69</v>
+      </c>
       <c r="G24" s="1">
         <v>16</v>
       </c>
@@ -11271,14 +11378,18 @@
         <v>4</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="5"/>
-        <v>484</v>
+        <f t="shared" si="6"/>
+        <v>1048</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>2206</v>
       </c>
       <c r="N24" s="1">
         <v>22</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>204</v>
       </c>
     </row>
@@ -11287,21 +11398,21 @@
         <v>23</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="7"/>
-        <v>72</v>
-      </c>
-      <c r="F25" s="1">
         <f t="shared" si="8"/>
         <v>72</v>
       </c>
+      <c r="F25" s="1">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
       <c r="G25" s="1">
         <v>16</v>
       </c>
@@ -11309,14 +11420,18 @@
         <v>5</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="5"/>
-        <v>529</v>
+        <f t="shared" si="6"/>
+        <v>1158</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>2432</v>
       </c>
       <c r="N25" s="1">
         <v>23</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>215</v>
       </c>
     </row>
@@ -11325,21 +11440,21 @@
         <v>24</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>101</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="F26" s="1">
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
+      <c r="F26" s="1">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
       <c r="G26" s="1">
         <v>16</v>
       </c>
@@ -11347,14 +11462,18 @@
         <v>5</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="5"/>
-        <v>576</v>
+        <f t="shared" si="6"/>
+        <v>1274</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>2671</v>
       </c>
       <c r="N26" s="1">
         <v>24</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>226</v>
       </c>
     </row>
@@ -11363,21 +11482,21 @@
         <v>25</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="7"/>
-        <v>78</v>
-      </c>
-      <c r="F27" s="1">
         <f t="shared" si="8"/>
         <v>78</v>
       </c>
+      <c r="F27" s="1">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
       <c r="G27" s="1">
         <v>17</v>
       </c>
@@ -11385,14 +11504,18 @@
         <v>5</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="5"/>
-        <v>625</v>
+        <f t="shared" si="6"/>
+        <v>1397</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>2923</v>
       </c>
       <c r="N27" s="1">
         <v>25</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>237</v>
       </c>
     </row>
@@ -11401,21 +11524,21 @@
         <v>26</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>108</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="7"/>
-        <v>81</v>
-      </c>
-      <c r="F28" s="1">
         <f t="shared" si="8"/>
         <v>81</v>
       </c>
+      <c r="F28" s="1">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
       <c r="G28" s="1">
         <v>17</v>
       </c>
@@ -11423,14 +11546,18 @@
         <v>5</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="5"/>
-        <v>676</v>
+        <f t="shared" si="6"/>
+        <v>1526</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>3187</v>
       </c>
       <c r="N28" s="1">
         <v>26</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>249</v>
       </c>
     </row>
@@ -11439,21 +11566,21 @@
         <v>27</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>112</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="7"/>
-        <v>84</v>
-      </c>
-      <c r="F29" s="1">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
+      <c r="F29" s="1">
+        <f t="shared" si="9"/>
+        <v>84</v>
+      </c>
       <c r="G29" s="1">
         <v>17</v>
       </c>
@@ -11461,14 +11588,18 @@
         <v>5</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="5"/>
-        <v>729</v>
+        <f t="shared" si="6"/>
+        <v>1661</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>3464</v>
       </c>
       <c r="N29" s="1">
         <v>27</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
     </row>
@@ -11477,21 +11608,21 @@
         <v>28</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>116</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="7"/>
-        <v>87</v>
-      </c>
-      <c r="F30" s="1">
         <f t="shared" si="8"/>
         <v>87</v>
       </c>
+      <c r="F30" s="1">
+        <f t="shared" si="9"/>
+        <v>87</v>
+      </c>
       <c r="G30" s="1">
         <v>17</v>
       </c>
@@ -11499,14 +11630,18 @@
         <v>5</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="5"/>
-        <v>784</v>
+        <f t="shared" si="6"/>
+        <v>1803</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>3754</v>
       </c>
       <c r="N30" s="1">
         <v>28</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>272</v>
       </c>
     </row>
@@ -11515,21 +11650,21 @@
         <v>29</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="F31" s="1">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
+      <c r="F31" s="1">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
       <c r="G31" s="1">
         <v>17</v>
       </c>
@@ -11537,14 +11672,18 @@
         <v>5</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="5"/>
-        <v>841</v>
+        <f t="shared" si="6"/>
+        <v>1951</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>4057</v>
       </c>
       <c r="N31" s="1">
         <v>29</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>284</v>
       </c>
     </row>
@@ -11553,21 +11692,21 @@
         <v>30</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>124</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>124</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="7"/>
-        <v>93</v>
-      </c>
-      <c r="F32" s="1">
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
+      <c r="F32" s="1">
+        <f t="shared" si="9"/>
+        <v>93</v>
+      </c>
       <c r="G32" s="1">
         <v>17</v>
       </c>
@@ -11575,14 +11714,18 @@
         <v>6</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="5"/>
-        <v>900</v>
+        <f t="shared" si="6"/>
+        <v>2106</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>4373</v>
       </c>
       <c r="N32" s="1">
         <v>30</v>
       </c>
       <c r="O32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>296</v>
       </c>
     </row>
@@ -11591,21 +11734,21 @@
         <v>31</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="7"/>
-        <v>96</v>
-      </c>
-      <c r="F33" s="1">
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
+      <c r="F33" s="1">
+        <f t="shared" si="9"/>
+        <v>96</v>
+      </c>
       <c r="G33" s="1">
         <v>17</v>
       </c>
@@ -11613,14 +11756,18 @@
         <v>6</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="5"/>
-        <v>961</v>
+        <f t="shared" si="6"/>
+        <v>2267</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>4702</v>
       </c>
       <c r="N33" s="1">
         <v>31</v>
       </c>
       <c r="O33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>308</v>
       </c>
     </row>
@@ -11629,21 +11776,21 @@
         <v>32</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>132</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="7"/>
-        <v>99</v>
-      </c>
-      <c r="F34" s="1">
         <f t="shared" si="8"/>
         <v>99</v>
       </c>
+      <c r="F34" s="1">
+        <f t="shared" si="9"/>
+        <v>99</v>
+      </c>
       <c r="G34" s="1">
         <v>17</v>
       </c>
@@ -11651,14 +11798,18 @@
         <v>6</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="5"/>
-        <v>1024</v>
+        <f t="shared" si="6"/>
+        <v>2435</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>5045</v>
       </c>
       <c r="N34" s="1">
         <v>32</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>320</v>
       </c>
     </row>
@@ -11667,21 +11818,21 @@
         <v>33</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>136</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="7"/>
-        <v>102</v>
-      </c>
-      <c r="F35" s="1">
         <f t="shared" si="8"/>
         <v>102</v>
       </c>
+      <c r="F35" s="1">
+        <f t="shared" si="9"/>
+        <v>102</v>
+      </c>
       <c r="G35" s="1">
         <v>17</v>
       </c>
@@ -11689,14 +11840,18 @@
         <v>6</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="5"/>
-        <v>1089</v>
+        <f t="shared" si="6"/>
+        <v>2610</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>5401</v>
       </c>
       <c r="N35" s="1">
         <v>33</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>332</v>
       </c>
     </row>
@@ -11705,21 +11860,21 @@
         <v>34</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>140</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="7"/>
-        <v>106</v>
-      </c>
-      <c r="F36" s="1">
         <f t="shared" si="8"/>
         <v>106</v>
       </c>
+      <c r="F36" s="1">
+        <f t="shared" si="9"/>
+        <v>106</v>
+      </c>
       <c r="G36" s="1">
         <v>17</v>
       </c>
@@ -11727,14 +11882,18 @@
         <v>6</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="5"/>
-        <v>1156</v>
+        <f t="shared" si="6"/>
+        <v>2791</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>5770</v>
       </c>
       <c r="N36" s="1">
         <v>34</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>344</v>
       </c>
     </row>
@@ -11743,21 +11902,21 @@
         <v>35</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>144</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="7"/>
-        <v>110</v>
-      </c>
-      <c r="F37" s="1">
         <f t="shared" si="8"/>
         <v>110</v>
       </c>
+      <c r="F37" s="1">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
       <c r="G37" s="1">
         <v>17</v>
       </c>
@@ -11765,14 +11924,18 @@
         <v>6</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="5"/>
-        <v>1225</v>
+        <f t="shared" si="6"/>
+        <v>2979</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>6153</v>
       </c>
       <c r="N37" s="1">
         <v>35</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>356</v>
       </c>
     </row>
@@ -11781,21 +11944,21 @@
         <v>36</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>148</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="7"/>
-        <v>114</v>
-      </c>
-      <c r="F38" s="1">
         <f t="shared" si="8"/>
         <v>114</v>
       </c>
+      <c r="F38" s="1">
+        <f t="shared" si="9"/>
+        <v>114</v>
+      </c>
       <c r="G38" s="1">
         <v>18</v>
       </c>
@@ -11803,14 +11966,18 @@
         <v>6</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="5"/>
-        <v>1296</v>
+        <f t="shared" si="6"/>
+        <v>3174</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>6550</v>
       </c>
       <c r="N38" s="1">
         <v>36</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>368</v>
       </c>
     </row>
@@ -11819,21 +11986,21 @@
         <v>37</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>153</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="7"/>
-        <v>118</v>
-      </c>
-      <c r="F39" s="1">
         <f t="shared" si="8"/>
         <v>118</v>
       </c>
+      <c r="F39" s="1">
+        <f t="shared" si="9"/>
+        <v>118</v>
+      </c>
       <c r="G39" s="1">
         <v>18</v>
       </c>
@@ -11841,14 +12008,18 @@
         <v>7</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="5"/>
-        <v>1369</v>
+        <f t="shared" si="6"/>
+        <v>3376</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>6961</v>
       </c>
       <c r="N39" s="1">
         <v>37</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>380</v>
       </c>
     </row>
@@ -11857,21 +12028,21 @@
         <v>38</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>158</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="7"/>
-        <v>122</v>
-      </c>
-      <c r="F40" s="1">
         <f t="shared" si="8"/>
         <v>122</v>
       </c>
+      <c r="F40" s="1">
+        <f t="shared" si="9"/>
+        <v>122</v>
+      </c>
       <c r="G40" s="1">
         <v>18</v>
       </c>
@@ -11879,14 +12050,18 @@
         <v>7</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="5"/>
-        <v>1444</v>
+        <f t="shared" si="6"/>
+        <v>3585</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>7385</v>
       </c>
       <c r="N40" s="1">
         <v>38</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>393</v>
       </c>
     </row>
@@ -11895,21 +12070,21 @@
         <v>39</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>163</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>163</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="7"/>
-        <v>126</v>
-      </c>
-      <c r="F41" s="1">
         <f t="shared" si="8"/>
         <v>126</v>
       </c>
+      <c r="F41" s="1">
+        <f t="shared" si="9"/>
+        <v>126</v>
+      </c>
       <c r="G41" s="1">
         <v>18</v>
       </c>
@@ -11917,14 +12092,18 @@
         <v>7</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="5"/>
-        <v>1521</v>
+        <f t="shared" si="6"/>
+        <v>3800</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>7823</v>
       </c>
       <c r="N41" s="1">
         <v>39</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>405</v>
       </c>
     </row>
@@ -11933,21 +12112,21 @@
         <v>40</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>168</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="7"/>
-        <v>130</v>
-      </c>
-      <c r="F42" s="1">
         <f t="shared" si="8"/>
         <v>130</v>
       </c>
+      <c r="F42" s="1">
+        <f t="shared" si="9"/>
+        <v>130</v>
+      </c>
       <c r="G42" s="1">
         <v>18</v>
       </c>
@@ -11955,14 +12134,18 @@
         <v>7</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="5"/>
-        <v>1600</v>
+        <f t="shared" si="6"/>
+        <v>4023</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>8276</v>
       </c>
       <c r="N42" s="1">
         <v>40</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>418</v>
       </c>
     </row>
@@ -11971,21 +12154,21 @@
         <v>41</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>173</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>173</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="7"/>
-        <v>134</v>
-      </c>
-      <c r="F43" s="1">
         <f t="shared" si="8"/>
         <v>134</v>
       </c>
+      <c r="F43" s="1">
+        <f t="shared" si="9"/>
+        <v>134</v>
+      </c>
       <c r="G43" s="1">
         <v>18</v>
       </c>
@@ -11993,14 +12176,18 @@
         <v>7</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="5"/>
-        <v>1681</v>
+        <f t="shared" si="6"/>
+        <v>4253</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>8743</v>
       </c>
       <c r="N43" s="1">
         <v>41</v>
       </c>
       <c r="O43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>430</v>
       </c>
     </row>
@@ -12009,21 +12196,21 @@
         <v>42</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>178</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="7"/>
-        <v>138</v>
-      </c>
-      <c r="F44" s="1">
         <f t="shared" si="8"/>
         <v>138</v>
       </c>
+      <c r="F44" s="1">
+        <f t="shared" si="9"/>
+        <v>138</v>
+      </c>
       <c r="G44" s="1">
         <v>18</v>
       </c>
@@ -12031,14 +12218,18 @@
         <v>7</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="5"/>
-        <v>1764</v>
+        <f t="shared" si="6"/>
+        <v>4490</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>9224</v>
       </c>
       <c r="N44" s="1">
         <v>42</v>
       </c>
       <c r="O44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>443</v>
       </c>
     </row>
@@ -12047,21 +12238,21 @@
         <v>43</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>183</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>183</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="7"/>
-        <v>142</v>
-      </c>
-      <c r="F45" s="1">
         <f t="shared" si="8"/>
         <v>142</v>
       </c>
+      <c r="F45" s="1">
+        <f t="shared" si="9"/>
+        <v>142</v>
+      </c>
       <c r="G45" s="1">
         <v>18</v>
       </c>
@@ -12069,14 +12260,18 @@
         <v>7</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="5"/>
-        <v>1849</v>
+        <f t="shared" si="6"/>
+        <v>4734</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>9720</v>
       </c>
       <c r="N45" s="1">
         <v>43</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>456</v>
       </c>
     </row>
@@ -12085,21 +12280,21 @@
         <v>44</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>188</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>188</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="7"/>
-        <v>146</v>
-      </c>
-      <c r="F46" s="1">
         <f t="shared" si="8"/>
         <v>146</v>
       </c>
+      <c r="F46" s="1">
+        <f t="shared" si="9"/>
+        <v>146</v>
+      </c>
       <c r="G46" s="1">
         <v>18</v>
       </c>
@@ -12107,14 +12302,18 @@
         <v>7</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" si="5"/>
-        <v>1936</v>
+        <f t="shared" si="6"/>
+        <v>4986</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>10230</v>
       </c>
       <c r="N46" s="1">
         <v>44</v>
       </c>
       <c r="O46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>468</v>
       </c>
     </row>
@@ -12123,21 +12322,21 @@
         <v>45</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>194</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>194</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="7"/>
-        <v>151</v>
-      </c>
-      <c r="F47" s="1">
         <f t="shared" si="8"/>
         <v>151</v>
       </c>
+      <c r="F47" s="1">
+        <f t="shared" si="9"/>
+        <v>151</v>
+      </c>
       <c r="G47" s="1">
         <v>18</v>
       </c>
@@ -12145,14 +12344,18 @@
         <v>7</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="5"/>
-        <v>2025</v>
+        <f t="shared" si="6"/>
+        <v>5244</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>10754</v>
       </c>
       <c r="N47" s="1">
         <v>45</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>481</v>
       </c>
     </row>
@@ -12161,21 +12364,21 @@
         <v>46</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="7"/>
-        <v>156</v>
-      </c>
-      <c r="F48" s="1">
         <f t="shared" si="8"/>
         <v>156</v>
       </c>
+      <c r="F48" s="1">
+        <f t="shared" si="9"/>
+        <v>156</v>
+      </c>
       <c r="G48" s="1">
         <v>18</v>
       </c>
@@ -12183,14 +12386,18 @@
         <v>7</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="5"/>
-        <v>2116</v>
+        <f t="shared" si="6"/>
+        <v>5510</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>11293</v>
       </c>
       <c r="N48" s="1">
         <v>46</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>494</v>
       </c>
     </row>
@@ -12199,21 +12406,21 @@
         <v>47</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>206</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>206</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="7"/>
-        <v>161</v>
-      </c>
-      <c r="F49" s="1">
         <f t="shared" si="8"/>
         <v>161</v>
       </c>
+      <c r="F49" s="1">
+        <f t="shared" si="9"/>
+        <v>161</v>
+      </c>
       <c r="G49" s="1">
         <v>19</v>
       </c>
@@ -12221,14 +12428,18 @@
         <v>7</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="5"/>
-        <v>2209</v>
+        <f t="shared" si="6"/>
+        <v>5783</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>11847</v>
       </c>
       <c r="N49" s="1">
         <v>47</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>507</v>
       </c>
     </row>
@@ -12237,21 +12448,21 @@
         <v>48</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>212</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>212</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="7"/>
-        <v>166</v>
-      </c>
-      <c r="F50" s="1">
         <f t="shared" si="8"/>
         <v>166</v>
       </c>
+      <c r="F50" s="1">
+        <f t="shared" si="9"/>
+        <v>166</v>
+      </c>
       <c r="G50" s="1">
         <v>19</v>
       </c>
@@ -12259,14 +12470,18 @@
         <v>8</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="5"/>
-        <v>2304</v>
+        <f t="shared" si="6"/>
+        <v>6064</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>12416</v>
       </c>
       <c r="N50" s="1">
         <v>48</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>520</v>
       </c>
     </row>
@@ -12275,21 +12490,21 @@
         <v>49</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>218</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>218</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="7"/>
-        <v>171</v>
-      </c>
-      <c r="F51" s="1">
         <f t="shared" si="8"/>
         <v>171</v>
       </c>
+      <c r="F51" s="1">
+        <f t="shared" si="9"/>
+        <v>171</v>
+      </c>
       <c r="G51" s="1">
         <v>19</v>
       </c>
@@ -12297,14 +12512,18 @@
         <v>8</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="5"/>
-        <v>2401</v>
+        <f t="shared" si="6"/>
+        <v>6352</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>12999</v>
       </c>
       <c r="N51" s="1">
         <v>49</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>533</v>
       </c>
     </row>
@@ -12313,21 +12532,21 @@
         <v>50</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>224</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>224</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="7"/>
-        <v>176</v>
-      </c>
-      <c r="F52" s="1">
         <f t="shared" si="8"/>
         <v>176</v>
       </c>
+      <c r="F52" s="1">
+        <f t="shared" si="9"/>
+        <v>176</v>
+      </c>
       <c r="G52" s="1">
         <v>19</v>
       </c>
@@ -12335,14 +12554,18 @@
         <v>8</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="5"/>
-        <v>2500</v>
+        <f t="shared" si="6"/>
+        <v>6647</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>13597</v>
       </c>
       <c r="N52" s="1">
         <v>50</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>546</v>
       </c>
     </row>
@@ -12351,21 +12574,21 @@
         <v>51</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>231</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>231</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="7"/>
-        <v>181</v>
-      </c>
-      <c r="F53" s="1">
         <f t="shared" si="8"/>
         <v>181</v>
       </c>
+      <c r="F53" s="1">
+        <f t="shared" si="9"/>
+        <v>181</v>
+      </c>
       <c r="G53" s="1">
         <v>19</v>
       </c>
@@ -12373,14 +12596,18 @@
         <v>8</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="5"/>
-        <v>2601</v>
+        <f t="shared" si="6"/>
+        <v>6950</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>14211</v>
       </c>
       <c r="N53" s="1">
         <v>51</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>559</v>
       </c>
     </row>
@@ -12389,21 +12616,21 @@
         <v>52</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>238</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>238</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="7"/>
-        <v>186</v>
-      </c>
-      <c r="F54" s="1">
         <f t="shared" si="8"/>
         <v>186</v>
       </c>
+      <c r="F54" s="1">
+        <f t="shared" si="9"/>
+        <v>186</v>
+      </c>
       <c r="G54" s="1">
         <v>19</v>
       </c>
@@ -12411,14 +12638,18 @@
         <v>8</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="5"/>
-        <v>2704</v>
+        <f t="shared" si="6"/>
+        <v>7261</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>14840</v>
       </c>
       <c r="N54" s="1">
         <v>52</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>573</v>
       </c>
     </row>
@@ -12427,21 +12658,21 @@
         <v>53</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>245</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>245</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="7"/>
-        <v>192</v>
-      </c>
-      <c r="F55" s="1">
         <f t="shared" si="8"/>
         <v>192</v>
       </c>
+      <c r="F55" s="1">
+        <f t="shared" si="9"/>
+        <v>192</v>
+      </c>
       <c r="G55" s="1">
         <v>19</v>
       </c>
@@ -12449,14 +12680,18 @@
         <v>8</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" si="5"/>
-        <v>2809</v>
+        <f t="shared" si="6"/>
+        <v>7579</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>15483</v>
       </c>
       <c r="N55" s="1">
         <v>53</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>586</v>
       </c>
     </row>
@@ -12465,21 +12700,21 @@
         <v>54</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>252</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>252</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="7"/>
-        <v>198</v>
-      </c>
-      <c r="F56" s="1">
         <f t="shared" si="8"/>
         <v>198</v>
       </c>
+      <c r="F56" s="1">
+        <f t="shared" si="9"/>
+        <v>198</v>
+      </c>
       <c r="G56" s="1">
         <v>19</v>
       </c>
@@ -12487,14 +12722,18 @@
         <v>8</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="5"/>
-        <v>2916</v>
+        <f t="shared" si="6"/>
+        <v>7904</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>16141</v>
       </c>
       <c r="N56" s="1">
         <v>54</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>599</v>
       </c>
     </row>
@@ -12503,21 +12742,21 @@
         <v>55</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>259</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>259</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="7"/>
-        <v>204</v>
-      </c>
-      <c r="F57" s="1">
         <f t="shared" si="8"/>
         <v>204</v>
       </c>
+      <c r="F57" s="1">
+        <f t="shared" si="9"/>
+        <v>204</v>
+      </c>
       <c r="G57" s="1">
         <v>19</v>
       </c>
@@ -12525,14 +12764,18 @@
         <v>8</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="5"/>
-        <v>3025</v>
+        <f t="shared" si="6"/>
+        <v>8237</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>16815</v>
       </c>
       <c r="N57" s="1">
         <v>55</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>612</v>
       </c>
     </row>
@@ -12541,21 +12784,21 @@
         <v>56</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>266</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>266</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="F58" s="1">
         <f t="shared" si="8"/>
         <v>210</v>
       </c>
+      <c r="F58" s="1">
+        <f t="shared" si="9"/>
+        <v>210</v>
+      </c>
       <c r="G58" s="1">
         <v>19</v>
       </c>
@@ -12563,14 +12806,18 @@
         <v>8</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="5"/>
-        <v>3136</v>
+        <f t="shared" si="6"/>
+        <v>8578</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>17505</v>
       </c>
       <c r="N58" s="1">
         <v>56</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>626</v>
       </c>
     </row>
@@ -12579,21 +12826,21 @@
         <v>57</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>274</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>274</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="7"/>
-        <v>216</v>
-      </c>
-      <c r="F59" s="1">
         <f t="shared" si="8"/>
         <v>216</v>
       </c>
+      <c r="F59" s="1">
+        <f t="shared" si="9"/>
+        <v>216</v>
+      </c>
       <c r="G59" s="1">
         <v>19</v>
       </c>
@@ -12601,14 +12848,18 @@
         <v>8</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="5"/>
-        <v>3249</v>
+        <f t="shared" si="6"/>
+        <v>8927</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>18210</v>
       </c>
       <c r="N59" s="1">
         <v>57</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>639</v>
       </c>
     </row>
@@ -12617,21 +12868,21 @@
         <v>58</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>282</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>282</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="7"/>
-        <v>222</v>
-      </c>
-      <c r="F60" s="1">
         <f t="shared" si="8"/>
         <v>222</v>
       </c>
+      <c r="F60" s="1">
+        <f t="shared" si="9"/>
+        <v>222</v>
+      </c>
       <c r="G60" s="1">
         <v>19</v>
       </c>
@@ -12639,14 +12890,18 @@
         <v>8</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="5"/>
-        <v>3364</v>
+        <f t="shared" si="6"/>
+        <v>9283</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>18930</v>
       </c>
       <c r="N60" s="1">
         <v>58</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>653</v>
       </c>
     </row>
@@ -12655,21 +12910,21 @@
         <v>59</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>290</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="7"/>
-        <v>228</v>
-      </c>
-      <c r="F61" s="1">
         <f t="shared" si="8"/>
         <v>228</v>
       </c>
+      <c r="F61" s="1">
+        <f t="shared" si="9"/>
+        <v>228</v>
+      </c>
       <c r="G61" s="1">
         <v>19</v>
       </c>
@@ -12677,14 +12932,18 @@
         <v>8</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" si="5"/>
-        <v>3481</v>
+        <f t="shared" si="6"/>
+        <v>9647</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>19666</v>
       </c>
       <c r="N61" s="1">
         <v>59</v>
       </c>
       <c r="O61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>666</v>
       </c>
     </row>
@@ -12693,21 +12952,21 @@
         <v>60</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>298</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>298</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="7"/>
-        <v>235</v>
-      </c>
-      <c r="F62" s="1">
         <f t="shared" si="8"/>
         <v>235</v>
       </c>
+      <c r="F62" s="1">
+        <f t="shared" si="9"/>
+        <v>235</v>
+      </c>
       <c r="G62" s="1">
         <v>20</v>
       </c>
@@ -12715,14 +12974,18 @@
         <v>9</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" si="5"/>
-        <v>3600</v>
+        <f t="shared" si="6"/>
+        <v>10019</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>20418</v>
       </c>
       <c r="N62" s="1">
         <v>60</v>
       </c>
       <c r="O62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>680</v>
       </c>
     </row>
@@ -12731,21 +12994,21 @@
         <v>61</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>306</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>306</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="7"/>
-        <v>242</v>
-      </c>
-      <c r="F63" s="1">
         <f t="shared" si="8"/>
         <v>242</v>
       </c>
+      <c r="F63" s="1">
+        <f t="shared" si="9"/>
+        <v>242</v>
+      </c>
       <c r="G63" s="1">
         <v>20</v>
       </c>
@@ -12753,14 +13016,18 @@
         <v>9</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" si="5"/>
-        <v>3721</v>
+        <f t="shared" si="6"/>
+        <v>10399</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>21185</v>
       </c>
       <c r="N63" s="1">
         <v>61</v>
       </c>
       <c r="O63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>694</v>
       </c>
     </row>
@@ -12769,21 +13036,21 @@
         <v>62</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>315</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>315</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="7"/>
-        <v>249</v>
-      </c>
-      <c r="F64" s="1">
         <f t="shared" si="8"/>
         <v>249</v>
       </c>
+      <c r="F64" s="1">
+        <f t="shared" si="9"/>
+        <v>249</v>
+      </c>
       <c r="G64" s="1">
         <v>20</v>
       </c>
@@ -12791,14 +13058,18 @@
         <v>9</v>
       </c>
       <c r="I64" s="1">
-        <f t="shared" si="5"/>
-        <v>3844</v>
+        <f t="shared" si="6"/>
+        <v>10786</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>21967</v>
       </c>
       <c r="N64" s="1">
         <v>62</v>
       </c>
       <c r="O64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>707</v>
       </c>
     </row>
@@ -12807,21 +13078,21 @@
         <v>63</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>324</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>324</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="7"/>
-        <v>256</v>
-      </c>
-      <c r="F65" s="1">
         <f t="shared" si="8"/>
         <v>256</v>
       </c>
+      <c r="F65" s="1">
+        <f t="shared" si="9"/>
+        <v>256</v>
+      </c>
       <c r="G65" s="1">
         <v>20</v>
       </c>
@@ -12829,14 +13100,18 @@
         <v>9</v>
       </c>
       <c r="I65" s="1">
-        <f t="shared" si="5"/>
-        <v>3969</v>
+        <f t="shared" si="6"/>
+        <v>11181</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>22766</v>
       </c>
       <c r="N65" s="1">
         <v>63</v>
       </c>
       <c r="O65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>721</v>
       </c>
     </row>
@@ -12845,21 +13120,21 @@
         <v>64</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>333</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>333</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="7"/>
-        <v>263</v>
-      </c>
-      <c r="F66" s="1">
         <f t="shared" si="8"/>
         <v>263</v>
       </c>
+      <c r="F66" s="1">
+        <f t="shared" si="9"/>
+        <v>263</v>
+      </c>
       <c r="G66" s="1">
         <v>20</v>
       </c>
@@ -12867,14 +13142,18 @@
         <v>9</v>
       </c>
       <c r="I66" s="1">
-        <f t="shared" si="5"/>
-        <v>4096</v>
+        <f t="shared" si="6"/>
+        <v>11585</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>23581</v>
       </c>
       <c r="N66" s="1">
         <v>64</v>
       </c>
       <c r="O66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>735</v>
       </c>
     </row>
@@ -12883,21 +13162,21 @@
         <v>65</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>342</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>342</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="7"/>
-        <v>271</v>
-      </c>
-      <c r="F67" s="1">
         <f t="shared" si="8"/>
         <v>271</v>
       </c>
+      <c r="F67" s="1">
+        <f t="shared" si="9"/>
+        <v>271</v>
+      </c>
       <c r="G67" s="1">
         <v>20</v>
       </c>
@@ -12905,14 +13184,18 @@
         <v>9</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" si="5"/>
-        <v>4225</v>
+        <f t="shared" si="6"/>
+        <v>11996</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="0"/>
+        <v>24411</v>
       </c>
       <c r="N67" s="1">
         <v>65</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>748</v>
       </c>
     </row>
@@ -12921,21 +13204,21 @@
         <v>66</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>352</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>352</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="7"/>
-        <v>279</v>
-      </c>
-      <c r="F68" s="1">
         <f t="shared" si="8"/>
         <v>279</v>
       </c>
+      <c r="F68" s="1">
+        <f t="shared" si="9"/>
+        <v>279</v>
+      </c>
       <c r="G68" s="1">
         <v>20</v>
       </c>
@@ -12943,14 +13226,18 @@
         <v>9</v>
       </c>
       <c r="I68" s="1">
-        <f t="shared" si="5"/>
-        <v>4356</v>
+        <f t="shared" si="6"/>
+        <v>12415</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68:J101" si="10">I69--I68</f>
+        <v>25258</v>
       </c>
       <c r="N68" s="1">
         <v>66</v>
       </c>
       <c r="O68" s="1">
-        <f t="shared" ref="O68:O100" si="9">FLOOR(FLOOR(5*POWER(N68,1.2),1),1)</f>
+        <f t="shared" ref="O68:O100" si="11">FLOOR(FLOOR(5*POWER(N68,1.2),1),1)</f>
         <v>762</v>
       </c>
     </row>
@@ -12959,21 +13246,21 @@
         <v>67</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" ref="C69:C101" si="10">FLOOR(POWER(C68,1.004)+1.1+1,1)</f>
+        <f t="shared" ref="C69:C101" si="12">FLOOR(POWER(C68,1.004)+1.1+1,1)</f>
         <v>362</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>362</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="7"/>
-        <v>287</v>
-      </c>
-      <c r="F69" s="1">
         <f t="shared" si="8"/>
         <v>287</v>
       </c>
+      <c r="F69" s="1">
+        <f t="shared" si="9"/>
+        <v>287</v>
+      </c>
       <c r="G69" s="1">
         <v>20</v>
       </c>
@@ -12981,14 +13268,18 @@
         <v>9</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" ref="I69:I101" si="11">FLOOR(POWER(B69,2+($L$5)/6),1)</f>
-        <v>4489</v>
+        <f t="shared" ref="I69:I101" si="13">FLOOR(POWER(B69,2.25+($L$5)/12),1)</f>
+        <v>12843</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="10"/>
+        <v>26121</v>
       </c>
       <c r="N69" s="1">
         <v>67</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>776</v>
       </c>
     </row>
@@ -12997,21 +13288,21 @@
         <v>68</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>372</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>372</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="7"/>
-        <v>295</v>
-      </c>
-      <c r="F70" s="1">
         <f t="shared" si="8"/>
         <v>295</v>
       </c>
+      <c r="F70" s="1">
+        <f t="shared" si="9"/>
+        <v>295</v>
+      </c>
       <c r="G70" s="1">
         <v>20</v>
       </c>
@@ -13019,14 +13310,18 @@
         <v>9</v>
       </c>
       <c r="I70" s="1">
-        <f t="shared" si="11"/>
-        <v>4624</v>
+        <f t="shared" si="13"/>
+        <v>13278</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="10"/>
+        <v>26999</v>
       </c>
       <c r="N70" s="1">
         <v>68</v>
       </c>
       <c r="O70" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>790</v>
       </c>
     </row>
@@ -13035,21 +13330,21 @@
         <v>69</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>383</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>383</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="7"/>
-        <v>303</v>
-      </c>
-      <c r="F71" s="1">
         <f t="shared" si="8"/>
         <v>303</v>
       </c>
+      <c r="F71" s="1">
+        <f t="shared" si="9"/>
+        <v>303</v>
+      </c>
       <c r="G71" s="1">
         <v>20</v>
       </c>
@@ -13057,14 +13352,18 @@
         <v>9</v>
       </c>
       <c r="I71" s="1">
-        <f t="shared" si="11"/>
-        <v>4761</v>
+        <f t="shared" si="13"/>
+        <v>13721</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="10"/>
+        <v>27894</v>
       </c>
       <c r="N71" s="1">
         <v>69</v>
       </c>
       <c r="O71" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>804</v>
       </c>
     </row>
@@ -13073,21 +13372,21 @@
         <v>70</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>394</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>394</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="7"/>
-        <v>312</v>
-      </c>
-      <c r="F72" s="1">
         <f t="shared" si="8"/>
         <v>312</v>
       </c>
+      <c r="F72" s="1">
+        <f t="shared" si="9"/>
+        <v>312</v>
+      </c>
       <c r="G72" s="1">
         <v>20</v>
       </c>
@@ -13095,14 +13394,18 @@
         <v>9</v>
       </c>
       <c r="I72" s="1">
-        <f t="shared" si="11"/>
-        <v>4900</v>
+        <f t="shared" si="13"/>
+        <v>14173</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="10"/>
+        <v>28805</v>
       </c>
       <c r="N72" s="1">
         <v>70</v>
       </c>
       <c r="O72" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>818</v>
       </c>
     </row>
@@ -13111,19 +13414,19 @@
         <v>71</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>405</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" ref="D73:D101" si="12">FLOOR(POWER(D72,1.004)+1.1+1,1)</f>
+        <f t="shared" ref="D73:D101" si="14">FLOOR(POWER(D72,1.004)+1.1+1,1)</f>
         <v>405</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" ref="E73:E101" si="13">FLOOR(POWER(E72,1.004)+1.1+1,1)</f>
+        <f t="shared" ref="E73:E101" si="15">FLOOR(POWER(E72,1.004)+1.1+1,1)</f>
         <v>321</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" ref="F73:F101" si="14">FLOOR(POWER(F72,1.004)+1.1+1,1)</f>
+        <f t="shared" ref="F73:F101" si="16">FLOOR(POWER(F72,1.004)+1.1+1,1)</f>
         <v>321</v>
       </c>
       <c r="G73" s="1">
@@ -13133,14 +13436,18 @@
         <v>9</v>
       </c>
       <c r="I73" s="1">
-        <f t="shared" si="11"/>
-        <v>5041</v>
+        <f t="shared" si="13"/>
+        <v>14632</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="10"/>
+        <v>29732</v>
       </c>
       <c r="N73" s="1">
         <v>71</v>
       </c>
       <c r="O73" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>832</v>
       </c>
     </row>
@@ -13149,19 +13456,19 @@
         <v>72</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="10"/>
-        <v>416</v>
-      </c>
-      <c r="D74" s="1">
         <f t="shared" si="12"/>
         <v>416</v>
       </c>
+      <c r="D74" s="1">
+        <f t="shared" si="14"/>
+        <v>416</v>
+      </c>
       <c r="E74" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>330</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>330</v>
       </c>
       <c r="G74" s="1">
@@ -13171,14 +13478,18 @@
         <v>9</v>
       </c>
       <c r="I74" s="1">
-        <f t="shared" si="11"/>
-        <v>5184</v>
+        <f t="shared" si="13"/>
+        <v>15100</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="10"/>
+        <v>30676</v>
       </c>
       <c r="N74" s="1">
         <v>72</v>
       </c>
       <c r="O74" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>846</v>
       </c>
     </row>
@@ -13187,19 +13498,19 @@
         <v>73</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="10"/>
-        <v>428</v>
-      </c>
-      <c r="D75" s="1">
         <f t="shared" si="12"/>
         <v>428</v>
       </c>
+      <c r="D75" s="1">
+        <f t="shared" si="14"/>
+        <v>428</v>
+      </c>
       <c r="E75" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>339</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>339</v>
       </c>
       <c r="G75" s="1">
@@ -13209,14 +13520,18 @@
         <v>9</v>
       </c>
       <c r="I75" s="1">
-        <f t="shared" si="11"/>
-        <v>5329</v>
+        <f t="shared" si="13"/>
+        <v>15576</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="10"/>
+        <v>31636</v>
       </c>
       <c r="N75" s="1">
         <v>73</v>
       </c>
       <c r="O75" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>860</v>
       </c>
     </row>
@@ -13225,19 +13540,19 @@
         <v>74</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="10"/>
-        <v>440</v>
-      </c>
-      <c r="D76" s="1">
         <f t="shared" si="12"/>
         <v>440</v>
       </c>
+      <c r="D76" s="1">
+        <f t="shared" si="14"/>
+        <v>440</v>
+      </c>
       <c r="E76" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>349</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>349</v>
       </c>
       <c r="G76" s="1">
@@ -13247,14 +13562,18 @@
         <v>9</v>
       </c>
       <c r="I76" s="1">
-        <f t="shared" si="11"/>
-        <v>5476</v>
+        <f t="shared" si="13"/>
+        <v>16060</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="10"/>
+        <v>32613</v>
       </c>
       <c r="N76" s="1">
         <v>74</v>
       </c>
       <c r="O76" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>875</v>
       </c>
     </row>
@@ -13263,19 +13582,19 @@
         <v>75</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="10"/>
-        <v>452</v>
-      </c>
-      <c r="D77" s="1">
         <f t="shared" si="12"/>
         <v>452</v>
       </c>
+      <c r="D77" s="1">
+        <f t="shared" si="14"/>
+        <v>452</v>
+      </c>
       <c r="E77" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>359</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>359</v>
       </c>
       <c r="G77" s="1">
@@ -13285,14 +13604,18 @@
         <v>9</v>
       </c>
       <c r="I77" s="1">
-        <f t="shared" si="11"/>
-        <v>5625</v>
+        <f t="shared" si="13"/>
+        <v>16553</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="10"/>
+        <v>33607</v>
       </c>
       <c r="N77" s="1">
         <v>75</v>
       </c>
       <c r="O77" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>889</v>
       </c>
     </row>
@@ -13301,19 +13624,19 @@
         <v>76</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="10"/>
-        <v>465</v>
-      </c>
-      <c r="D78" s="1">
         <f t="shared" si="12"/>
         <v>465</v>
       </c>
+      <c r="D78" s="1">
+        <f t="shared" si="14"/>
+        <v>465</v>
+      </c>
       <c r="E78" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>369</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>369</v>
       </c>
       <c r="G78" s="1">
@@ -13323,14 +13646,18 @@
         <v>9</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" si="11"/>
-        <v>5776</v>
+        <f t="shared" si="13"/>
+        <v>17054</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="10"/>
+        <v>34617</v>
       </c>
       <c r="N78" s="1">
         <v>76</v>
       </c>
       <c r="O78" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>903</v>
       </c>
     </row>
@@ -13339,19 +13666,19 @@
         <v>77</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="10"/>
-        <v>478</v>
-      </c>
-      <c r="D79" s="1">
         <f t="shared" si="12"/>
         <v>478</v>
       </c>
+      <c r="D79" s="1">
+        <f t="shared" si="14"/>
+        <v>478</v>
+      </c>
       <c r="E79" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>379</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>379</v>
       </c>
       <c r="G79" s="1">
@@ -13361,14 +13688,18 @@
         <v>10</v>
       </c>
       <c r="I79" s="1">
-        <f t="shared" si="11"/>
-        <v>5929</v>
+        <f t="shared" si="13"/>
+        <v>17563</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="10"/>
+        <v>35643</v>
       </c>
       <c r="N79" s="1">
         <v>77</v>
       </c>
       <c r="O79" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>917</v>
       </c>
     </row>
@@ -13377,19 +13708,19 @@
         <v>78</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="10"/>
-        <v>492</v>
-      </c>
-      <c r="D80" s="1">
         <f t="shared" si="12"/>
         <v>492</v>
       </c>
+      <c r="D80" s="1">
+        <f t="shared" si="14"/>
+        <v>492</v>
+      </c>
       <c r="E80" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>390</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>390</v>
       </c>
       <c r="G80" s="1">
@@ -13399,14 +13730,18 @@
         <v>10</v>
       </c>
       <c r="I80" s="1">
-        <f t="shared" si="11"/>
-        <v>6084</v>
+        <f t="shared" si="13"/>
+        <v>18080</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="10"/>
+        <v>36686</v>
       </c>
       <c r="N80" s="1">
         <v>78</v>
       </c>
       <c r="O80" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>932</v>
       </c>
     </row>
@@ -13415,19 +13750,19 @@
         <v>79</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="10"/>
-        <v>506</v>
-      </c>
-      <c r="D81" s="1">
         <f t="shared" si="12"/>
         <v>506</v>
       </c>
+      <c r="D81" s="1">
+        <f t="shared" si="14"/>
+        <v>506</v>
+      </c>
       <c r="E81" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>401</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>401</v>
       </c>
       <c r="G81" s="1">
@@ -13437,14 +13772,18 @@
         <v>10</v>
       </c>
       <c r="I81" s="1">
-        <f t="shared" si="11"/>
-        <v>6241</v>
+        <f t="shared" si="13"/>
+        <v>18606</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="10"/>
+        <v>37746</v>
       </c>
       <c r="N81" s="1">
         <v>79</v>
       </c>
       <c r="O81" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>946</v>
       </c>
     </row>
@@ -13453,19 +13792,19 @@
         <v>80</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="10"/>
-        <v>520</v>
-      </c>
-      <c r="D82" s="1">
         <f t="shared" si="12"/>
         <v>520</v>
       </c>
+      <c r="D82" s="1">
+        <f t="shared" si="14"/>
+        <v>520</v>
+      </c>
       <c r="E82" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>412</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>412</v>
       </c>
       <c r="G82" s="1">
@@ -13475,14 +13814,18 @@
         <v>10</v>
       </c>
       <c r="I82" s="1">
-        <f t="shared" si="11"/>
-        <v>6400</v>
+        <f t="shared" si="13"/>
+        <v>19140</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="10"/>
+        <v>38823</v>
       </c>
       <c r="N82" s="1">
         <v>80</v>
       </c>
       <c r="O82" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>960</v>
       </c>
     </row>
@@ -13491,19 +13834,19 @@
         <v>81</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="10"/>
-        <v>535</v>
-      </c>
-      <c r="D83" s="1">
         <f t="shared" si="12"/>
         <v>535</v>
       </c>
+      <c r="D83" s="1">
+        <f t="shared" si="14"/>
+        <v>535</v>
+      </c>
       <c r="E83" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>424</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>424</v>
       </c>
       <c r="G83" s="1">
@@ -13513,14 +13856,18 @@
         <v>10</v>
       </c>
       <c r="I83" s="1">
-        <f t="shared" si="11"/>
-        <v>6561</v>
+        <f t="shared" si="13"/>
+        <v>19683</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="10"/>
+        <v>39916</v>
       </c>
       <c r="N83" s="1">
         <v>81</v>
       </c>
       <c r="O83" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>975</v>
       </c>
     </row>
@@ -13529,19 +13876,19 @@
         <v>82</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="10"/>
-        <v>550</v>
-      </c>
-      <c r="D84" s="1">
         <f t="shared" si="12"/>
         <v>550</v>
       </c>
+      <c r="D84" s="1">
+        <f t="shared" si="14"/>
+        <v>550</v>
+      </c>
       <c r="E84" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>436</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>436</v>
       </c>
       <c r="G84" s="1">
@@ -13551,14 +13898,18 @@
         <v>10</v>
       </c>
       <c r="I84" s="1">
-        <f t="shared" si="11"/>
-        <v>6724</v>
+        <f t="shared" si="13"/>
+        <v>20233</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="10"/>
+        <v>41026</v>
       </c>
       <c r="N84" s="1">
         <v>82</v>
       </c>
       <c r="O84" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>989</v>
       </c>
     </row>
@@ -13567,19 +13918,19 @@
         <v>83</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="10"/>
-        <v>566</v>
-      </c>
-      <c r="D85" s="1">
         <f t="shared" si="12"/>
         <v>566</v>
       </c>
+      <c r="D85" s="1">
+        <f t="shared" si="14"/>
+        <v>566</v>
+      </c>
       <c r="E85" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>448</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>448</v>
       </c>
       <c r="G85" s="1">
@@ -13589,14 +13940,18 @@
         <v>10</v>
       </c>
       <c r="I85" s="1">
-        <f t="shared" si="11"/>
-        <v>6889</v>
+        <f t="shared" si="13"/>
+        <v>20793</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="10"/>
+        <v>42154</v>
       </c>
       <c r="N85" s="1">
         <v>83</v>
       </c>
       <c r="O85" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1004</v>
       </c>
     </row>
@@ -13605,19 +13960,19 @@
         <v>84</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="10"/>
-        <v>582</v>
-      </c>
-      <c r="D86" s="1">
         <f t="shared" si="12"/>
         <v>582</v>
       </c>
+      <c r="D86" s="1">
+        <f t="shared" si="14"/>
+        <v>582</v>
+      </c>
       <c r="E86" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>461</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>461</v>
       </c>
       <c r="G86" s="1">
@@ -13627,14 +13982,18 @@
         <v>10</v>
       </c>
       <c r="I86" s="1">
-        <f t="shared" si="11"/>
-        <v>7056</v>
+        <f t="shared" si="13"/>
+        <v>21361</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="10"/>
+        <v>43298</v>
       </c>
       <c r="N86" s="1">
         <v>84</v>
       </c>
       <c r="O86" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1018</v>
       </c>
     </row>
@@ -13643,19 +14002,19 @@
         <v>85</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="10"/>
-        <v>599</v>
-      </c>
-      <c r="D87" s="1">
         <f t="shared" si="12"/>
         <v>599</v>
       </c>
+      <c r="D87" s="1">
+        <f t="shared" si="14"/>
+        <v>599</v>
+      </c>
       <c r="E87" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>474</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>474</v>
       </c>
       <c r="G87" s="1">
@@ -13665,14 +14024,18 @@
         <v>10</v>
       </c>
       <c r="I87" s="1">
-        <f t="shared" si="11"/>
-        <v>7225</v>
+        <f t="shared" si="13"/>
+        <v>21937</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="10"/>
+        <v>44459</v>
       </c>
       <c r="N87" s="1">
         <v>85</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1033</v>
       </c>
     </row>
@@ -13681,19 +14044,19 @@
         <v>86</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="10"/>
-        <v>616</v>
-      </c>
-      <c r="D88" s="1">
         <f t="shared" si="12"/>
         <v>616</v>
       </c>
+      <c r="D88" s="1">
+        <f t="shared" si="14"/>
+        <v>616</v>
+      </c>
       <c r="E88" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>487</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>487</v>
       </c>
       <c r="G88" s="1">
@@ -13703,14 +14066,18 @@
         <v>10</v>
       </c>
       <c r="I88" s="1">
-        <f t="shared" si="11"/>
-        <v>7396</v>
+        <f t="shared" si="13"/>
+        <v>22522</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="10"/>
+        <v>45638</v>
       </c>
       <c r="N88" s="1">
         <v>86</v>
       </c>
       <c r="O88" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1048</v>
       </c>
     </row>
@@ -13719,19 +14086,19 @@
         <v>87</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="10"/>
-        <v>634</v>
-      </c>
-      <c r="D89" s="1">
         <f t="shared" si="12"/>
         <v>634</v>
       </c>
+      <c r="D89" s="1">
+        <f t="shared" si="14"/>
+        <v>634</v>
+      </c>
       <c r="E89" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>501</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>501</v>
       </c>
       <c r="G89" s="1">
@@ -13741,14 +14108,18 @@
         <v>10</v>
       </c>
       <c r="I89" s="1">
-        <f t="shared" si="11"/>
-        <v>7569</v>
+        <f t="shared" si="13"/>
+        <v>23116</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="10"/>
+        <v>46834</v>
       </c>
       <c r="N89" s="1">
         <v>87</v>
       </c>
       <c r="O89" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1062</v>
       </c>
     </row>
@@ -13757,19 +14128,19 @@
         <v>88</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="10"/>
-        <v>652</v>
-      </c>
-      <c r="D90" s="1">
         <f t="shared" si="12"/>
         <v>652</v>
       </c>
+      <c r="D90" s="1">
+        <f t="shared" si="14"/>
+        <v>652</v>
+      </c>
       <c r="E90" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>515</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>515</v>
       </c>
       <c r="G90" s="1">
@@ -13779,14 +14150,18 @@
         <v>10</v>
       </c>
       <c r="I90" s="1">
-        <f t="shared" si="11"/>
-        <v>7744</v>
+        <f t="shared" si="13"/>
+        <v>23718</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="10"/>
+        <v>48047</v>
       </c>
       <c r="N90" s="1">
         <v>88</v>
       </c>
       <c r="O90" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1077</v>
       </c>
     </row>
@@ -13795,19 +14170,19 @@
         <v>89</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="10"/>
-        <v>671</v>
-      </c>
-      <c r="D91" s="1">
         <f t="shared" si="12"/>
         <v>671</v>
       </c>
+      <c r="D91" s="1">
+        <f t="shared" si="14"/>
+        <v>671</v>
+      </c>
       <c r="E91" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>530</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>530</v>
       </c>
       <c r="G91" s="1">
@@ -13817,14 +14192,18 @@
         <v>10</v>
       </c>
       <c r="I91" s="1">
-        <f t="shared" si="11"/>
-        <v>7921</v>
+        <f t="shared" si="13"/>
+        <v>24329</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="10"/>
+        <v>49277</v>
       </c>
       <c r="N91" s="1">
         <v>89</v>
       </c>
       <c r="O91" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1092</v>
       </c>
     </row>
@@ -13833,19 +14212,19 @@
         <v>90</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="10"/>
-        <v>690</v>
-      </c>
-      <c r="D92" s="1">
         <f t="shared" si="12"/>
         <v>690</v>
       </c>
+      <c r="D92" s="1">
+        <f t="shared" si="14"/>
+        <v>690</v>
+      </c>
       <c r="E92" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>545</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>545</v>
       </c>
       <c r="G92" s="1">
@@ -13855,14 +14234,18 @@
         <v>10</v>
       </c>
       <c r="I92" s="1">
-        <f t="shared" si="11"/>
-        <v>8100</v>
+        <f t="shared" si="13"/>
+        <v>24948</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="10"/>
+        <v>50524</v>
       </c>
       <c r="N92" s="1">
         <v>90</v>
       </c>
       <c r="O92" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1106</v>
       </c>
     </row>
@@ -13871,19 +14254,19 @@
         <v>91</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="10"/>
-        <v>710</v>
-      </c>
-      <c r="D93" s="1">
         <f t="shared" si="12"/>
         <v>710</v>
       </c>
+      <c r="D93" s="1">
+        <f t="shared" si="14"/>
+        <v>710</v>
+      </c>
       <c r="E93" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>561</v>
       </c>
       <c r="F93" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>561</v>
       </c>
       <c r="G93" s="1">
@@ -13893,14 +14276,18 @@
         <v>10</v>
       </c>
       <c r="I93" s="1">
-        <f t="shared" si="11"/>
-        <v>8281</v>
+        <f t="shared" si="13"/>
+        <v>25576</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="10"/>
+        <v>51789</v>
       </c>
       <c r="N93" s="1">
         <v>91</v>
       </c>
       <c r="O93" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1121</v>
       </c>
     </row>
@@ -13909,19 +14296,19 @@
         <v>92</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="10"/>
-        <v>730</v>
-      </c>
-      <c r="D94" s="1">
         <f t="shared" si="12"/>
         <v>730</v>
       </c>
+      <c r="D94" s="1">
+        <f t="shared" si="14"/>
+        <v>730</v>
+      </c>
       <c r="E94" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>577</v>
       </c>
       <c r="F94" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>577</v>
       </c>
       <c r="G94" s="1">
@@ -13931,14 +14318,18 @@
         <v>10</v>
       </c>
       <c r="I94" s="1">
-        <f t="shared" si="11"/>
-        <v>8464</v>
+        <f t="shared" si="13"/>
+        <v>26213</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="10"/>
+        <v>53071</v>
       </c>
       <c r="N94" s="1">
         <v>92</v>
       </c>
       <c r="O94" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1136</v>
       </c>
     </row>
@@ -13947,19 +14338,19 @@
         <v>93</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="10"/>
-        <v>751</v>
-      </c>
-      <c r="D95" s="1">
         <f t="shared" si="12"/>
         <v>751</v>
       </c>
+      <c r="D95" s="1">
+        <f t="shared" si="14"/>
+        <v>751</v>
+      </c>
       <c r="E95" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>593</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>593</v>
       </c>
       <c r="G95" s="1">
@@ -13969,14 +14360,18 @@
         <v>10</v>
       </c>
       <c r="I95" s="1">
-        <f t="shared" si="11"/>
-        <v>8649</v>
+        <f t="shared" si="13"/>
+        <v>26858</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="10"/>
+        <v>54370</v>
       </c>
       <c r="N95" s="1">
         <v>93</v>
       </c>
       <c r="O95" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1151</v>
       </c>
     </row>
@@ -13985,19 +14380,19 @@
         <v>94</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="10"/>
-        <v>773</v>
-      </c>
-      <c r="D96" s="1">
         <f t="shared" si="12"/>
         <v>773</v>
       </c>
+      <c r="D96" s="1">
+        <f t="shared" si="14"/>
+        <v>773</v>
+      </c>
       <c r="E96" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>610</v>
       </c>
       <c r="F96" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>610</v>
       </c>
       <c r="G96" s="1">
@@ -14007,14 +14402,18 @@
         <v>10</v>
       </c>
       <c r="I96" s="1">
-        <f t="shared" si="11"/>
-        <v>8836</v>
+        <f t="shared" si="13"/>
+        <v>27512</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="10"/>
+        <v>55687</v>
       </c>
       <c r="N96" s="1">
         <v>94</v>
       </c>
       <c r="O96" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1166</v>
       </c>
     </row>
@@ -14023,19 +14422,19 @@
         <v>95</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="10"/>
-        <v>795</v>
-      </c>
-      <c r="D97" s="1">
         <f t="shared" si="12"/>
         <v>795</v>
       </c>
+      <c r="D97" s="1">
+        <f t="shared" si="14"/>
+        <v>795</v>
+      </c>
       <c r="E97" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>627</v>
       </c>
       <c r="F97" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>627</v>
       </c>
       <c r="G97" s="1">
@@ -14045,14 +14444,18 @@
         <v>10</v>
       </c>
       <c r="I97" s="1">
-        <f t="shared" si="11"/>
-        <v>9025</v>
+        <f t="shared" si="13"/>
+        <v>28175</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="10"/>
+        <v>57022</v>
       </c>
       <c r="N97" s="1">
         <v>95</v>
       </c>
       <c r="O97" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1180</v>
       </c>
     </row>
@@ -14061,19 +14464,19 @@
         <v>96</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="10"/>
-        <v>818</v>
-      </c>
-      <c r="D98" s="1">
         <f t="shared" si="12"/>
         <v>818</v>
       </c>
+      <c r="D98" s="1">
+        <f t="shared" si="14"/>
+        <v>818</v>
+      </c>
       <c r="E98" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>645</v>
       </c>
       <c r="F98" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>645</v>
       </c>
       <c r="G98" s="1">
@@ -14083,14 +14486,18 @@
         <v>10</v>
       </c>
       <c r="I98" s="1">
-        <f t="shared" si="11"/>
-        <v>9216</v>
+        <f t="shared" si="13"/>
+        <v>28847</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="10"/>
+        <v>58375</v>
       </c>
       <c r="N98" s="1">
         <v>96</v>
       </c>
       <c r="O98" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1195</v>
       </c>
     </row>
@@ -14099,19 +14506,19 @@
         <v>97</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="10"/>
-        <v>842</v>
-      </c>
-      <c r="D99" s="1">
         <f t="shared" si="12"/>
         <v>842</v>
       </c>
+      <c r="D99" s="1">
+        <f t="shared" si="14"/>
+        <v>842</v>
+      </c>
       <c r="E99" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>664</v>
       </c>
       <c r="F99" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>664</v>
       </c>
       <c r="G99" s="1">
@@ -14121,14 +14528,18 @@
         <v>10</v>
       </c>
       <c r="I99" s="1">
-        <f t="shared" si="11"/>
-        <v>9409</v>
+        <f t="shared" si="13"/>
+        <v>29528</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="10"/>
+        <v>59745</v>
       </c>
       <c r="N99" s="1">
         <v>97</v>
       </c>
       <c r="O99" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1210</v>
       </c>
     </row>
@@ -14137,19 +14548,19 @@
         <v>98</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="10"/>
-        <v>867</v>
-      </c>
-      <c r="D100" s="1">
         <f t="shared" si="12"/>
         <v>867</v>
       </c>
+      <c r="D100" s="1">
+        <f t="shared" si="14"/>
+        <v>867</v>
+      </c>
       <c r="E100" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>683</v>
       </c>
       <c r="F100" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>683</v>
       </c>
       <c r="G100" s="1">
@@ -14159,14 +14570,18 @@
         <v>10</v>
       </c>
       <c r="I100" s="1">
-        <f t="shared" si="11"/>
-        <v>9604</v>
+        <f t="shared" si="13"/>
+        <v>30217</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="10"/>
+        <v>61132</v>
       </c>
       <c r="N100" s="1">
         <v>98</v>
       </c>
       <c r="O100" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1225</v>
       </c>
     </row>
@@ -14175,19 +14590,19 @@
         <v>99</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" si="10"/>
-        <v>892</v>
-      </c>
-      <c r="D101" s="1">
         <f t="shared" si="12"/>
         <v>892</v>
       </c>
+      <c r="D101" s="1">
+        <f t="shared" si="14"/>
+        <v>892</v>
+      </c>
       <c r="E101" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>703</v>
       </c>
       <c r="F101" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>703</v>
       </c>
       <c r="G101" s="1">
@@ -14197,8 +14612,12 @@
         <v>10</v>
       </c>
       <c r="I101" s="1">
-        <f t="shared" si="11"/>
-        <v>9801</v>
+        <f t="shared" si="13"/>
+        <v>30915</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="10"/>
+        <v>30915</v>
       </c>
       <c r="N101" s="1">
         <v>99</v>

--- a/field.xlsx
+++ b/field.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yodai/Documents/vscode/mypic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15101C6-A597-8A43-ABA1-C5F6472F4130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72954F7B-C5C5-844F-A5DD-4AFC1EC1FE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" activeTab="8" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" activeTab="7" xr2:uid="{4EE88695-617B-FF44-9609-AE116F9EAD02}"/>
   </bookViews>
   <sheets>
     <sheet name="material" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,12 @@
     <sheet name="town" sheetId="7" r:id="rId5"/>
     <sheet name="desert" sheetId="6" r:id="rId6"/>
     <sheet name="title" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
-    <sheet name="level_cal" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
+    <sheet name="level_cal" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -140,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,8 +158,18 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Stick Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Stick Regular"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +191,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,7 +241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,12 +263,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC5AEFF"/>
+      <color rgb="FFA0F1F1"/>
+      <color rgb="FF86E199"/>
+      <color rgb="FFFFAECD"/>
+      <color rgb="FF48FA6F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -9701,6 +9734,243 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>552238</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8537E5-6AF8-4C43-99B3-9005AEC94345}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-59000" contrast="12000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14668500" y="977900"/>
+          <a:ext cx="11601238" cy="6515100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14826958-1BED-374E-8633-248697101F0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1739900" y="2882900"/>
+          <a:ext cx="11087100" cy="3073400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:prstTxWarp prst="textArchUp">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 13254667"/>
+            </a:avLst>
+          </a:prstTxWarp>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="8800">
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C5AEFF"/>
+              </a:solidFill>
+              <a:latin typeface="Stick" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="Stick" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>マ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="8800">
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFAECD"/>
+              </a:solidFill>
+              <a:latin typeface="Stick" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="Stick" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>イ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="8800">
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="86E199"/>
+              </a:solidFill>
+              <a:latin typeface="Stick" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="Stick" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>ピ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="8800">
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="A0F1F1"/>
+              </a:solidFill>
+              <a:latin typeface="Stick" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="Stick" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>ク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="8800">
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Stick" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="Stick" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>チ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="8800">
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="A0F1F1"/>
+              </a:solidFill>
+              <a:latin typeface="Stick" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="Stick" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>ャ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="8800">
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFAECD"/>
+              </a:solidFill>
+              <a:latin typeface="Stick" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="Stick" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>ー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="8800">
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="86E199"/>
+              </a:solidFill>
+              <a:latin typeface="Stick" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="Stick" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>ズ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10268,6 +10538,4247 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B76B096-F1A5-704B-96A2-409EEA586FEC}">
+  <dimension ref="B2:O101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>40</v>
+      </c>
+      <c r="D3" s="4">
+        <v>40</v>
+      </c>
+      <c r="E3" s="4">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4">
+        <v>23</v>
+      </c>
+      <c r="G3" s="5">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>I4--I3</f>
+        <v>4</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <f>FLOOR(FLOOR(5*POWER(N3,1.2),1),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <f>FLOOR(POWER(C3,1.004)+1.1+1,1)</f>
+        <v>42</v>
+      </c>
+      <c r="D4" s="1">
+        <f>FLOOR(POWER(D3,1.004)+1.1+1,1)</f>
+        <v>42</v>
+      </c>
+      <c r="E4" s="1">
+        <f>FLOOR(POWER(E3,1.004)+1.1+1,1)</f>
+        <v>25</v>
+      </c>
+      <c r="F4" s="1">
+        <f>FLOOR(POWER(F3,1.004)+1.1+1,1)</f>
+        <v>25</v>
+      </c>
+      <c r="G4" s="1">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <f>FLOOR(POWER(B4,2.25+($L$5)/12),1)</f>
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J67" si="0">I5--I4</f>
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O67" si="1">FLOOR(FLOOR(5*POWER(N4,1.2),1),1)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:C68" si="2">FLOOR(POWER(C4,1.004)+1.1+1,1)</f>
+        <v>44</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:F8" si="3">FLOOR(POWER(D4,1.004)+1.1+1,1)</f>
+        <v>44</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="G5" s="1">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I68" si="4">FLOOR(POWER(B5,2.25+($L$5)/12),1)</f>
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="G6" s="1">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="G7" s="1">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="N7" s="1">
+        <v>5</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="G8" s="1">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="1">
+        <v>6</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ref="D9:D72" si="5">FLOOR(POWER(D8,1.004)+1.1+1,1)</f>
+        <v>52</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" ref="E9:E72" si="6">FLOOR(POWER(E8,1.004)+1.1+1,1)</f>
+        <v>35</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" ref="F9:F72" si="7">FLOOR(POWER(F8,1.004)+1.1+1,1)</f>
+        <v>35</v>
+      </c>
+      <c r="G9" s="1">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="L9" s="4">
+        <v>3</v>
+      </c>
+      <c r="N9" s="1">
+        <v>7</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="G10" s="1">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+      <c r="N10" s="1">
+        <v>8</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="G11" s="1">
+        <v>15</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>317</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="1">
+        <v>9</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="G12" s="1">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="4"/>
+        <v>177</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>397</v>
+      </c>
+      <c r="L12" s="4">
+        <v>29</v>
+      </c>
+      <c r="N12" s="1">
+        <v>10</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="G13" s="1">
+        <v>15</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>488</v>
+      </c>
+      <c r="N13" s="1">
+        <v>11</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="G14" s="1">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="4"/>
+        <v>268</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>588</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="1">
+        <v>12</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+      <c r="G15" s="1">
+        <v>16</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>699</v>
+      </c>
+      <c r="L15" s="4">
+        <v>15</v>
+      </c>
+      <c r="N15" s="1">
+        <v>13</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="G16" s="1">
+        <v>16</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="4"/>
+        <v>379</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>821</v>
+      </c>
+      <c r="N16" s="1">
+        <v>14</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="G17" s="1">
+        <v>16</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="4"/>
+        <v>442</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>954</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="1">
+        <v>15</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="7"/>
+        <v>53</v>
+      </c>
+      <c r="G18" s="1">
+        <v>16</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="4"/>
+        <v>512</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>1098</v>
+      </c>
+      <c r="L18" s="4">
+        <v>30</v>
+      </c>
+      <c r="N18" s="1">
+        <v>16</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="G19" s="1">
+        <v>16</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="4"/>
+        <v>586</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>1253</v>
+      </c>
+      <c r="N19" s="1">
+        <v>17</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="7"/>
+        <v>57</v>
+      </c>
+      <c r="G20" s="1">
+        <v>16</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="4"/>
+        <v>667</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>1420</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="1">
+        <v>18</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="G21" s="1">
+        <v>16</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="4"/>
+        <v>753</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>1598</v>
+      </c>
+      <c r="L21" s="3">
+        <f>FLOOR(L18*POWER(L12,0.8)/L15*(POWER(L9,0.05)/4+2)/3,1)</f>
+        <v>22</v>
+      </c>
+      <c r="N21" s="1">
+        <v>19</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="G22" s="1">
+        <v>16</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="4"/>
+        <v>845</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>1789</v>
+      </c>
+      <c r="N22" s="1">
+        <v>20</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="1"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="G23" s="1">
+        <v>16</v>
+      </c>
+      <c r="H23" s="1">
+        <v>4</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="4"/>
+        <v>944</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>1992</v>
+      </c>
+      <c r="N23" s="1">
+        <v>21</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="1"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="G24" s="1">
+        <v>16</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="4"/>
+        <v>1048</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>2206</v>
+      </c>
+      <c r="N24" s="1">
+        <v>22</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="G25" s="1">
+        <v>16</v>
+      </c>
+      <c r="H25" s="1">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="4"/>
+        <v>1158</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>2432</v>
+      </c>
+      <c r="N25" s="1">
+        <v>23</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="G26" s="1">
+        <v>16</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="4"/>
+        <v>1274</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>2671</v>
+      </c>
+      <c r="N26" s="1">
+        <v>24</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="1"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="5"/>
+        <v>104</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="G27" s="1">
+        <v>17</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="4"/>
+        <v>1397</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>2923</v>
+      </c>
+      <c r="N27" s="1">
+        <v>25</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="1"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="G28" s="1">
+        <v>17</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="4"/>
+        <v>1526</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>3187</v>
+      </c>
+      <c r="N28" s="1">
+        <v>26</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="1"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+      <c r="G29" s="1">
+        <v>17</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="4"/>
+        <v>1661</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>3464</v>
+      </c>
+      <c r="N29" s="1">
+        <v>27</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+      <c r="G30" s="1">
+        <v>17</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="4"/>
+        <v>1803</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>3754</v>
+      </c>
+      <c r="N30" s="1">
+        <v>28</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="1"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="1">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="G31" s="1">
+        <v>17</v>
+      </c>
+      <c r="H31" s="1">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="4"/>
+        <v>1951</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>4057</v>
+      </c>
+      <c r="N31" s="1">
+        <v>29</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="1"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="1">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="5"/>
+        <v>124</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="7"/>
+        <v>93</v>
+      </c>
+      <c r="G32" s="1">
+        <v>17</v>
+      </c>
+      <c r="H32" s="1">
+        <v>6</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="4"/>
+        <v>2106</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>4373</v>
+      </c>
+      <c r="N32" s="1">
+        <v>30</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="1"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="1">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="G33" s="1">
+        <v>17</v>
+      </c>
+      <c r="H33" s="1">
+        <v>6</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="4"/>
+        <v>2267</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>4702</v>
+      </c>
+      <c r="N33" s="1">
+        <v>31</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="1"/>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="G34" s="1">
+        <v>17</v>
+      </c>
+      <c r="H34" s="1">
+        <v>6</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="4"/>
+        <v>2435</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>5045</v>
+      </c>
+      <c r="N34" s="1">
+        <v>32</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="1">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="6"/>
+        <v>102</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+      <c r="G35" s="1">
+        <v>17</v>
+      </c>
+      <c r="H35" s="1">
+        <v>6</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="4"/>
+        <v>2610</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>5401</v>
+      </c>
+      <c r="N35" s="1">
+        <v>33</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="1"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="1">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="6"/>
+        <v>106</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="7"/>
+        <v>106</v>
+      </c>
+      <c r="G36" s="1">
+        <v>17</v>
+      </c>
+      <c r="H36" s="1">
+        <v>6</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="4"/>
+        <v>2791</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>5770</v>
+      </c>
+      <c r="N36" s="1">
+        <v>34</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="1"/>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="1">
+        <v>35</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="G37" s="1">
+        <v>17</v>
+      </c>
+      <c r="H37" s="1">
+        <v>6</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="4"/>
+        <v>2979</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>6153</v>
+      </c>
+      <c r="N37" s="1">
+        <v>35</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="1"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="1">
+        <v>36</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="5"/>
+        <v>148</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="6"/>
+        <v>114</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="7"/>
+        <v>114</v>
+      </c>
+      <c r="G38" s="1">
+        <v>18</v>
+      </c>
+      <c r="H38" s="1">
+        <v>6</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="4"/>
+        <v>3174</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>6550</v>
+      </c>
+      <c r="N38" s="1">
+        <v>36</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="1"/>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="1">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="5"/>
+        <v>153</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="6"/>
+        <v>118</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="7"/>
+        <v>118</v>
+      </c>
+      <c r="G39" s="1">
+        <v>18</v>
+      </c>
+      <c r="H39" s="1">
+        <v>7</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="4"/>
+        <v>3376</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>6961</v>
+      </c>
+      <c r="N39" s="1">
+        <v>37</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="1">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="5"/>
+        <v>158</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="6"/>
+        <v>122</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="7"/>
+        <v>122</v>
+      </c>
+      <c r="G40" s="1">
+        <v>18</v>
+      </c>
+      <c r="H40" s="1">
+        <v>7</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="4"/>
+        <v>3585</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>7385</v>
+      </c>
+      <c r="N40" s="1">
+        <v>38</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="1"/>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="1">
+        <v>39</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="5"/>
+        <v>163</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="6"/>
+        <v>126</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="7"/>
+        <v>126</v>
+      </c>
+      <c r="G41" s="1">
+        <v>18</v>
+      </c>
+      <c r="H41" s="1">
+        <v>7</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="4"/>
+        <v>3800</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>7823</v>
+      </c>
+      <c r="N41" s="1">
+        <v>39</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="1">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="7"/>
+        <v>130</v>
+      </c>
+      <c r="G42" s="1">
+        <v>18</v>
+      </c>
+      <c r="H42" s="1">
+        <v>7</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="4"/>
+        <v>4023</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>8276</v>
+      </c>
+      <c r="N42" s="1">
+        <v>40</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="1"/>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="1">
+        <v>41</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="5"/>
+        <v>173</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="6"/>
+        <v>134</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="7"/>
+        <v>134</v>
+      </c>
+      <c r="G43" s="1">
+        <v>18</v>
+      </c>
+      <c r="H43" s="1">
+        <v>7</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="4"/>
+        <v>4253</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>8743</v>
+      </c>
+      <c r="N43" s="1">
+        <v>41</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="1"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="1">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="5"/>
+        <v>178</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="6"/>
+        <v>138</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="7"/>
+        <v>138</v>
+      </c>
+      <c r="G44" s="1">
+        <v>18</v>
+      </c>
+      <c r="H44" s="1">
+        <v>7</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="4"/>
+        <v>4490</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>9224</v>
+      </c>
+      <c r="N44" s="1">
+        <v>42</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="1"/>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="1">
+        <v>43</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="5"/>
+        <v>183</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="6"/>
+        <v>142</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="7"/>
+        <v>142</v>
+      </c>
+      <c r="G45" s="1">
+        <v>18</v>
+      </c>
+      <c r="H45" s="1">
+        <v>7</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="4"/>
+        <v>4734</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>9720</v>
+      </c>
+      <c r="N45" s="1">
+        <v>43</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="1"/>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="1">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="5"/>
+        <v>188</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="6"/>
+        <v>146</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="7"/>
+        <v>146</v>
+      </c>
+      <c r="G46" s="1">
+        <v>18</v>
+      </c>
+      <c r="H46" s="1">
+        <v>7</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="4"/>
+        <v>4986</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>10230</v>
+      </c>
+      <c r="N46" s="1">
+        <v>44</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="1"/>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="1">
+        <v>45</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="5"/>
+        <v>194</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="6"/>
+        <v>151</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="7"/>
+        <v>151</v>
+      </c>
+      <c r="G47" s="1">
+        <v>18</v>
+      </c>
+      <c r="H47" s="1">
+        <v>7</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="4"/>
+        <v>5244</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>10754</v>
+      </c>
+      <c r="N47" s="1">
+        <v>45</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="1"/>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="1">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="6"/>
+        <v>156</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="7"/>
+        <v>156</v>
+      </c>
+      <c r="G48" s="1">
+        <v>18</v>
+      </c>
+      <c r="H48" s="1">
+        <v>7</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="4"/>
+        <v>5510</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>11293</v>
+      </c>
+      <c r="N48" s="1">
+        <v>46</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="1"/>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="1">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="2"/>
+        <v>206</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="5"/>
+        <v>206</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="6"/>
+        <v>161</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="7"/>
+        <v>161</v>
+      </c>
+      <c r="G49" s="1">
+        <v>19</v>
+      </c>
+      <c r="H49" s="1">
+        <v>7</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="4"/>
+        <v>5783</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>11847</v>
+      </c>
+      <c r="N49" s="1">
+        <v>47</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="1"/>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="1">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="2"/>
+        <v>212</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="5"/>
+        <v>212</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="6"/>
+        <v>166</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="7"/>
+        <v>166</v>
+      </c>
+      <c r="G50" s="1">
+        <v>19</v>
+      </c>
+      <c r="H50" s="1">
+        <v>8</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="4"/>
+        <v>6064</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>12416</v>
+      </c>
+      <c r="N50" s="1">
+        <v>48</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="1"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="1">
+        <v>49</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="2"/>
+        <v>218</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="5"/>
+        <v>218</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="6"/>
+        <v>171</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="7"/>
+        <v>171</v>
+      </c>
+      <c r="G51" s="1">
+        <v>19</v>
+      </c>
+      <c r="H51" s="1">
+        <v>8</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="4"/>
+        <v>6352</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>12999</v>
+      </c>
+      <c r="N51" s="1">
+        <v>49</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="1"/>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="1">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="5"/>
+        <v>224</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="6"/>
+        <v>176</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="7"/>
+        <v>176</v>
+      </c>
+      <c r="G52" s="1">
+        <v>19</v>
+      </c>
+      <c r="H52" s="1">
+        <v>8</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="4"/>
+        <v>6647</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>13597</v>
+      </c>
+      <c r="N52" s="1">
+        <v>50</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" si="1"/>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="1">
+        <v>51</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="2"/>
+        <v>231</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="5"/>
+        <v>231</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="6"/>
+        <v>181</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="7"/>
+        <v>181</v>
+      </c>
+      <c r="G53" s="1">
+        <v>19</v>
+      </c>
+      <c r="H53" s="1">
+        <v>8</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="4"/>
+        <v>6950</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>14211</v>
+      </c>
+      <c r="N53" s="1">
+        <v>51</v>
+      </c>
+      <c r="O53" s="1">
+        <f t="shared" si="1"/>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="1">
+        <v>52</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="5"/>
+        <v>238</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="6"/>
+        <v>186</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="7"/>
+        <v>186</v>
+      </c>
+      <c r="G54" s="1">
+        <v>19</v>
+      </c>
+      <c r="H54" s="1">
+        <v>8</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="4"/>
+        <v>7261</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>14840</v>
+      </c>
+      <c r="N54" s="1">
+        <v>52</v>
+      </c>
+      <c r="O54" s="1">
+        <f t="shared" si="1"/>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="1">
+        <v>53</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="2"/>
+        <v>245</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="5"/>
+        <v>245</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="6"/>
+        <v>192</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="7"/>
+        <v>192</v>
+      </c>
+      <c r="G55" s="1">
+        <v>19</v>
+      </c>
+      <c r="H55" s="1">
+        <v>8</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="4"/>
+        <v>7579</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>15483</v>
+      </c>
+      <c r="N55" s="1">
+        <v>53</v>
+      </c>
+      <c r="O55" s="1">
+        <f t="shared" si="1"/>
+        <v>586</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" s="1">
+        <v>54</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="5"/>
+        <v>252</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="6"/>
+        <v>198</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="7"/>
+        <v>198</v>
+      </c>
+      <c r="G56" s="1">
+        <v>19</v>
+      </c>
+      <c r="H56" s="1">
+        <v>8</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="4"/>
+        <v>7904</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>16141</v>
+      </c>
+      <c r="N56" s="1">
+        <v>54</v>
+      </c>
+      <c r="O56" s="1">
+        <f t="shared" si="1"/>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="B57" s="1">
+        <v>55</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="2"/>
+        <v>259</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="5"/>
+        <v>259</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="6"/>
+        <v>204</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="7"/>
+        <v>204</v>
+      </c>
+      <c r="G57" s="1">
+        <v>19</v>
+      </c>
+      <c r="H57" s="1">
+        <v>8</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="4"/>
+        <v>8237</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>16815</v>
+      </c>
+      <c r="N57" s="1">
+        <v>55</v>
+      </c>
+      <c r="O57" s="1">
+        <f t="shared" si="1"/>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="B58" s="1">
+        <v>56</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="2"/>
+        <v>266</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="5"/>
+        <v>266</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="G58" s="1">
+        <v>19</v>
+      </c>
+      <c r="H58" s="1">
+        <v>8</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="4"/>
+        <v>8578</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>17505</v>
+      </c>
+      <c r="N58" s="1">
+        <v>56</v>
+      </c>
+      <c r="O58" s="1">
+        <f t="shared" si="1"/>
+        <v>626</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="B59" s="1">
+        <v>57</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="2"/>
+        <v>274</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="5"/>
+        <v>274</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="6"/>
+        <v>216</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="7"/>
+        <v>216</v>
+      </c>
+      <c r="G59" s="1">
+        <v>19</v>
+      </c>
+      <c r="H59" s="1">
+        <v>8</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="4"/>
+        <v>8927</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>18210</v>
+      </c>
+      <c r="N59" s="1">
+        <v>57</v>
+      </c>
+      <c r="O59" s="1">
+        <f t="shared" si="1"/>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="B60" s="1">
+        <v>58</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="2"/>
+        <v>282</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="5"/>
+        <v>282</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="6"/>
+        <v>222</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="7"/>
+        <v>222</v>
+      </c>
+      <c r="G60" s="1">
+        <v>19</v>
+      </c>
+      <c r="H60" s="1">
+        <v>8</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="4"/>
+        <v>9283</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>18930</v>
+      </c>
+      <c r="N60" s="1">
+        <v>58</v>
+      </c>
+      <c r="O60" s="1">
+        <f t="shared" si="1"/>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="B61" s="1">
+        <v>59</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="5"/>
+        <v>290</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="6"/>
+        <v>228</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="7"/>
+        <v>228</v>
+      </c>
+      <c r="G61" s="1">
+        <v>19</v>
+      </c>
+      <c r="H61" s="1">
+        <v>8</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="4"/>
+        <v>9647</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>19666</v>
+      </c>
+      <c r="N61" s="1">
+        <v>59</v>
+      </c>
+      <c r="O61" s="1">
+        <f t="shared" si="1"/>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15">
+      <c r="B62" s="1">
+        <v>60</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="2"/>
+        <v>298</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="5"/>
+        <v>298</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="6"/>
+        <v>235</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="7"/>
+        <v>235</v>
+      </c>
+      <c r="G62" s="1">
+        <v>20</v>
+      </c>
+      <c r="H62" s="1">
+        <v>9</v>
+      </c>
+      <c r="I62" s="1">
+        <f t="shared" si="4"/>
+        <v>10019</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>20418</v>
+      </c>
+      <c r="N62" s="1">
+        <v>60</v>
+      </c>
+      <c r="O62" s="1">
+        <f t="shared" si="1"/>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15">
+      <c r="B63" s="1">
+        <v>61</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="2"/>
+        <v>306</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="5"/>
+        <v>306</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="6"/>
+        <v>242</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="7"/>
+        <v>242</v>
+      </c>
+      <c r="G63" s="1">
+        <v>20</v>
+      </c>
+      <c r="H63" s="1">
+        <v>9</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" si="4"/>
+        <v>10399</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>21185</v>
+      </c>
+      <c r="N63" s="1">
+        <v>61</v>
+      </c>
+      <c r="O63" s="1">
+        <f t="shared" si="1"/>
+        <v>694</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15">
+      <c r="B64" s="1">
+        <v>62</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="2"/>
+        <v>315</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="5"/>
+        <v>315</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="6"/>
+        <v>249</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="7"/>
+        <v>249</v>
+      </c>
+      <c r="G64" s="1">
+        <v>20</v>
+      </c>
+      <c r="H64" s="1">
+        <v>9</v>
+      </c>
+      <c r="I64" s="1">
+        <f t="shared" si="4"/>
+        <v>10786</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>21967</v>
+      </c>
+      <c r="N64" s="1">
+        <v>62</v>
+      </c>
+      <c r="O64" s="1">
+        <f t="shared" si="1"/>
+        <v>707</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15">
+      <c r="B65" s="1">
+        <v>63</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="5"/>
+        <v>324</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="6"/>
+        <v>256</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="7"/>
+        <v>256</v>
+      </c>
+      <c r="G65" s="1">
+        <v>20</v>
+      </c>
+      <c r="H65" s="1">
+        <v>9</v>
+      </c>
+      <c r="I65" s="1">
+        <f t="shared" si="4"/>
+        <v>11181</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>22766</v>
+      </c>
+      <c r="N65" s="1">
+        <v>63</v>
+      </c>
+      <c r="O65" s="1">
+        <f t="shared" si="1"/>
+        <v>721</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15">
+      <c r="B66" s="1">
+        <v>64</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="5"/>
+        <v>333</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" si="6"/>
+        <v>263</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="7"/>
+        <v>263</v>
+      </c>
+      <c r="G66" s="1">
+        <v>20</v>
+      </c>
+      <c r="H66" s="1">
+        <v>9</v>
+      </c>
+      <c r="I66" s="1">
+        <f t="shared" si="4"/>
+        <v>11585</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>23581</v>
+      </c>
+      <c r="N66" s="1">
+        <v>64</v>
+      </c>
+      <c r="O66" s="1">
+        <f t="shared" si="1"/>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15">
+      <c r="B67" s="1">
+        <v>65</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="2"/>
+        <v>342</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="5"/>
+        <v>342</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" si="6"/>
+        <v>271</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="7"/>
+        <v>271</v>
+      </c>
+      <c r="G67" s="1">
+        <v>20</v>
+      </c>
+      <c r="H67" s="1">
+        <v>9</v>
+      </c>
+      <c r="I67" s="1">
+        <f t="shared" si="4"/>
+        <v>11996</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="0"/>
+        <v>24411</v>
+      </c>
+      <c r="N67" s="1">
+        <v>65</v>
+      </c>
+      <c r="O67" s="1">
+        <f t="shared" si="1"/>
+        <v>748</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15">
+      <c r="B68" s="1">
+        <v>66</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="2"/>
+        <v>352</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="5"/>
+        <v>352</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="7"/>
+        <v>279</v>
+      </c>
+      <c r="G68" s="1">
+        <v>20</v>
+      </c>
+      <c r="H68" s="1">
+        <v>9</v>
+      </c>
+      <c r="I68" s="1">
+        <f t="shared" si="4"/>
+        <v>12415</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68:J101" si="8">I69--I68</f>
+        <v>25258</v>
+      </c>
+      <c r="N68" s="1">
+        <v>66</v>
+      </c>
+      <c r="O68" s="1">
+        <f t="shared" ref="O68:O100" si="9">FLOOR(FLOOR(5*POWER(N68,1.2),1),1)</f>
+        <v>762</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15">
+      <c r="B69" s="1">
+        <v>67</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" ref="C69:C101" si="10">FLOOR(POWER(C68,1.004)+1.1+1,1)</f>
+        <v>362</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="5"/>
+        <v>362</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" si="6"/>
+        <v>287</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="7"/>
+        <v>287</v>
+      </c>
+      <c r="G69" s="1">
+        <v>20</v>
+      </c>
+      <c r="H69" s="1">
+        <v>9</v>
+      </c>
+      <c r="I69" s="1">
+        <f t="shared" ref="I69:I101" si="11">FLOOR(POWER(B69,2.25+($L$5)/12),1)</f>
+        <v>12843</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="8"/>
+        <v>26121</v>
+      </c>
+      <c r="N69" s="1">
+        <v>67</v>
+      </c>
+      <c r="O69" s="1">
+        <f t="shared" si="9"/>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15">
+      <c r="B70" s="1">
+        <v>68</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="10"/>
+        <v>372</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="5"/>
+        <v>372</v>
+      </c>
+      <c r="E70" s="1">
+        <f t="shared" si="6"/>
+        <v>295</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="7"/>
+        <v>295</v>
+      </c>
+      <c r="G70" s="1">
+        <v>20</v>
+      </c>
+      <c r="H70" s="1">
+        <v>9</v>
+      </c>
+      <c r="I70" s="1">
+        <f t="shared" si="11"/>
+        <v>13278</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="8"/>
+        <v>26999</v>
+      </c>
+      <c r="N70" s="1">
+        <v>68</v>
+      </c>
+      <c r="O70" s="1">
+        <f t="shared" si="9"/>
+        <v>790</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15">
+      <c r="B71" s="1">
+        <v>69</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="10"/>
+        <v>383</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="5"/>
+        <v>383</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" si="6"/>
+        <v>303</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="7"/>
+        <v>303</v>
+      </c>
+      <c r="G71" s="1">
+        <v>20</v>
+      </c>
+      <c r="H71" s="1">
+        <v>9</v>
+      </c>
+      <c r="I71" s="1">
+        <f t="shared" si="11"/>
+        <v>13721</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="8"/>
+        <v>27894</v>
+      </c>
+      <c r="N71" s="1">
+        <v>69</v>
+      </c>
+      <c r="O71" s="1">
+        <f t="shared" si="9"/>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15">
+      <c r="B72" s="1">
+        <v>70</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="10"/>
+        <v>394</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="5"/>
+        <v>394</v>
+      </c>
+      <c r="E72" s="1">
+        <f t="shared" si="6"/>
+        <v>312</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="7"/>
+        <v>312</v>
+      </c>
+      <c r="G72" s="1">
+        <v>20</v>
+      </c>
+      <c r="H72" s="1">
+        <v>9</v>
+      </c>
+      <c r="I72" s="1">
+        <f t="shared" si="11"/>
+        <v>14173</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="8"/>
+        <v>28805</v>
+      </c>
+      <c r="N72" s="1">
+        <v>70</v>
+      </c>
+      <c r="O72" s="1">
+        <f t="shared" si="9"/>
+        <v>818</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15">
+      <c r="B73" s="1">
+        <v>71</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="10"/>
+        <v>405</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" ref="D73:D101" si="12">FLOOR(POWER(D72,1.004)+1.1+1,1)</f>
+        <v>405</v>
+      </c>
+      <c r="E73" s="1">
+        <f t="shared" ref="E73:E101" si="13">FLOOR(POWER(E72,1.004)+1.1+1,1)</f>
+        <v>321</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" ref="F73:F101" si="14">FLOOR(POWER(F72,1.004)+1.1+1,1)</f>
+        <v>321</v>
+      </c>
+      <c r="G73" s="1">
+        <v>20</v>
+      </c>
+      <c r="H73" s="1">
+        <v>9</v>
+      </c>
+      <c r="I73" s="1">
+        <f t="shared" si="11"/>
+        <v>14632</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="8"/>
+        <v>29732</v>
+      </c>
+      <c r="N73" s="1">
+        <v>71</v>
+      </c>
+      <c r="O73" s="1">
+        <f t="shared" si="9"/>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15">
+      <c r="B74" s="1">
+        <v>72</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="10"/>
+        <v>416</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="12"/>
+        <v>416</v>
+      </c>
+      <c r="E74" s="1">
+        <f t="shared" si="13"/>
+        <v>330</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="14"/>
+        <v>330</v>
+      </c>
+      <c r="G74" s="1">
+        <v>20</v>
+      </c>
+      <c r="H74" s="1">
+        <v>9</v>
+      </c>
+      <c r="I74" s="1">
+        <f t="shared" si="11"/>
+        <v>15100</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="8"/>
+        <v>30676</v>
+      </c>
+      <c r="N74" s="1">
+        <v>72</v>
+      </c>
+      <c r="O74" s="1">
+        <f t="shared" si="9"/>
+        <v>846</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15">
+      <c r="B75" s="1">
+        <v>73</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="10"/>
+        <v>428</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="12"/>
+        <v>428</v>
+      </c>
+      <c r="E75" s="1">
+        <f t="shared" si="13"/>
+        <v>339</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="14"/>
+        <v>339</v>
+      </c>
+      <c r="G75" s="1">
+        <v>21</v>
+      </c>
+      <c r="H75" s="1">
+        <v>9</v>
+      </c>
+      <c r="I75" s="1">
+        <f t="shared" si="11"/>
+        <v>15576</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="8"/>
+        <v>31636</v>
+      </c>
+      <c r="N75" s="1">
+        <v>73</v>
+      </c>
+      <c r="O75" s="1">
+        <f t="shared" si="9"/>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15">
+      <c r="B76" s="1">
+        <v>74</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="10"/>
+        <v>440</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="12"/>
+        <v>440</v>
+      </c>
+      <c r="E76" s="1">
+        <f t="shared" si="13"/>
+        <v>349</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="14"/>
+        <v>349</v>
+      </c>
+      <c r="G76" s="1">
+        <v>21</v>
+      </c>
+      <c r="H76" s="1">
+        <v>9</v>
+      </c>
+      <c r="I76" s="1">
+        <f t="shared" si="11"/>
+        <v>16060</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="8"/>
+        <v>32613</v>
+      </c>
+      <c r="N76" s="1">
+        <v>74</v>
+      </c>
+      <c r="O76" s="1">
+        <f t="shared" si="9"/>
+        <v>875</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15">
+      <c r="B77" s="1">
+        <v>75</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="10"/>
+        <v>452</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="12"/>
+        <v>452</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" si="13"/>
+        <v>359</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="14"/>
+        <v>359</v>
+      </c>
+      <c r="G77" s="1">
+        <v>21</v>
+      </c>
+      <c r="H77" s="1">
+        <v>9</v>
+      </c>
+      <c r="I77" s="1">
+        <f t="shared" si="11"/>
+        <v>16553</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="8"/>
+        <v>33607</v>
+      </c>
+      <c r="N77" s="1">
+        <v>75</v>
+      </c>
+      <c r="O77" s="1">
+        <f t="shared" si="9"/>
+        <v>889</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15">
+      <c r="B78" s="1">
+        <v>76</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="10"/>
+        <v>465</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="12"/>
+        <v>465</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" si="13"/>
+        <v>369</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="14"/>
+        <v>369</v>
+      </c>
+      <c r="G78" s="1">
+        <v>21</v>
+      </c>
+      <c r="H78" s="1">
+        <v>9</v>
+      </c>
+      <c r="I78" s="1">
+        <f t="shared" si="11"/>
+        <v>17054</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="8"/>
+        <v>34617</v>
+      </c>
+      <c r="N78" s="1">
+        <v>76</v>
+      </c>
+      <c r="O78" s="1">
+        <f t="shared" si="9"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15">
+      <c r="B79" s="1">
+        <v>77</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="10"/>
+        <v>478</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="12"/>
+        <v>478</v>
+      </c>
+      <c r="E79" s="1">
+        <f t="shared" si="13"/>
+        <v>379</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="14"/>
+        <v>379</v>
+      </c>
+      <c r="G79" s="1">
+        <v>21</v>
+      </c>
+      <c r="H79" s="1">
+        <v>10</v>
+      </c>
+      <c r="I79" s="1">
+        <f t="shared" si="11"/>
+        <v>17563</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="8"/>
+        <v>35643</v>
+      </c>
+      <c r="N79" s="1">
+        <v>77</v>
+      </c>
+      <c r="O79" s="1">
+        <f t="shared" si="9"/>
+        <v>917</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15">
+      <c r="B80" s="1">
+        <v>78</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="10"/>
+        <v>492</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="12"/>
+        <v>492</v>
+      </c>
+      <c r="E80" s="1">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="14"/>
+        <v>390</v>
+      </c>
+      <c r="G80" s="1">
+        <v>21</v>
+      </c>
+      <c r="H80" s="1">
+        <v>10</v>
+      </c>
+      <c r="I80" s="1">
+        <f t="shared" si="11"/>
+        <v>18080</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="8"/>
+        <v>36686</v>
+      </c>
+      <c r="N80" s="1">
+        <v>78</v>
+      </c>
+      <c r="O80" s="1">
+        <f t="shared" si="9"/>
+        <v>932</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15">
+      <c r="B81" s="1">
+        <v>79</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="10"/>
+        <v>506</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="12"/>
+        <v>506</v>
+      </c>
+      <c r="E81" s="1">
+        <f t="shared" si="13"/>
+        <v>401</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="14"/>
+        <v>401</v>
+      </c>
+      <c r="G81" s="1">
+        <v>21</v>
+      </c>
+      <c r="H81" s="1">
+        <v>10</v>
+      </c>
+      <c r="I81" s="1">
+        <f t="shared" si="11"/>
+        <v>18606</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="8"/>
+        <v>37746</v>
+      </c>
+      <c r="N81" s="1">
+        <v>79</v>
+      </c>
+      <c r="O81" s="1">
+        <f t="shared" si="9"/>
+        <v>946</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15">
+      <c r="B82" s="1">
+        <v>80</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="10"/>
+        <v>520</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="12"/>
+        <v>520</v>
+      </c>
+      <c r="E82" s="1">
+        <f t="shared" si="13"/>
+        <v>412</v>
+      </c>
+      <c r="F82" s="1">
+        <f t="shared" si="14"/>
+        <v>412</v>
+      </c>
+      <c r="G82" s="1">
+        <v>21</v>
+      </c>
+      <c r="H82" s="1">
+        <v>10</v>
+      </c>
+      <c r="I82" s="1">
+        <f t="shared" si="11"/>
+        <v>19140</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="8"/>
+        <v>38823</v>
+      </c>
+      <c r="N82" s="1">
+        <v>80</v>
+      </c>
+      <c r="O82" s="1">
+        <f t="shared" si="9"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15">
+      <c r="B83" s="1">
+        <v>81</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="10"/>
+        <v>535</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="12"/>
+        <v>535</v>
+      </c>
+      <c r="E83" s="1">
+        <f t="shared" si="13"/>
+        <v>424</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" si="14"/>
+        <v>424</v>
+      </c>
+      <c r="G83" s="1">
+        <v>21</v>
+      </c>
+      <c r="H83" s="1">
+        <v>10</v>
+      </c>
+      <c r="I83" s="1">
+        <f t="shared" si="11"/>
+        <v>19683</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="8"/>
+        <v>39916</v>
+      </c>
+      <c r="N83" s="1">
+        <v>81</v>
+      </c>
+      <c r="O83" s="1">
+        <f t="shared" si="9"/>
+        <v>975</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15">
+      <c r="B84" s="1">
+        <v>82</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="10"/>
+        <v>550</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="12"/>
+        <v>550</v>
+      </c>
+      <c r="E84" s="1">
+        <f t="shared" si="13"/>
+        <v>436</v>
+      </c>
+      <c r="F84" s="1">
+        <f t="shared" si="14"/>
+        <v>436</v>
+      </c>
+      <c r="G84" s="1">
+        <v>21</v>
+      </c>
+      <c r="H84" s="1">
+        <v>10</v>
+      </c>
+      <c r="I84" s="1">
+        <f t="shared" si="11"/>
+        <v>20233</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="8"/>
+        <v>41026</v>
+      </c>
+      <c r="N84" s="1">
+        <v>82</v>
+      </c>
+      <c r="O84" s="1">
+        <f t="shared" si="9"/>
+        <v>989</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15">
+      <c r="B85" s="1">
+        <v>83</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="10"/>
+        <v>566</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="12"/>
+        <v>566</v>
+      </c>
+      <c r="E85" s="1">
+        <f t="shared" si="13"/>
+        <v>448</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" si="14"/>
+        <v>448</v>
+      </c>
+      <c r="G85" s="1">
+        <v>21</v>
+      </c>
+      <c r="H85" s="1">
+        <v>10</v>
+      </c>
+      <c r="I85" s="1">
+        <f t="shared" si="11"/>
+        <v>20793</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="8"/>
+        <v>42154</v>
+      </c>
+      <c r="N85" s="1">
+        <v>83</v>
+      </c>
+      <c r="O85" s="1">
+        <f t="shared" si="9"/>
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15">
+      <c r="B86" s="1">
+        <v>84</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="10"/>
+        <v>582</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="12"/>
+        <v>582</v>
+      </c>
+      <c r="E86" s="1">
+        <f t="shared" si="13"/>
+        <v>461</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="shared" si="14"/>
+        <v>461</v>
+      </c>
+      <c r="G86" s="1">
+        <v>21</v>
+      </c>
+      <c r="H86" s="1">
+        <v>10</v>
+      </c>
+      <c r="I86" s="1">
+        <f t="shared" si="11"/>
+        <v>21361</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="8"/>
+        <v>43298</v>
+      </c>
+      <c r="N86" s="1">
+        <v>84</v>
+      </c>
+      <c r="O86" s="1">
+        <f t="shared" si="9"/>
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15">
+      <c r="B87" s="1">
+        <v>85</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="10"/>
+        <v>599</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="12"/>
+        <v>599</v>
+      </c>
+      <c r="E87" s="1">
+        <f t="shared" si="13"/>
+        <v>474</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" si="14"/>
+        <v>474</v>
+      </c>
+      <c r="G87" s="1">
+        <v>22</v>
+      </c>
+      <c r="H87" s="1">
+        <v>10</v>
+      </c>
+      <c r="I87" s="1">
+        <f t="shared" si="11"/>
+        <v>21937</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="8"/>
+        <v>44459</v>
+      </c>
+      <c r="N87" s="1">
+        <v>85</v>
+      </c>
+      <c r="O87" s="1">
+        <f t="shared" si="9"/>
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15">
+      <c r="B88" s="1">
+        <v>86</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="10"/>
+        <v>616</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="12"/>
+        <v>616</v>
+      </c>
+      <c r="E88" s="1">
+        <f t="shared" si="13"/>
+        <v>487</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" si="14"/>
+        <v>487</v>
+      </c>
+      <c r="G88" s="1">
+        <v>22</v>
+      </c>
+      <c r="H88" s="1">
+        <v>10</v>
+      </c>
+      <c r="I88" s="1">
+        <f t="shared" si="11"/>
+        <v>22522</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="8"/>
+        <v>45638</v>
+      </c>
+      <c r="N88" s="1">
+        <v>86</v>
+      </c>
+      <c r="O88" s="1">
+        <f t="shared" si="9"/>
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15">
+      <c r="B89" s="1">
+        <v>87</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="10"/>
+        <v>634</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="12"/>
+        <v>634</v>
+      </c>
+      <c r="E89" s="1">
+        <f t="shared" si="13"/>
+        <v>501</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="14"/>
+        <v>501</v>
+      </c>
+      <c r="G89" s="1">
+        <v>22</v>
+      </c>
+      <c r="H89" s="1">
+        <v>10</v>
+      </c>
+      <c r="I89" s="1">
+        <f t="shared" si="11"/>
+        <v>23116</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="8"/>
+        <v>46834</v>
+      </c>
+      <c r="N89" s="1">
+        <v>87</v>
+      </c>
+      <c r="O89" s="1">
+        <f t="shared" si="9"/>
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15">
+      <c r="B90" s="1">
+        <v>88</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="10"/>
+        <v>652</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="12"/>
+        <v>652</v>
+      </c>
+      <c r="E90" s="1">
+        <f t="shared" si="13"/>
+        <v>515</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="14"/>
+        <v>515</v>
+      </c>
+      <c r="G90" s="1">
+        <v>22</v>
+      </c>
+      <c r="H90" s="1">
+        <v>10</v>
+      </c>
+      <c r="I90" s="1">
+        <f t="shared" si="11"/>
+        <v>23718</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="8"/>
+        <v>48047</v>
+      </c>
+      <c r="N90" s="1">
+        <v>88</v>
+      </c>
+      <c r="O90" s="1">
+        <f t="shared" si="9"/>
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15">
+      <c r="B91" s="1">
+        <v>89</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="10"/>
+        <v>671</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="12"/>
+        <v>671</v>
+      </c>
+      <c r="E91" s="1">
+        <f t="shared" si="13"/>
+        <v>530</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="14"/>
+        <v>530</v>
+      </c>
+      <c r="G91" s="1">
+        <v>22</v>
+      </c>
+      <c r="H91" s="1">
+        <v>10</v>
+      </c>
+      <c r="I91" s="1">
+        <f t="shared" si="11"/>
+        <v>24329</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="8"/>
+        <v>49277</v>
+      </c>
+      <c r="N91" s="1">
+        <v>89</v>
+      </c>
+      <c r="O91" s="1">
+        <f t="shared" si="9"/>
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15">
+      <c r="B92" s="1">
+        <v>90</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="10"/>
+        <v>690</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="12"/>
+        <v>690</v>
+      </c>
+      <c r="E92" s="1">
+        <f t="shared" si="13"/>
+        <v>545</v>
+      </c>
+      <c r="F92" s="1">
+        <f t="shared" si="14"/>
+        <v>545</v>
+      </c>
+      <c r="G92" s="1">
+        <v>22</v>
+      </c>
+      <c r="H92" s="1">
+        <v>10</v>
+      </c>
+      <c r="I92" s="1">
+        <f t="shared" si="11"/>
+        <v>24948</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="8"/>
+        <v>50524</v>
+      </c>
+      <c r="N92" s="1">
+        <v>90</v>
+      </c>
+      <c r="O92" s="1">
+        <f t="shared" si="9"/>
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15">
+      <c r="B93" s="1">
+        <v>91</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="10"/>
+        <v>710</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="12"/>
+        <v>710</v>
+      </c>
+      <c r="E93" s="1">
+        <f t="shared" si="13"/>
+        <v>561</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" si="14"/>
+        <v>561</v>
+      </c>
+      <c r="G93" s="1">
+        <v>22</v>
+      </c>
+      <c r="H93" s="1">
+        <v>10</v>
+      </c>
+      <c r="I93" s="1">
+        <f t="shared" si="11"/>
+        <v>25576</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="8"/>
+        <v>51789</v>
+      </c>
+      <c r="N93" s="1">
+        <v>91</v>
+      </c>
+      <c r="O93" s="1">
+        <f t="shared" si="9"/>
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15">
+      <c r="B94" s="1">
+        <v>92</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="10"/>
+        <v>730</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="12"/>
+        <v>730</v>
+      </c>
+      <c r="E94" s="1">
+        <f t="shared" si="13"/>
+        <v>577</v>
+      </c>
+      <c r="F94" s="1">
+        <f t="shared" si="14"/>
+        <v>577</v>
+      </c>
+      <c r="G94" s="1">
+        <v>22</v>
+      </c>
+      <c r="H94" s="1">
+        <v>10</v>
+      </c>
+      <c r="I94" s="1">
+        <f t="shared" si="11"/>
+        <v>26213</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="8"/>
+        <v>53071</v>
+      </c>
+      <c r="N94" s="1">
+        <v>92</v>
+      </c>
+      <c r="O94" s="1">
+        <f t="shared" si="9"/>
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15">
+      <c r="B95" s="1">
+        <v>93</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="10"/>
+        <v>751</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="12"/>
+        <v>751</v>
+      </c>
+      <c r="E95" s="1">
+        <f t="shared" si="13"/>
+        <v>593</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" si="14"/>
+        <v>593</v>
+      </c>
+      <c r="G95" s="1">
+        <v>22</v>
+      </c>
+      <c r="H95" s="1">
+        <v>10</v>
+      </c>
+      <c r="I95" s="1">
+        <f t="shared" si="11"/>
+        <v>26858</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="8"/>
+        <v>54370</v>
+      </c>
+      <c r="N95" s="1">
+        <v>93</v>
+      </c>
+      <c r="O95" s="1">
+        <f t="shared" si="9"/>
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15">
+      <c r="B96" s="1">
+        <v>94</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="10"/>
+        <v>773</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="12"/>
+        <v>773</v>
+      </c>
+      <c r="E96" s="1">
+        <f t="shared" si="13"/>
+        <v>610</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="14"/>
+        <v>610</v>
+      </c>
+      <c r="G96" s="1">
+        <v>22</v>
+      </c>
+      <c r="H96" s="1">
+        <v>10</v>
+      </c>
+      <c r="I96" s="1">
+        <f t="shared" si="11"/>
+        <v>27512</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="8"/>
+        <v>55687</v>
+      </c>
+      <c r="N96" s="1">
+        <v>94</v>
+      </c>
+      <c r="O96" s="1">
+        <f t="shared" si="9"/>
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15">
+      <c r="B97" s="1">
+        <v>95</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="10"/>
+        <v>795</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="12"/>
+        <v>795</v>
+      </c>
+      <c r="E97" s="1">
+        <f t="shared" si="13"/>
+        <v>627</v>
+      </c>
+      <c r="F97" s="1">
+        <f t="shared" si="14"/>
+        <v>627</v>
+      </c>
+      <c r="G97" s="1">
+        <v>23</v>
+      </c>
+      <c r="H97" s="1">
+        <v>10</v>
+      </c>
+      <c r="I97" s="1">
+        <f t="shared" si="11"/>
+        <v>28175</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="8"/>
+        <v>57022</v>
+      </c>
+      <c r="N97" s="1">
+        <v>95</v>
+      </c>
+      <c r="O97" s="1">
+        <f t="shared" si="9"/>
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15">
+      <c r="B98" s="1">
+        <v>96</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="10"/>
+        <v>818</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="12"/>
+        <v>818</v>
+      </c>
+      <c r="E98" s="1">
+        <f t="shared" si="13"/>
+        <v>645</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" si="14"/>
+        <v>645</v>
+      </c>
+      <c r="G98" s="1">
+        <v>23</v>
+      </c>
+      <c r="H98" s="1">
+        <v>10</v>
+      </c>
+      <c r="I98" s="1">
+        <f t="shared" si="11"/>
+        <v>28847</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="8"/>
+        <v>58375</v>
+      </c>
+      <c r="N98" s="1">
+        <v>96</v>
+      </c>
+      <c r="O98" s="1">
+        <f t="shared" si="9"/>
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15">
+      <c r="B99" s="1">
+        <v>97</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="10"/>
+        <v>842</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="12"/>
+        <v>842</v>
+      </c>
+      <c r="E99" s="1">
+        <f t="shared" si="13"/>
+        <v>664</v>
+      </c>
+      <c r="F99" s="1">
+        <f t="shared" si="14"/>
+        <v>664</v>
+      </c>
+      <c r="G99" s="1">
+        <v>23</v>
+      </c>
+      <c r="H99" s="1">
+        <v>10</v>
+      </c>
+      <c r="I99" s="1">
+        <f t="shared" si="11"/>
+        <v>29528</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="8"/>
+        <v>59745</v>
+      </c>
+      <c r="N99" s="1">
+        <v>97</v>
+      </c>
+      <c r="O99" s="1">
+        <f t="shared" si="9"/>
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15">
+      <c r="B100" s="1">
+        <v>98</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="10"/>
+        <v>867</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="12"/>
+        <v>867</v>
+      </c>
+      <c r="E100" s="1">
+        <f t="shared" si="13"/>
+        <v>683</v>
+      </c>
+      <c r="F100" s="1">
+        <f t="shared" si="14"/>
+        <v>683</v>
+      </c>
+      <c r="G100" s="1">
+        <v>23</v>
+      </c>
+      <c r="H100" s="1">
+        <v>10</v>
+      </c>
+      <c r="I100" s="1">
+        <f t="shared" si="11"/>
+        <v>30217</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="8"/>
+        <v>61132</v>
+      </c>
+      <c r="N100" s="1">
+        <v>98</v>
+      </c>
+      <c r="O100" s="1">
+        <f t="shared" si="9"/>
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15">
+      <c r="B101" s="1">
+        <v>99</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="10"/>
+        <v>892</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="12"/>
+        <v>892</v>
+      </c>
+      <c r="E101" s="1">
+        <f t="shared" si="13"/>
+        <v>703</v>
+      </c>
+      <c r="F101" s="1">
+        <f t="shared" si="14"/>
+        <v>703</v>
+      </c>
+      <c r="G101" s="1">
+        <v>23</v>
+      </c>
+      <c r="H101" s="1">
+        <v>10</v>
+      </c>
+      <c r="I101" s="1">
+        <f t="shared" si="11"/>
+        <v>30915</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="8"/>
+        <v>30915</v>
+      </c>
+      <c r="N101" s="1">
+        <v>99</v>
+      </c>
+      <c r="O101" s="1">
+        <f>FLOOR(FLOOR(5*POWER(N101,1.2),1),1)</f>
+        <v>1240</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7877633-74E2-BA40-B0D9-78E8C4C95323}">
   <dimension ref="A1"/>
@@ -10364,8 +14875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F148419D-2102-1040-8182-CC8C5431FA95}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -10377,6 +14888,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C591C39-A2B9-1A47-98D8-496EBE83277D}">
+  <dimension ref="C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="16384" width="10.7109375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:3">
+      <c r="C5" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E8738C-AC26-3645-88A8-361E23E6525D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10390,4245 +14924,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B76B096-F1A5-704B-96A2-409EEA586FEC}">
-  <dimension ref="B2:O101"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>40</v>
-      </c>
-      <c r="D3" s="4">
-        <v>40</v>
-      </c>
-      <c r="E3" s="4">
-        <v>23</v>
-      </c>
-      <c r="F3" s="4">
-        <v>23</v>
-      </c>
-      <c r="G3" s="5">
-        <v>15</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f>I4--I3</f>
-        <v>4</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1">
-        <f>FLOOR(FLOOR(5*POWER(N3,1.2),1),1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <f>FLOOR(POWER(C3,1.004)+1.1+1,1)</f>
-        <v>42</v>
-      </c>
-      <c r="D4" s="1">
-        <f>FLOOR(POWER(D3,1.004)+1.1+1,1)</f>
-        <v>42</v>
-      </c>
-      <c r="E4" s="1">
-        <f>FLOOR(POWER(E3,1.004)+1.1+1,1)</f>
-        <v>25</v>
-      </c>
-      <c r="F4" s="1">
-        <f>FLOOR(POWER(F3,1.004)+1.1+1,1)</f>
-        <v>25</v>
-      </c>
-      <c r="G4" s="1">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1">
-        <f>FLOOR(POWER(B4,2.25+($L$5)/12),1)</f>
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J67" si="0">I5--I4</f>
-        <v>15</v>
-      </c>
-      <c r="L4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="1">
-        <v>2</v>
-      </c>
-      <c r="O4" s="1">
-        <f t="shared" ref="O4:O67" si="1">FLOOR(FLOOR(5*POWER(N4,1.2),1),1)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" ref="C5:C68" si="2">FLOOR(POWER(C4,1.004)+1.1+1,1)</f>
-        <v>44</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:D8" si="3">FLOOR(POWER(D4,1.004)+1.1+1,1)</f>
-        <v>44</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" ref="E5:E8" si="4">FLOOR(POWER(E4,1.004)+1.1+1,1)</f>
-        <v>27</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" ref="F5:F8" si="5">FLOOR(POWER(F4,1.004)+1.1+1,1)</f>
-        <v>27</v>
-      </c>
-      <c r="G5" s="1">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" ref="I5:I68" si="6">FLOOR(POWER(B5,2.25+($L$5)/12),1)</f>
-        <v>11</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>3</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="F6" s="1">
-        <f>FLOOR(POWER(F5,1.004)+1.1+1,1)</f>
-        <v>29</v>
-      </c>
-      <c r="G6" s="1">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="N6" s="1">
-        <v>4</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="G7" s="1">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="N7" s="1">
-        <v>5</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="G8" s="1">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="6"/>
-        <v>56</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="1">
-        <v>6</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" ref="D9:D72" si="7">FLOOR(POWER(D8,1.004)+1.1+1,1)</f>
-        <v>52</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" ref="E9:E72" si="8">FLOOR(POWER(E8,1.004)+1.1+1,1)</f>
-        <v>35</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" ref="F9:F72" si="9">FLOOR(POWER(F8,1.004)+1.1+1,1)</f>
-        <v>35</v>
-      </c>
-      <c r="G9" s="1">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1">
-        <v>3</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="6"/>
-        <v>79</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>186</v>
-      </c>
-      <c r="L9" s="4">
-        <v>3</v>
-      </c>
-      <c r="N9" s="1">
-        <v>7</v>
-      </c>
-      <c r="O9" s="1">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="8"/>
-        <v>37</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="9"/>
-        <v>37</v>
-      </c>
-      <c r="G10" s="1">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1">
-        <v>3</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="6"/>
-        <v>107</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>247</v>
-      </c>
-      <c r="N10" s="1">
-        <v>8</v>
-      </c>
-      <c r="O10" s="1">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="7"/>
-        <v>56</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="8"/>
-        <v>39</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="9"/>
-        <v>39</v>
-      </c>
-      <c r="G11" s="1">
-        <v>15</v>
-      </c>
-      <c r="H11" s="1">
-        <v>3</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="6"/>
-        <v>140</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>317</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="1">
-        <v>9</v>
-      </c>
-      <c r="O11" s="1">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="7"/>
-        <v>59</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="8"/>
-        <v>41</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="9"/>
-        <v>41</v>
-      </c>
-      <c r="G12" s="1">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1">
-        <v>3</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="6"/>
-        <v>177</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>397</v>
-      </c>
-      <c r="L12" s="4">
-        <v>29</v>
-      </c>
-      <c r="N12" s="1">
-        <v>10</v>
-      </c>
-      <c r="O12" s="1">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="1">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="7"/>
-        <v>62</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="8"/>
-        <v>43</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="9"/>
-        <v>43</v>
-      </c>
-      <c r="G13" s="1">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1">
-        <v>3</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="6"/>
-        <v>220</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>488</v>
-      </c>
-      <c r="N13" s="1">
-        <v>11</v>
-      </c>
-      <c r="O13" s="1">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="1">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="7"/>
-        <v>65</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="9"/>
-        <v>45</v>
-      </c>
-      <c r="G14" s="1">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1">
-        <v>3</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="6"/>
-        <v>268</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>588</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="1">
-        <v>12</v>
-      </c>
-      <c r="O14" s="1">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="1">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="7"/>
-        <v>68</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="8"/>
-        <v>47</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="9"/>
-        <v>47</v>
-      </c>
-      <c r="G15" s="1">
-        <v>16</v>
-      </c>
-      <c r="H15" s="1">
-        <v>3</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="6"/>
-        <v>320</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>699</v>
-      </c>
-      <c r="L15" s="4">
-        <v>15</v>
-      </c>
-      <c r="N15" s="1">
-        <v>13</v>
-      </c>
-      <c r="O15" s="1">
-        <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="1">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="7"/>
-        <v>71</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="8"/>
-        <v>49</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="9"/>
-        <v>49</v>
-      </c>
-      <c r="G16" s="1">
-        <v>16</v>
-      </c>
-      <c r="H16" s="1">
-        <v>3</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="6"/>
-        <v>379</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>821</v>
-      </c>
-      <c r="N16" s="1">
-        <v>14</v>
-      </c>
-      <c r="O16" s="1">
-        <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="1">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="7"/>
-        <v>74</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="8"/>
-        <v>51</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="9"/>
-        <v>51</v>
-      </c>
-      <c r="G17" s="1">
-        <v>16</v>
-      </c>
-      <c r="H17" s="1">
-        <v>4</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="6"/>
-        <v>442</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>954</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17" s="1">
-        <v>15</v>
-      </c>
-      <c r="O17" s="1">
-        <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="1">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="7"/>
-        <v>77</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="8"/>
-        <v>53</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="9"/>
-        <v>53</v>
-      </c>
-      <c r="G18" s="1">
-        <v>16</v>
-      </c>
-      <c r="H18" s="1">
-        <v>4</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="6"/>
-        <v>512</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="0"/>
-        <v>1098</v>
-      </c>
-      <c r="L18" s="4">
-        <v>30</v>
-      </c>
-      <c r="N18" s="1">
-        <v>16</v>
-      </c>
-      <c r="O18" s="1">
-        <f t="shared" si="1"/>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="1">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="7"/>
-        <v>80</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="8"/>
-        <v>55</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="9"/>
-        <v>55</v>
-      </c>
-      <c r="G19" s="1">
-        <v>16</v>
-      </c>
-      <c r="H19" s="1">
-        <v>4</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="6"/>
-        <v>586</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="0"/>
-        <v>1253</v>
-      </c>
-      <c r="N19" s="1">
-        <v>17</v>
-      </c>
-      <c r="O19" s="1">
-        <f t="shared" si="1"/>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="1">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="2"/>
-        <v>83</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="7"/>
-        <v>83</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="8"/>
-        <v>57</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="9"/>
-        <v>57</v>
-      </c>
-      <c r="G20" s="1">
-        <v>16</v>
-      </c>
-      <c r="H20" s="1">
-        <v>4</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="6"/>
-        <v>667</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="0"/>
-        <v>1420</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N20" s="1">
-        <v>18</v>
-      </c>
-      <c r="O20" s="1">
-        <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="1">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="2"/>
-        <v>86</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="7"/>
-        <v>86</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="8"/>
-        <v>60</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="G21" s="1">
-        <v>16</v>
-      </c>
-      <c r="H21" s="1">
-        <v>4</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="6"/>
-        <v>753</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="0"/>
-        <v>1598</v>
-      </c>
-      <c r="L21" s="3">
-        <f>FLOOR(L18*POWER(L12,0.8)/L15*(POWER(L9,0.05)/4+2)/3,1)</f>
-        <v>22</v>
-      </c>
-      <c r="N21" s="1">
-        <v>19</v>
-      </c>
-      <c r="O21" s="1">
-        <f t="shared" si="1"/>
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15">
-      <c r="B22" s="1">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="2"/>
-        <v>89</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="7"/>
-        <v>89</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="8"/>
-        <v>63</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="9"/>
-        <v>63</v>
-      </c>
-      <c r="G22" s="1">
-        <v>16</v>
-      </c>
-      <c r="H22" s="1">
-        <v>4</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" si="6"/>
-        <v>845</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="0"/>
-        <v>1789</v>
-      </c>
-      <c r="N22" s="1">
-        <v>20</v>
-      </c>
-      <c r="O22" s="1">
-        <f t="shared" si="1"/>
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15">
-      <c r="B23" s="1">
-        <v>21</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" si="2"/>
-        <v>92</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="7"/>
-        <v>92</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="8"/>
-        <v>66</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="9"/>
-        <v>66</v>
-      </c>
-      <c r="G23" s="1">
-        <v>16</v>
-      </c>
-      <c r="H23" s="1">
-        <v>4</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="6"/>
-        <v>944</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="0"/>
-        <v>1992</v>
-      </c>
-      <c r="N23" s="1">
-        <v>21</v>
-      </c>
-      <c r="O23" s="1">
-        <f t="shared" si="1"/>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15">
-      <c r="B24" s="1">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="7"/>
-        <v>95</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="8"/>
-        <v>69</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="9"/>
-        <v>69</v>
-      </c>
-      <c r="G24" s="1">
-        <v>16</v>
-      </c>
-      <c r="H24" s="1">
-        <v>4</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="6"/>
-        <v>1048</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="0"/>
-        <v>2206</v>
-      </c>
-      <c r="N24" s="1">
-        <v>22</v>
-      </c>
-      <c r="O24" s="1">
-        <f t="shared" si="1"/>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="B25" s="1">
-        <v>23</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="2"/>
-        <v>98</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="7"/>
-        <v>98</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="8"/>
-        <v>72</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="9"/>
-        <v>72</v>
-      </c>
-      <c r="G25" s="1">
-        <v>16</v>
-      </c>
-      <c r="H25" s="1">
-        <v>5</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" si="6"/>
-        <v>1158</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="0"/>
-        <v>2432</v>
-      </c>
-      <c r="N25" s="1">
-        <v>23</v>
-      </c>
-      <c r="O25" s="1">
-        <f t="shared" si="1"/>
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15">
-      <c r="B26" s="1">
-        <v>24</v>
-      </c>
-      <c r="C26" s="1">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="7"/>
-        <v>101</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="8"/>
-        <v>75</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" si="9"/>
-        <v>75</v>
-      </c>
-      <c r="G26" s="1">
-        <v>16</v>
-      </c>
-      <c r="H26" s="1">
-        <v>5</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" si="6"/>
-        <v>1274</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="0"/>
-        <v>2671</v>
-      </c>
-      <c r="N26" s="1">
-        <v>24</v>
-      </c>
-      <c r="O26" s="1">
-        <f t="shared" si="1"/>
-        <v>226</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15">
-      <c r="B27" s="1">
-        <v>25</v>
-      </c>
-      <c r="C27" s="1">
-        <f t="shared" si="2"/>
-        <v>104</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="7"/>
-        <v>104</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="8"/>
-        <v>78</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" si="9"/>
-        <v>78</v>
-      </c>
-      <c r="G27" s="1">
-        <v>17</v>
-      </c>
-      <c r="H27" s="1">
-        <v>5</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" si="6"/>
-        <v>1397</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="0"/>
-        <v>2923</v>
-      </c>
-      <c r="N27" s="1">
-        <v>25</v>
-      </c>
-      <c r="O27" s="1">
-        <f t="shared" si="1"/>
-        <v>237</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15">
-      <c r="B28" s="1">
-        <v>26</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" si="2"/>
-        <v>108</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="7"/>
-        <v>108</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="8"/>
-        <v>81</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" si="9"/>
-        <v>81</v>
-      </c>
-      <c r="G28" s="1">
-        <v>17</v>
-      </c>
-      <c r="H28" s="1">
-        <v>5</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" si="6"/>
-        <v>1526</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="0"/>
-        <v>3187</v>
-      </c>
-      <c r="N28" s="1">
-        <v>26</v>
-      </c>
-      <c r="O28" s="1">
-        <f t="shared" si="1"/>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15">
-      <c r="B29" s="1">
-        <v>27</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" si="2"/>
-        <v>112</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="7"/>
-        <v>112</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="8"/>
-        <v>84</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="9"/>
-        <v>84</v>
-      </c>
-      <c r="G29" s="1">
-        <v>17</v>
-      </c>
-      <c r="H29" s="1">
-        <v>5</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" si="6"/>
-        <v>1661</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="0"/>
-        <v>3464</v>
-      </c>
-      <c r="N29" s="1">
-        <v>27</v>
-      </c>
-      <c r="O29" s="1">
-        <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15">
-      <c r="B30" s="1">
-        <v>28</v>
-      </c>
-      <c r="C30" s="1">
-        <f t="shared" si="2"/>
-        <v>116</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="7"/>
-        <v>116</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="8"/>
-        <v>87</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" si="9"/>
-        <v>87</v>
-      </c>
-      <c r="G30" s="1">
-        <v>17</v>
-      </c>
-      <c r="H30" s="1">
-        <v>5</v>
-      </c>
-      <c r="I30" s="1">
-        <f t="shared" si="6"/>
-        <v>1803</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="0"/>
-        <v>3754</v>
-      </c>
-      <c r="N30" s="1">
-        <v>28</v>
-      </c>
-      <c r="O30" s="1">
-        <f t="shared" si="1"/>
-        <v>272</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15">
-      <c r="B31" s="1">
-        <v>29</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="7"/>
-        <v>120</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="8"/>
-        <v>90</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="9"/>
-        <v>90</v>
-      </c>
-      <c r="G31" s="1">
-        <v>17</v>
-      </c>
-      <c r="H31" s="1">
-        <v>5</v>
-      </c>
-      <c r="I31" s="1">
-        <f t="shared" si="6"/>
-        <v>1951</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="0"/>
-        <v>4057</v>
-      </c>
-      <c r="N31" s="1">
-        <v>29</v>
-      </c>
-      <c r="O31" s="1">
-        <f t="shared" si="1"/>
-        <v>284</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15">
-      <c r="B32" s="1">
-        <v>30</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" si="2"/>
-        <v>124</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="7"/>
-        <v>124</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="8"/>
-        <v>93</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" si="9"/>
-        <v>93</v>
-      </c>
-      <c r="G32" s="1">
-        <v>17</v>
-      </c>
-      <c r="H32" s="1">
-        <v>6</v>
-      </c>
-      <c r="I32" s="1">
-        <f t="shared" si="6"/>
-        <v>2106</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="0"/>
-        <v>4373</v>
-      </c>
-      <c r="N32" s="1">
-        <v>30</v>
-      </c>
-      <c r="O32" s="1">
-        <f t="shared" si="1"/>
-        <v>296</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15">
-      <c r="B33" s="1">
-        <v>31</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="2"/>
-        <v>128</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="7"/>
-        <v>128</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="8"/>
-        <v>96</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" si="9"/>
-        <v>96</v>
-      </c>
-      <c r="G33" s="1">
-        <v>17</v>
-      </c>
-      <c r="H33" s="1">
-        <v>6</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" si="6"/>
-        <v>2267</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="0"/>
-        <v>4702</v>
-      </c>
-      <c r="N33" s="1">
-        <v>31</v>
-      </c>
-      <c r="O33" s="1">
-        <f t="shared" si="1"/>
-        <v>308</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15">
-      <c r="B34" s="1">
-        <v>32</v>
-      </c>
-      <c r="C34" s="1">
-        <f t="shared" si="2"/>
-        <v>132</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="7"/>
-        <v>132</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="8"/>
-        <v>99</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="9"/>
-        <v>99</v>
-      </c>
-      <c r="G34" s="1">
-        <v>17</v>
-      </c>
-      <c r="H34" s="1">
-        <v>6</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" si="6"/>
-        <v>2435</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="0"/>
-        <v>5045</v>
-      </c>
-      <c r="N34" s="1">
-        <v>32</v>
-      </c>
-      <c r="O34" s="1">
-        <f t="shared" si="1"/>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15">
-      <c r="B35" s="1">
-        <v>33</v>
-      </c>
-      <c r="C35" s="1">
-        <f t="shared" si="2"/>
-        <v>136</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="7"/>
-        <v>136</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="8"/>
-        <v>102</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" si="9"/>
-        <v>102</v>
-      </c>
-      <c r="G35" s="1">
-        <v>17</v>
-      </c>
-      <c r="H35" s="1">
-        <v>6</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" si="6"/>
-        <v>2610</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="0"/>
-        <v>5401</v>
-      </c>
-      <c r="N35" s="1">
-        <v>33</v>
-      </c>
-      <c r="O35" s="1">
-        <f t="shared" si="1"/>
-        <v>332</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15">
-      <c r="B36" s="1">
-        <v>34</v>
-      </c>
-      <c r="C36" s="1">
-        <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="7"/>
-        <v>140</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" si="8"/>
-        <v>106</v>
-      </c>
-      <c r="F36" s="1">
-        <f t="shared" si="9"/>
-        <v>106</v>
-      </c>
-      <c r="G36" s="1">
-        <v>17</v>
-      </c>
-      <c r="H36" s="1">
-        <v>6</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" si="6"/>
-        <v>2791</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="0"/>
-        <v>5770</v>
-      </c>
-      <c r="N36" s="1">
-        <v>34</v>
-      </c>
-      <c r="O36" s="1">
-        <f t="shared" si="1"/>
-        <v>344</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15">
-      <c r="B37" s="1">
-        <v>35</v>
-      </c>
-      <c r="C37" s="1">
-        <f t="shared" si="2"/>
-        <v>144</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="7"/>
-        <v>144</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="8"/>
-        <v>110</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" si="9"/>
-        <v>110</v>
-      </c>
-      <c r="G37" s="1">
-        <v>17</v>
-      </c>
-      <c r="H37" s="1">
-        <v>6</v>
-      </c>
-      <c r="I37" s="1">
-        <f t="shared" si="6"/>
-        <v>2979</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="0"/>
-        <v>6153</v>
-      </c>
-      <c r="N37" s="1">
-        <v>35</v>
-      </c>
-      <c r="O37" s="1">
-        <f t="shared" si="1"/>
-        <v>356</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15">
-      <c r="B38" s="1">
-        <v>36</v>
-      </c>
-      <c r="C38" s="1">
-        <f t="shared" si="2"/>
-        <v>148</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="7"/>
-        <v>148</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="8"/>
-        <v>114</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" si="9"/>
-        <v>114</v>
-      </c>
-      <c r="G38" s="1">
-        <v>18</v>
-      </c>
-      <c r="H38" s="1">
-        <v>6</v>
-      </c>
-      <c r="I38" s="1">
-        <f t="shared" si="6"/>
-        <v>3174</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="0"/>
-        <v>6550</v>
-      </c>
-      <c r="N38" s="1">
-        <v>36</v>
-      </c>
-      <c r="O38" s="1">
-        <f t="shared" si="1"/>
-        <v>368</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15">
-      <c r="B39" s="1">
-        <v>37</v>
-      </c>
-      <c r="C39" s="1">
-        <f t="shared" si="2"/>
-        <v>153</v>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" si="7"/>
-        <v>153</v>
-      </c>
-      <c r="E39" s="1">
-        <f t="shared" si="8"/>
-        <v>118</v>
-      </c>
-      <c r="F39" s="1">
-        <f t="shared" si="9"/>
-        <v>118</v>
-      </c>
-      <c r="G39" s="1">
-        <v>18</v>
-      </c>
-      <c r="H39" s="1">
-        <v>7</v>
-      </c>
-      <c r="I39" s="1">
-        <f t="shared" si="6"/>
-        <v>3376</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="0"/>
-        <v>6961</v>
-      </c>
-      <c r="N39" s="1">
-        <v>37</v>
-      </c>
-      <c r="O39" s="1">
-        <f t="shared" si="1"/>
-        <v>380</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15">
-      <c r="B40" s="1">
-        <v>38</v>
-      </c>
-      <c r="C40" s="1">
-        <f t="shared" si="2"/>
-        <v>158</v>
-      </c>
-      <c r="D40" s="1">
-        <f t="shared" si="7"/>
-        <v>158</v>
-      </c>
-      <c r="E40" s="1">
-        <f t="shared" si="8"/>
-        <v>122</v>
-      </c>
-      <c r="F40" s="1">
-        <f t="shared" si="9"/>
-        <v>122</v>
-      </c>
-      <c r="G40" s="1">
-        <v>18</v>
-      </c>
-      <c r="H40" s="1">
-        <v>7</v>
-      </c>
-      <c r="I40" s="1">
-        <f t="shared" si="6"/>
-        <v>3585</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="0"/>
-        <v>7385</v>
-      </c>
-      <c r="N40" s="1">
-        <v>38</v>
-      </c>
-      <c r="O40" s="1">
-        <f t="shared" si="1"/>
-        <v>393</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15">
-      <c r="B41" s="1">
-        <v>39</v>
-      </c>
-      <c r="C41" s="1">
-        <f t="shared" si="2"/>
-        <v>163</v>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" si="7"/>
-        <v>163</v>
-      </c>
-      <c r="E41" s="1">
-        <f t="shared" si="8"/>
-        <v>126</v>
-      </c>
-      <c r="F41" s="1">
-        <f t="shared" si="9"/>
-        <v>126</v>
-      </c>
-      <c r="G41" s="1">
-        <v>18</v>
-      </c>
-      <c r="H41" s="1">
-        <v>7</v>
-      </c>
-      <c r="I41" s="1">
-        <f t="shared" si="6"/>
-        <v>3800</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="0"/>
-        <v>7823</v>
-      </c>
-      <c r="N41" s="1">
-        <v>39</v>
-      </c>
-      <c r="O41" s="1">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15">
-      <c r="B42" s="1">
-        <v>40</v>
-      </c>
-      <c r="C42" s="1">
-        <f t="shared" si="2"/>
-        <v>168</v>
-      </c>
-      <c r="D42" s="1">
-        <f t="shared" si="7"/>
-        <v>168</v>
-      </c>
-      <c r="E42" s="1">
-        <f t="shared" si="8"/>
-        <v>130</v>
-      </c>
-      <c r="F42" s="1">
-        <f t="shared" si="9"/>
-        <v>130</v>
-      </c>
-      <c r="G42" s="1">
-        <v>18</v>
-      </c>
-      <c r="H42" s="1">
-        <v>7</v>
-      </c>
-      <c r="I42" s="1">
-        <f t="shared" si="6"/>
-        <v>4023</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="0"/>
-        <v>8276</v>
-      </c>
-      <c r="N42" s="1">
-        <v>40</v>
-      </c>
-      <c r="O42" s="1">
-        <f t="shared" si="1"/>
-        <v>418</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15">
-      <c r="B43" s="1">
-        <v>41</v>
-      </c>
-      <c r="C43" s="1">
-        <f t="shared" si="2"/>
-        <v>173</v>
-      </c>
-      <c r="D43" s="1">
-        <f t="shared" si="7"/>
-        <v>173</v>
-      </c>
-      <c r="E43" s="1">
-        <f t="shared" si="8"/>
-        <v>134</v>
-      </c>
-      <c r="F43" s="1">
-        <f t="shared" si="9"/>
-        <v>134</v>
-      </c>
-      <c r="G43" s="1">
-        <v>18</v>
-      </c>
-      <c r="H43" s="1">
-        <v>7</v>
-      </c>
-      <c r="I43" s="1">
-        <f t="shared" si="6"/>
-        <v>4253</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="0"/>
-        <v>8743</v>
-      </c>
-      <c r="N43" s="1">
-        <v>41</v>
-      </c>
-      <c r="O43" s="1">
-        <f t="shared" si="1"/>
-        <v>430</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15">
-      <c r="B44" s="1">
-        <v>42</v>
-      </c>
-      <c r="C44" s="1">
-        <f t="shared" si="2"/>
-        <v>178</v>
-      </c>
-      <c r="D44" s="1">
-        <f t="shared" si="7"/>
-        <v>178</v>
-      </c>
-      <c r="E44" s="1">
-        <f t="shared" si="8"/>
-        <v>138</v>
-      </c>
-      <c r="F44" s="1">
-        <f t="shared" si="9"/>
-        <v>138</v>
-      </c>
-      <c r="G44" s="1">
-        <v>18</v>
-      </c>
-      <c r="H44" s="1">
-        <v>7</v>
-      </c>
-      <c r="I44" s="1">
-        <f t="shared" si="6"/>
-        <v>4490</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="0"/>
-        <v>9224</v>
-      </c>
-      <c r="N44" s="1">
-        <v>42</v>
-      </c>
-      <c r="O44" s="1">
-        <f t="shared" si="1"/>
-        <v>443</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15">
-      <c r="B45" s="1">
-        <v>43</v>
-      </c>
-      <c r="C45" s="1">
-        <f t="shared" si="2"/>
-        <v>183</v>
-      </c>
-      <c r="D45" s="1">
-        <f t="shared" si="7"/>
-        <v>183</v>
-      </c>
-      <c r="E45" s="1">
-        <f t="shared" si="8"/>
-        <v>142</v>
-      </c>
-      <c r="F45" s="1">
-        <f t="shared" si="9"/>
-        <v>142</v>
-      </c>
-      <c r="G45" s="1">
-        <v>18</v>
-      </c>
-      <c r="H45" s="1">
-        <v>7</v>
-      </c>
-      <c r="I45" s="1">
-        <f t="shared" si="6"/>
-        <v>4734</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="0"/>
-        <v>9720</v>
-      </c>
-      <c r="N45" s="1">
-        <v>43</v>
-      </c>
-      <c r="O45" s="1">
-        <f t="shared" si="1"/>
-        <v>456</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15">
-      <c r="B46" s="1">
-        <v>44</v>
-      </c>
-      <c r="C46" s="1">
-        <f t="shared" si="2"/>
-        <v>188</v>
-      </c>
-      <c r="D46" s="1">
-        <f t="shared" si="7"/>
-        <v>188</v>
-      </c>
-      <c r="E46" s="1">
-        <f t="shared" si="8"/>
-        <v>146</v>
-      </c>
-      <c r="F46" s="1">
-        <f t="shared" si="9"/>
-        <v>146</v>
-      </c>
-      <c r="G46" s="1">
-        <v>18</v>
-      </c>
-      <c r="H46" s="1">
-        <v>7</v>
-      </c>
-      <c r="I46" s="1">
-        <f t="shared" si="6"/>
-        <v>4986</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="0"/>
-        <v>10230</v>
-      </c>
-      <c r="N46" s="1">
-        <v>44</v>
-      </c>
-      <c r="O46" s="1">
-        <f t="shared" si="1"/>
-        <v>468</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15">
-      <c r="B47" s="1">
-        <v>45</v>
-      </c>
-      <c r="C47" s="1">
-        <f t="shared" si="2"/>
-        <v>194</v>
-      </c>
-      <c r="D47" s="1">
-        <f t="shared" si="7"/>
-        <v>194</v>
-      </c>
-      <c r="E47" s="1">
-        <f t="shared" si="8"/>
-        <v>151</v>
-      </c>
-      <c r="F47" s="1">
-        <f t="shared" si="9"/>
-        <v>151</v>
-      </c>
-      <c r="G47" s="1">
-        <v>18</v>
-      </c>
-      <c r="H47" s="1">
-        <v>7</v>
-      </c>
-      <c r="I47" s="1">
-        <f t="shared" si="6"/>
-        <v>5244</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="0"/>
-        <v>10754</v>
-      </c>
-      <c r="N47" s="1">
-        <v>45</v>
-      </c>
-      <c r="O47" s="1">
-        <f t="shared" si="1"/>
-        <v>481</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15">
-      <c r="B48" s="1">
-        <v>46</v>
-      </c>
-      <c r="C48" s="1">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="D48" s="1">
-        <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-      <c r="E48" s="1">
-        <f t="shared" si="8"/>
-        <v>156</v>
-      </c>
-      <c r="F48" s="1">
-        <f t="shared" si="9"/>
-        <v>156</v>
-      </c>
-      <c r="G48" s="1">
-        <v>18</v>
-      </c>
-      <c r="H48" s="1">
-        <v>7</v>
-      </c>
-      <c r="I48" s="1">
-        <f t="shared" si="6"/>
-        <v>5510</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="0"/>
-        <v>11293</v>
-      </c>
-      <c r="N48" s="1">
-        <v>46</v>
-      </c>
-      <c r="O48" s="1">
-        <f t="shared" si="1"/>
-        <v>494</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15">
-      <c r="B49" s="1">
-        <v>47</v>
-      </c>
-      <c r="C49" s="1">
-        <f t="shared" si="2"/>
-        <v>206</v>
-      </c>
-      <c r="D49" s="1">
-        <f t="shared" si="7"/>
-        <v>206</v>
-      </c>
-      <c r="E49" s="1">
-        <f t="shared" si="8"/>
-        <v>161</v>
-      </c>
-      <c r="F49" s="1">
-        <f t="shared" si="9"/>
-        <v>161</v>
-      </c>
-      <c r="G49" s="1">
-        <v>19</v>
-      </c>
-      <c r="H49" s="1">
-        <v>7</v>
-      </c>
-      <c r="I49" s="1">
-        <f t="shared" si="6"/>
-        <v>5783</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="0"/>
-        <v>11847</v>
-      </c>
-      <c r="N49" s="1">
-        <v>47</v>
-      </c>
-      <c r="O49" s="1">
-        <f t="shared" si="1"/>
-        <v>507</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15">
-      <c r="B50" s="1">
-        <v>48</v>
-      </c>
-      <c r="C50" s="1">
-        <f t="shared" si="2"/>
-        <v>212</v>
-      </c>
-      <c r="D50" s="1">
-        <f t="shared" si="7"/>
-        <v>212</v>
-      </c>
-      <c r="E50" s="1">
-        <f t="shared" si="8"/>
-        <v>166</v>
-      </c>
-      <c r="F50" s="1">
-        <f t="shared" si="9"/>
-        <v>166</v>
-      </c>
-      <c r="G50" s="1">
-        <v>19</v>
-      </c>
-      <c r="H50" s="1">
-        <v>8</v>
-      </c>
-      <c r="I50" s="1">
-        <f t="shared" si="6"/>
-        <v>6064</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="0"/>
-        <v>12416</v>
-      </c>
-      <c r="N50" s="1">
-        <v>48</v>
-      </c>
-      <c r="O50" s="1">
-        <f t="shared" si="1"/>
-        <v>520</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15">
-      <c r="B51" s="1">
-        <v>49</v>
-      </c>
-      <c r="C51" s="1">
-        <f t="shared" si="2"/>
-        <v>218</v>
-      </c>
-      <c r="D51" s="1">
-        <f t="shared" si="7"/>
-        <v>218</v>
-      </c>
-      <c r="E51" s="1">
-        <f t="shared" si="8"/>
-        <v>171</v>
-      </c>
-      <c r="F51" s="1">
-        <f t="shared" si="9"/>
-        <v>171</v>
-      </c>
-      <c r="G51" s="1">
-        <v>19</v>
-      </c>
-      <c r="H51" s="1">
-        <v>8</v>
-      </c>
-      <c r="I51" s="1">
-        <f t="shared" si="6"/>
-        <v>6352</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="0"/>
-        <v>12999</v>
-      </c>
-      <c r="N51" s="1">
-        <v>49</v>
-      </c>
-      <c r="O51" s="1">
-        <f t="shared" si="1"/>
-        <v>533</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15">
-      <c r="B52" s="1">
-        <v>50</v>
-      </c>
-      <c r="C52" s="1">
-        <f t="shared" si="2"/>
-        <v>224</v>
-      </c>
-      <c r="D52" s="1">
-        <f t="shared" si="7"/>
-        <v>224</v>
-      </c>
-      <c r="E52" s="1">
-        <f t="shared" si="8"/>
-        <v>176</v>
-      </c>
-      <c r="F52" s="1">
-        <f t="shared" si="9"/>
-        <v>176</v>
-      </c>
-      <c r="G52" s="1">
-        <v>19</v>
-      </c>
-      <c r="H52" s="1">
-        <v>8</v>
-      </c>
-      <c r="I52" s="1">
-        <f t="shared" si="6"/>
-        <v>6647</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="0"/>
-        <v>13597</v>
-      </c>
-      <c r="N52" s="1">
-        <v>50</v>
-      </c>
-      <c r="O52" s="1">
-        <f t="shared" si="1"/>
-        <v>546</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15">
-      <c r="B53" s="1">
-        <v>51</v>
-      </c>
-      <c r="C53" s="1">
-        <f t="shared" si="2"/>
-        <v>231</v>
-      </c>
-      <c r="D53" s="1">
-        <f t="shared" si="7"/>
-        <v>231</v>
-      </c>
-      <c r="E53" s="1">
-        <f t="shared" si="8"/>
-        <v>181</v>
-      </c>
-      <c r="F53" s="1">
-        <f t="shared" si="9"/>
-        <v>181</v>
-      </c>
-      <c r="G53" s="1">
-        <v>19</v>
-      </c>
-      <c r="H53" s="1">
-        <v>8</v>
-      </c>
-      <c r="I53" s="1">
-        <f t="shared" si="6"/>
-        <v>6950</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="0"/>
-        <v>14211</v>
-      </c>
-      <c r="N53" s="1">
-        <v>51</v>
-      </c>
-      <c r="O53" s="1">
-        <f t="shared" si="1"/>
-        <v>559</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15">
-      <c r="B54" s="1">
-        <v>52</v>
-      </c>
-      <c r="C54" s="1">
-        <f t="shared" si="2"/>
-        <v>238</v>
-      </c>
-      <c r="D54" s="1">
-        <f t="shared" si="7"/>
-        <v>238</v>
-      </c>
-      <c r="E54" s="1">
-        <f t="shared" si="8"/>
-        <v>186</v>
-      </c>
-      <c r="F54" s="1">
-        <f t="shared" si="9"/>
-        <v>186</v>
-      </c>
-      <c r="G54" s="1">
-        <v>19</v>
-      </c>
-      <c r="H54" s="1">
-        <v>8</v>
-      </c>
-      <c r="I54" s="1">
-        <f t="shared" si="6"/>
-        <v>7261</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="0"/>
-        <v>14840</v>
-      </c>
-      <c r="N54" s="1">
-        <v>52</v>
-      </c>
-      <c r="O54" s="1">
-        <f t="shared" si="1"/>
-        <v>573</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15">
-      <c r="B55" s="1">
-        <v>53</v>
-      </c>
-      <c r="C55" s="1">
-        <f t="shared" si="2"/>
-        <v>245</v>
-      </c>
-      <c r="D55" s="1">
-        <f t="shared" si="7"/>
-        <v>245</v>
-      </c>
-      <c r="E55" s="1">
-        <f t="shared" si="8"/>
-        <v>192</v>
-      </c>
-      <c r="F55" s="1">
-        <f t="shared" si="9"/>
-        <v>192</v>
-      </c>
-      <c r="G55" s="1">
-        <v>19</v>
-      </c>
-      <c r="H55" s="1">
-        <v>8</v>
-      </c>
-      <c r="I55" s="1">
-        <f t="shared" si="6"/>
-        <v>7579</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="0"/>
-        <v>15483</v>
-      </c>
-      <c r="N55" s="1">
-        <v>53</v>
-      </c>
-      <c r="O55" s="1">
-        <f t="shared" si="1"/>
-        <v>586</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15">
-      <c r="B56" s="1">
-        <v>54</v>
-      </c>
-      <c r="C56" s="1">
-        <f t="shared" si="2"/>
-        <v>252</v>
-      </c>
-      <c r="D56" s="1">
-        <f t="shared" si="7"/>
-        <v>252</v>
-      </c>
-      <c r="E56" s="1">
-        <f t="shared" si="8"/>
-        <v>198</v>
-      </c>
-      <c r="F56" s="1">
-        <f t="shared" si="9"/>
-        <v>198</v>
-      </c>
-      <c r="G56" s="1">
-        <v>19</v>
-      </c>
-      <c r="H56" s="1">
-        <v>8</v>
-      </c>
-      <c r="I56" s="1">
-        <f t="shared" si="6"/>
-        <v>7904</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="0"/>
-        <v>16141</v>
-      </c>
-      <c r="N56" s="1">
-        <v>54</v>
-      </c>
-      <c r="O56" s="1">
-        <f t="shared" si="1"/>
-        <v>599</v>
-      </c>
-    </row>
-    <row r="57" spans="2:15">
-      <c r="B57" s="1">
-        <v>55</v>
-      </c>
-      <c r="C57" s="1">
-        <f t="shared" si="2"/>
-        <v>259</v>
-      </c>
-      <c r="D57" s="1">
-        <f t="shared" si="7"/>
-        <v>259</v>
-      </c>
-      <c r="E57" s="1">
-        <f t="shared" si="8"/>
-        <v>204</v>
-      </c>
-      <c r="F57" s="1">
-        <f t="shared" si="9"/>
-        <v>204</v>
-      </c>
-      <c r="G57" s="1">
-        <v>19</v>
-      </c>
-      <c r="H57" s="1">
-        <v>8</v>
-      </c>
-      <c r="I57" s="1">
-        <f t="shared" si="6"/>
-        <v>8237</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="0"/>
-        <v>16815</v>
-      </c>
-      <c r="N57" s="1">
-        <v>55</v>
-      </c>
-      <c r="O57" s="1">
-        <f t="shared" si="1"/>
-        <v>612</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15">
-      <c r="B58" s="1">
-        <v>56</v>
-      </c>
-      <c r="C58" s="1">
-        <f t="shared" si="2"/>
-        <v>266</v>
-      </c>
-      <c r="D58" s="1">
-        <f t="shared" si="7"/>
-        <v>266</v>
-      </c>
-      <c r="E58" s="1">
-        <f t="shared" si="8"/>
-        <v>210</v>
-      </c>
-      <c r="F58" s="1">
-        <f t="shared" si="9"/>
-        <v>210</v>
-      </c>
-      <c r="G58" s="1">
-        <v>19</v>
-      </c>
-      <c r="H58" s="1">
-        <v>8</v>
-      </c>
-      <c r="I58" s="1">
-        <f t="shared" si="6"/>
-        <v>8578</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="0"/>
-        <v>17505</v>
-      </c>
-      <c r="N58" s="1">
-        <v>56</v>
-      </c>
-      <c r="O58" s="1">
-        <f t="shared" si="1"/>
-        <v>626</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15">
-      <c r="B59" s="1">
-        <v>57</v>
-      </c>
-      <c r="C59" s="1">
-        <f t="shared" si="2"/>
-        <v>274</v>
-      </c>
-      <c r="D59" s="1">
-        <f t="shared" si="7"/>
-        <v>274</v>
-      </c>
-      <c r="E59" s="1">
-        <f t="shared" si="8"/>
-        <v>216</v>
-      </c>
-      <c r="F59" s="1">
-        <f t="shared" si="9"/>
-        <v>216</v>
-      </c>
-      <c r="G59" s="1">
-        <v>19</v>
-      </c>
-      <c r="H59" s="1">
-        <v>8</v>
-      </c>
-      <c r="I59" s="1">
-        <f t="shared" si="6"/>
-        <v>8927</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="0"/>
-        <v>18210</v>
-      </c>
-      <c r="N59" s="1">
-        <v>57</v>
-      </c>
-      <c r="O59" s="1">
-        <f t="shared" si="1"/>
-        <v>639</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15">
-      <c r="B60" s="1">
-        <v>58</v>
-      </c>
-      <c r="C60" s="1">
-        <f t="shared" si="2"/>
-        <v>282</v>
-      </c>
-      <c r="D60" s="1">
-        <f t="shared" si="7"/>
-        <v>282</v>
-      </c>
-      <c r="E60" s="1">
-        <f t="shared" si="8"/>
-        <v>222</v>
-      </c>
-      <c r="F60" s="1">
-        <f t="shared" si="9"/>
-        <v>222</v>
-      </c>
-      <c r="G60" s="1">
-        <v>19</v>
-      </c>
-      <c r="H60" s="1">
-        <v>8</v>
-      </c>
-      <c r="I60" s="1">
-        <f t="shared" si="6"/>
-        <v>9283</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="0"/>
-        <v>18930</v>
-      </c>
-      <c r="N60" s="1">
-        <v>58</v>
-      </c>
-      <c r="O60" s="1">
-        <f t="shared" si="1"/>
-        <v>653</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15">
-      <c r="B61" s="1">
-        <v>59</v>
-      </c>
-      <c r="C61" s="1">
-        <f t="shared" si="2"/>
-        <v>290</v>
-      </c>
-      <c r="D61" s="1">
-        <f t="shared" si="7"/>
-        <v>290</v>
-      </c>
-      <c r="E61" s="1">
-        <f t="shared" si="8"/>
-        <v>228</v>
-      </c>
-      <c r="F61" s="1">
-        <f t="shared" si="9"/>
-        <v>228</v>
-      </c>
-      <c r="G61" s="1">
-        <v>19</v>
-      </c>
-      <c r="H61" s="1">
-        <v>8</v>
-      </c>
-      <c r="I61" s="1">
-        <f t="shared" si="6"/>
-        <v>9647</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="0"/>
-        <v>19666</v>
-      </c>
-      <c r="N61" s="1">
-        <v>59</v>
-      </c>
-      <c r="O61" s="1">
-        <f t="shared" si="1"/>
-        <v>666</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15">
-      <c r="B62" s="1">
-        <v>60</v>
-      </c>
-      <c r="C62" s="1">
-        <f t="shared" si="2"/>
-        <v>298</v>
-      </c>
-      <c r="D62" s="1">
-        <f t="shared" si="7"/>
-        <v>298</v>
-      </c>
-      <c r="E62" s="1">
-        <f t="shared" si="8"/>
-        <v>235</v>
-      </c>
-      <c r="F62" s="1">
-        <f t="shared" si="9"/>
-        <v>235</v>
-      </c>
-      <c r="G62" s="1">
-        <v>20</v>
-      </c>
-      <c r="H62" s="1">
-        <v>9</v>
-      </c>
-      <c r="I62" s="1">
-        <f t="shared" si="6"/>
-        <v>10019</v>
-      </c>
-      <c r="J62">
-        <f t="shared" si="0"/>
-        <v>20418</v>
-      </c>
-      <c r="N62" s="1">
-        <v>60</v>
-      </c>
-      <c r="O62" s="1">
-        <f t="shared" si="1"/>
-        <v>680</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15">
-      <c r="B63" s="1">
-        <v>61</v>
-      </c>
-      <c r="C63" s="1">
-        <f t="shared" si="2"/>
-        <v>306</v>
-      </c>
-      <c r="D63" s="1">
-        <f t="shared" si="7"/>
-        <v>306</v>
-      </c>
-      <c r="E63" s="1">
-        <f t="shared" si="8"/>
-        <v>242</v>
-      </c>
-      <c r="F63" s="1">
-        <f t="shared" si="9"/>
-        <v>242</v>
-      </c>
-      <c r="G63" s="1">
-        <v>20</v>
-      </c>
-      <c r="H63" s="1">
-        <v>9</v>
-      </c>
-      <c r="I63" s="1">
-        <f t="shared" si="6"/>
-        <v>10399</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="0"/>
-        <v>21185</v>
-      </c>
-      <c r="N63" s="1">
-        <v>61</v>
-      </c>
-      <c r="O63" s="1">
-        <f t="shared" si="1"/>
-        <v>694</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15">
-      <c r="B64" s="1">
-        <v>62</v>
-      </c>
-      <c r="C64" s="1">
-        <f t="shared" si="2"/>
-        <v>315</v>
-      </c>
-      <c r="D64" s="1">
-        <f t="shared" si="7"/>
-        <v>315</v>
-      </c>
-      <c r="E64" s="1">
-        <f t="shared" si="8"/>
-        <v>249</v>
-      </c>
-      <c r="F64" s="1">
-        <f t="shared" si="9"/>
-        <v>249</v>
-      </c>
-      <c r="G64" s="1">
-        <v>20</v>
-      </c>
-      <c r="H64" s="1">
-        <v>9</v>
-      </c>
-      <c r="I64" s="1">
-        <f t="shared" si="6"/>
-        <v>10786</v>
-      </c>
-      <c r="J64">
-        <f t="shared" si="0"/>
-        <v>21967</v>
-      </c>
-      <c r="N64" s="1">
-        <v>62</v>
-      </c>
-      <c r="O64" s="1">
-        <f t="shared" si="1"/>
-        <v>707</v>
-      </c>
-    </row>
-    <row r="65" spans="2:15">
-      <c r="B65" s="1">
-        <v>63</v>
-      </c>
-      <c r="C65" s="1">
-        <f t="shared" si="2"/>
-        <v>324</v>
-      </c>
-      <c r="D65" s="1">
-        <f t="shared" si="7"/>
-        <v>324</v>
-      </c>
-      <c r="E65" s="1">
-        <f t="shared" si="8"/>
-        <v>256</v>
-      </c>
-      <c r="F65" s="1">
-        <f t="shared" si="9"/>
-        <v>256</v>
-      </c>
-      <c r="G65" s="1">
-        <v>20</v>
-      </c>
-      <c r="H65" s="1">
-        <v>9</v>
-      </c>
-      <c r="I65" s="1">
-        <f t="shared" si="6"/>
-        <v>11181</v>
-      </c>
-      <c r="J65">
-        <f t="shared" si="0"/>
-        <v>22766</v>
-      </c>
-      <c r="N65" s="1">
-        <v>63</v>
-      </c>
-      <c r="O65" s="1">
-        <f t="shared" si="1"/>
-        <v>721</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15">
-      <c r="B66" s="1">
-        <v>64</v>
-      </c>
-      <c r="C66" s="1">
-        <f t="shared" si="2"/>
-        <v>333</v>
-      </c>
-      <c r="D66" s="1">
-        <f t="shared" si="7"/>
-        <v>333</v>
-      </c>
-      <c r="E66" s="1">
-        <f t="shared" si="8"/>
-        <v>263</v>
-      </c>
-      <c r="F66" s="1">
-        <f t="shared" si="9"/>
-        <v>263</v>
-      </c>
-      <c r="G66" s="1">
-        <v>20</v>
-      </c>
-      <c r="H66" s="1">
-        <v>9</v>
-      </c>
-      <c r="I66" s="1">
-        <f t="shared" si="6"/>
-        <v>11585</v>
-      </c>
-      <c r="J66">
-        <f t="shared" si="0"/>
-        <v>23581</v>
-      </c>
-      <c r="N66" s="1">
-        <v>64</v>
-      </c>
-      <c r="O66" s="1">
-        <f t="shared" si="1"/>
-        <v>735</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15">
-      <c r="B67" s="1">
-        <v>65</v>
-      </c>
-      <c r="C67" s="1">
-        <f t="shared" si="2"/>
-        <v>342</v>
-      </c>
-      <c r="D67" s="1">
-        <f t="shared" si="7"/>
-        <v>342</v>
-      </c>
-      <c r="E67" s="1">
-        <f t="shared" si="8"/>
-        <v>271</v>
-      </c>
-      <c r="F67" s="1">
-        <f t="shared" si="9"/>
-        <v>271</v>
-      </c>
-      <c r="G67" s="1">
-        <v>20</v>
-      </c>
-      <c r="H67" s="1">
-        <v>9</v>
-      </c>
-      <c r="I67" s="1">
-        <f t="shared" si="6"/>
-        <v>11996</v>
-      </c>
-      <c r="J67">
-        <f t="shared" si="0"/>
-        <v>24411</v>
-      </c>
-      <c r="N67" s="1">
-        <v>65</v>
-      </c>
-      <c r="O67" s="1">
-        <f t="shared" si="1"/>
-        <v>748</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15">
-      <c r="B68" s="1">
-        <v>66</v>
-      </c>
-      <c r="C68" s="1">
-        <f t="shared" si="2"/>
-        <v>352</v>
-      </c>
-      <c r="D68" s="1">
-        <f t="shared" si="7"/>
-        <v>352</v>
-      </c>
-      <c r="E68" s="1">
-        <f t="shared" si="8"/>
-        <v>279</v>
-      </c>
-      <c r="F68" s="1">
-        <f t="shared" si="9"/>
-        <v>279</v>
-      </c>
-      <c r="G68" s="1">
-        <v>20</v>
-      </c>
-      <c r="H68" s="1">
-        <v>9</v>
-      </c>
-      <c r="I68" s="1">
-        <f t="shared" si="6"/>
-        <v>12415</v>
-      </c>
-      <c r="J68">
-        <f t="shared" ref="J68:J101" si="10">I69--I68</f>
-        <v>25258</v>
-      </c>
-      <c r="N68" s="1">
-        <v>66</v>
-      </c>
-      <c r="O68" s="1">
-        <f t="shared" ref="O68:O100" si="11">FLOOR(FLOOR(5*POWER(N68,1.2),1),1)</f>
-        <v>762</v>
-      </c>
-    </row>
-    <row r="69" spans="2:15">
-      <c r="B69" s="1">
-        <v>67</v>
-      </c>
-      <c r="C69" s="1">
-        <f t="shared" ref="C69:C101" si="12">FLOOR(POWER(C68,1.004)+1.1+1,1)</f>
-        <v>362</v>
-      </c>
-      <c r="D69" s="1">
-        <f t="shared" si="7"/>
-        <v>362</v>
-      </c>
-      <c r="E69" s="1">
-        <f t="shared" si="8"/>
-        <v>287</v>
-      </c>
-      <c r="F69" s="1">
-        <f t="shared" si="9"/>
-        <v>287</v>
-      </c>
-      <c r="G69" s="1">
-        <v>20</v>
-      </c>
-      <c r="H69" s="1">
-        <v>9</v>
-      </c>
-      <c r="I69" s="1">
-        <f t="shared" ref="I69:I101" si="13">FLOOR(POWER(B69,2.25+($L$5)/12),1)</f>
-        <v>12843</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="10"/>
-        <v>26121</v>
-      </c>
-      <c r="N69" s="1">
-        <v>67</v>
-      </c>
-      <c r="O69" s="1">
-        <f t="shared" si="11"/>
-        <v>776</v>
-      </c>
-    </row>
-    <row r="70" spans="2:15">
-      <c r="B70" s="1">
-        <v>68</v>
-      </c>
-      <c r="C70" s="1">
-        <f t="shared" si="12"/>
-        <v>372</v>
-      </c>
-      <c r="D70" s="1">
-        <f t="shared" si="7"/>
-        <v>372</v>
-      </c>
-      <c r="E70" s="1">
-        <f t="shared" si="8"/>
-        <v>295</v>
-      </c>
-      <c r="F70" s="1">
-        <f t="shared" si="9"/>
-        <v>295</v>
-      </c>
-      <c r="G70" s="1">
-        <v>20</v>
-      </c>
-      <c r="H70" s="1">
-        <v>9</v>
-      </c>
-      <c r="I70" s="1">
-        <f t="shared" si="13"/>
-        <v>13278</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="10"/>
-        <v>26999</v>
-      </c>
-      <c r="N70" s="1">
-        <v>68</v>
-      </c>
-      <c r="O70" s="1">
-        <f t="shared" si="11"/>
-        <v>790</v>
-      </c>
-    </row>
-    <row r="71" spans="2:15">
-      <c r="B71" s="1">
-        <v>69</v>
-      </c>
-      <c r="C71" s="1">
-        <f t="shared" si="12"/>
-        <v>383</v>
-      </c>
-      <c r="D71" s="1">
-        <f t="shared" si="7"/>
-        <v>383</v>
-      </c>
-      <c r="E71" s="1">
-        <f t="shared" si="8"/>
-        <v>303</v>
-      </c>
-      <c r="F71" s="1">
-        <f t="shared" si="9"/>
-        <v>303</v>
-      </c>
-      <c r="G71" s="1">
-        <v>20</v>
-      </c>
-      <c r="H71" s="1">
-        <v>9</v>
-      </c>
-      <c r="I71" s="1">
-        <f t="shared" si="13"/>
-        <v>13721</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="10"/>
-        <v>27894</v>
-      </c>
-      <c r="N71" s="1">
-        <v>69</v>
-      </c>
-      <c r="O71" s="1">
-        <f t="shared" si="11"/>
-        <v>804</v>
-      </c>
-    </row>
-    <row r="72" spans="2:15">
-      <c r="B72" s="1">
-        <v>70</v>
-      </c>
-      <c r="C72" s="1">
-        <f t="shared" si="12"/>
-        <v>394</v>
-      </c>
-      <c r="D72" s="1">
-        <f t="shared" si="7"/>
-        <v>394</v>
-      </c>
-      <c r="E72" s="1">
-        <f t="shared" si="8"/>
-        <v>312</v>
-      </c>
-      <c r="F72" s="1">
-        <f t="shared" si="9"/>
-        <v>312</v>
-      </c>
-      <c r="G72" s="1">
-        <v>20</v>
-      </c>
-      <c r="H72" s="1">
-        <v>9</v>
-      </c>
-      <c r="I72" s="1">
-        <f t="shared" si="13"/>
-        <v>14173</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="10"/>
-        <v>28805</v>
-      </c>
-      <c r="N72" s="1">
-        <v>70</v>
-      </c>
-      <c r="O72" s="1">
-        <f t="shared" si="11"/>
-        <v>818</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15">
-      <c r="B73" s="1">
-        <v>71</v>
-      </c>
-      <c r="C73" s="1">
-        <f t="shared" si="12"/>
-        <v>405</v>
-      </c>
-      <c r="D73" s="1">
-        <f t="shared" ref="D73:D101" si="14">FLOOR(POWER(D72,1.004)+1.1+1,1)</f>
-        <v>405</v>
-      </c>
-      <c r="E73" s="1">
-        <f t="shared" ref="E73:E101" si="15">FLOOR(POWER(E72,1.004)+1.1+1,1)</f>
-        <v>321</v>
-      </c>
-      <c r="F73" s="1">
-        <f t="shared" ref="F73:F101" si="16">FLOOR(POWER(F72,1.004)+1.1+1,1)</f>
-        <v>321</v>
-      </c>
-      <c r="G73" s="1">
-        <v>20</v>
-      </c>
-      <c r="H73" s="1">
-        <v>9</v>
-      </c>
-      <c r="I73" s="1">
-        <f t="shared" si="13"/>
-        <v>14632</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="10"/>
-        <v>29732</v>
-      </c>
-      <c r="N73" s="1">
-        <v>71</v>
-      </c>
-      <c r="O73" s="1">
-        <f t="shared" si="11"/>
-        <v>832</v>
-      </c>
-    </row>
-    <row r="74" spans="2:15">
-      <c r="B74" s="1">
-        <v>72</v>
-      </c>
-      <c r="C74" s="1">
-        <f t="shared" si="12"/>
-        <v>416</v>
-      </c>
-      <c r="D74" s="1">
-        <f t="shared" si="14"/>
-        <v>416</v>
-      </c>
-      <c r="E74" s="1">
-        <f t="shared" si="15"/>
-        <v>330</v>
-      </c>
-      <c r="F74" s="1">
-        <f t="shared" si="16"/>
-        <v>330</v>
-      </c>
-      <c r="G74" s="1">
-        <v>20</v>
-      </c>
-      <c r="H74" s="1">
-        <v>9</v>
-      </c>
-      <c r="I74" s="1">
-        <f t="shared" si="13"/>
-        <v>15100</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="10"/>
-        <v>30676</v>
-      </c>
-      <c r="N74" s="1">
-        <v>72</v>
-      </c>
-      <c r="O74" s="1">
-        <f t="shared" si="11"/>
-        <v>846</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15">
-      <c r="B75" s="1">
-        <v>73</v>
-      </c>
-      <c r="C75" s="1">
-        <f t="shared" si="12"/>
-        <v>428</v>
-      </c>
-      <c r="D75" s="1">
-        <f t="shared" si="14"/>
-        <v>428</v>
-      </c>
-      <c r="E75" s="1">
-        <f t="shared" si="15"/>
-        <v>339</v>
-      </c>
-      <c r="F75" s="1">
-        <f t="shared" si="16"/>
-        <v>339</v>
-      </c>
-      <c r="G75" s="1">
-        <v>21</v>
-      </c>
-      <c r="H75" s="1">
-        <v>9</v>
-      </c>
-      <c r="I75" s="1">
-        <f t="shared" si="13"/>
-        <v>15576</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="10"/>
-        <v>31636</v>
-      </c>
-      <c r="N75" s="1">
-        <v>73</v>
-      </c>
-      <c r="O75" s="1">
-        <f t="shared" si="11"/>
-        <v>860</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15">
-      <c r="B76" s="1">
-        <v>74</v>
-      </c>
-      <c r="C76" s="1">
-        <f t="shared" si="12"/>
-        <v>440</v>
-      </c>
-      <c r="D76" s="1">
-        <f t="shared" si="14"/>
-        <v>440</v>
-      </c>
-      <c r="E76" s="1">
-        <f t="shared" si="15"/>
-        <v>349</v>
-      </c>
-      <c r="F76" s="1">
-        <f t="shared" si="16"/>
-        <v>349</v>
-      </c>
-      <c r="G76" s="1">
-        <v>21</v>
-      </c>
-      <c r="H76" s="1">
-        <v>9</v>
-      </c>
-      <c r="I76" s="1">
-        <f t="shared" si="13"/>
-        <v>16060</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="10"/>
-        <v>32613</v>
-      </c>
-      <c r="N76" s="1">
-        <v>74</v>
-      </c>
-      <c r="O76" s="1">
-        <f t="shared" si="11"/>
-        <v>875</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15">
-      <c r="B77" s="1">
-        <v>75</v>
-      </c>
-      <c r="C77" s="1">
-        <f t="shared" si="12"/>
-        <v>452</v>
-      </c>
-      <c r="D77" s="1">
-        <f t="shared" si="14"/>
-        <v>452</v>
-      </c>
-      <c r="E77" s="1">
-        <f t="shared" si="15"/>
-        <v>359</v>
-      </c>
-      <c r="F77" s="1">
-        <f t="shared" si="16"/>
-        <v>359</v>
-      </c>
-      <c r="G77" s="1">
-        <v>21</v>
-      </c>
-      <c r="H77" s="1">
-        <v>9</v>
-      </c>
-      <c r="I77" s="1">
-        <f t="shared" si="13"/>
-        <v>16553</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="10"/>
-        <v>33607</v>
-      </c>
-      <c r="N77" s="1">
-        <v>75</v>
-      </c>
-      <c r="O77" s="1">
-        <f t="shared" si="11"/>
-        <v>889</v>
-      </c>
-    </row>
-    <row r="78" spans="2:15">
-      <c r="B78" s="1">
-        <v>76</v>
-      </c>
-      <c r="C78" s="1">
-        <f t="shared" si="12"/>
-        <v>465</v>
-      </c>
-      <c r="D78" s="1">
-        <f t="shared" si="14"/>
-        <v>465</v>
-      </c>
-      <c r="E78" s="1">
-        <f t="shared" si="15"/>
-        <v>369</v>
-      </c>
-      <c r="F78" s="1">
-        <f t="shared" si="16"/>
-        <v>369</v>
-      </c>
-      <c r="G78" s="1">
-        <v>21</v>
-      </c>
-      <c r="H78" s="1">
-        <v>9</v>
-      </c>
-      <c r="I78" s="1">
-        <f t="shared" si="13"/>
-        <v>17054</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="10"/>
-        <v>34617</v>
-      </c>
-      <c r="N78" s="1">
-        <v>76</v>
-      </c>
-      <c r="O78" s="1">
-        <f t="shared" si="11"/>
-        <v>903</v>
-      </c>
-    </row>
-    <row r="79" spans="2:15">
-      <c r="B79" s="1">
-        <v>77</v>
-      </c>
-      <c r="C79" s="1">
-        <f t="shared" si="12"/>
-        <v>478</v>
-      </c>
-      <c r="D79" s="1">
-        <f t="shared" si="14"/>
-        <v>478</v>
-      </c>
-      <c r="E79" s="1">
-        <f t="shared" si="15"/>
-        <v>379</v>
-      </c>
-      <c r="F79" s="1">
-        <f t="shared" si="16"/>
-        <v>379</v>
-      </c>
-      <c r="G79" s="1">
-        <v>21</v>
-      </c>
-      <c r="H79" s="1">
-        <v>10</v>
-      </c>
-      <c r="I79" s="1">
-        <f t="shared" si="13"/>
-        <v>17563</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="10"/>
-        <v>35643</v>
-      </c>
-      <c r="N79" s="1">
-        <v>77</v>
-      </c>
-      <c r="O79" s="1">
-        <f t="shared" si="11"/>
-        <v>917</v>
-      </c>
-    </row>
-    <row r="80" spans="2:15">
-      <c r="B80" s="1">
-        <v>78</v>
-      </c>
-      <c r="C80" s="1">
-        <f t="shared" si="12"/>
-        <v>492</v>
-      </c>
-      <c r="D80" s="1">
-        <f t="shared" si="14"/>
-        <v>492</v>
-      </c>
-      <c r="E80" s="1">
-        <f t="shared" si="15"/>
-        <v>390</v>
-      </c>
-      <c r="F80" s="1">
-        <f t="shared" si="16"/>
-        <v>390</v>
-      </c>
-      <c r="G80" s="1">
-        <v>21</v>
-      </c>
-      <c r="H80" s="1">
-        <v>10</v>
-      </c>
-      <c r="I80" s="1">
-        <f t="shared" si="13"/>
-        <v>18080</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="10"/>
-        <v>36686</v>
-      </c>
-      <c r="N80" s="1">
-        <v>78</v>
-      </c>
-      <c r="O80" s="1">
-        <f t="shared" si="11"/>
-        <v>932</v>
-      </c>
-    </row>
-    <row r="81" spans="2:15">
-      <c r="B81" s="1">
-        <v>79</v>
-      </c>
-      <c r="C81" s="1">
-        <f t="shared" si="12"/>
-        <v>506</v>
-      </c>
-      <c r="D81" s="1">
-        <f t="shared" si="14"/>
-        <v>506</v>
-      </c>
-      <c r="E81" s="1">
-        <f t="shared" si="15"/>
-        <v>401</v>
-      </c>
-      <c r="F81" s="1">
-        <f t="shared" si="16"/>
-        <v>401</v>
-      </c>
-      <c r="G81" s="1">
-        <v>21</v>
-      </c>
-      <c r="H81" s="1">
-        <v>10</v>
-      </c>
-      <c r="I81" s="1">
-        <f t="shared" si="13"/>
-        <v>18606</v>
-      </c>
-      <c r="J81">
-        <f t="shared" si="10"/>
-        <v>37746</v>
-      </c>
-      <c r="N81" s="1">
-        <v>79</v>
-      </c>
-      <c r="O81" s="1">
-        <f t="shared" si="11"/>
-        <v>946</v>
-      </c>
-    </row>
-    <row r="82" spans="2:15">
-      <c r="B82" s="1">
-        <v>80</v>
-      </c>
-      <c r="C82" s="1">
-        <f t="shared" si="12"/>
-        <v>520</v>
-      </c>
-      <c r="D82" s="1">
-        <f t="shared" si="14"/>
-        <v>520</v>
-      </c>
-      <c r="E82" s="1">
-        <f t="shared" si="15"/>
-        <v>412</v>
-      </c>
-      <c r="F82" s="1">
-        <f t="shared" si="16"/>
-        <v>412</v>
-      </c>
-      <c r="G82" s="1">
-        <v>21</v>
-      </c>
-      <c r="H82" s="1">
-        <v>10</v>
-      </c>
-      <c r="I82" s="1">
-        <f t="shared" si="13"/>
-        <v>19140</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="10"/>
-        <v>38823</v>
-      </c>
-      <c r="N82" s="1">
-        <v>80</v>
-      </c>
-      <c r="O82" s="1">
-        <f t="shared" si="11"/>
-        <v>960</v>
-      </c>
-    </row>
-    <row r="83" spans="2:15">
-      <c r="B83" s="1">
-        <v>81</v>
-      </c>
-      <c r="C83" s="1">
-        <f t="shared" si="12"/>
-        <v>535</v>
-      </c>
-      <c r="D83" s="1">
-        <f t="shared" si="14"/>
-        <v>535</v>
-      </c>
-      <c r="E83" s="1">
-        <f t="shared" si="15"/>
-        <v>424</v>
-      </c>
-      <c r="F83" s="1">
-        <f t="shared" si="16"/>
-        <v>424</v>
-      </c>
-      <c r="G83" s="1">
-        <v>21</v>
-      </c>
-      <c r="H83" s="1">
-        <v>10</v>
-      </c>
-      <c r="I83" s="1">
-        <f t="shared" si="13"/>
-        <v>19683</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="10"/>
-        <v>39916</v>
-      </c>
-      <c r="N83" s="1">
-        <v>81</v>
-      </c>
-      <c r="O83" s="1">
-        <f t="shared" si="11"/>
-        <v>975</v>
-      </c>
-    </row>
-    <row r="84" spans="2:15">
-      <c r="B84" s="1">
-        <v>82</v>
-      </c>
-      <c r="C84" s="1">
-        <f t="shared" si="12"/>
-        <v>550</v>
-      </c>
-      <c r="D84" s="1">
-        <f t="shared" si="14"/>
-        <v>550</v>
-      </c>
-      <c r="E84" s="1">
-        <f t="shared" si="15"/>
-        <v>436</v>
-      </c>
-      <c r="F84" s="1">
-        <f t="shared" si="16"/>
-        <v>436</v>
-      </c>
-      <c r="G84" s="1">
-        <v>21</v>
-      </c>
-      <c r="H84" s="1">
-        <v>10</v>
-      </c>
-      <c r="I84" s="1">
-        <f t="shared" si="13"/>
-        <v>20233</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="10"/>
-        <v>41026</v>
-      </c>
-      <c r="N84" s="1">
-        <v>82</v>
-      </c>
-      <c r="O84" s="1">
-        <f t="shared" si="11"/>
-        <v>989</v>
-      </c>
-    </row>
-    <row r="85" spans="2:15">
-      <c r="B85" s="1">
-        <v>83</v>
-      </c>
-      <c r="C85" s="1">
-        <f t="shared" si="12"/>
-        <v>566</v>
-      </c>
-      <c r="D85" s="1">
-        <f t="shared" si="14"/>
-        <v>566</v>
-      </c>
-      <c r="E85" s="1">
-        <f t="shared" si="15"/>
-        <v>448</v>
-      </c>
-      <c r="F85" s="1">
-        <f t="shared" si="16"/>
-        <v>448</v>
-      </c>
-      <c r="G85" s="1">
-        <v>21</v>
-      </c>
-      <c r="H85" s="1">
-        <v>10</v>
-      </c>
-      <c r="I85" s="1">
-        <f t="shared" si="13"/>
-        <v>20793</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="10"/>
-        <v>42154</v>
-      </c>
-      <c r="N85" s="1">
-        <v>83</v>
-      </c>
-      <c r="O85" s="1">
-        <f t="shared" si="11"/>
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="86" spans="2:15">
-      <c r="B86" s="1">
-        <v>84</v>
-      </c>
-      <c r="C86" s="1">
-        <f t="shared" si="12"/>
-        <v>582</v>
-      </c>
-      <c r="D86" s="1">
-        <f t="shared" si="14"/>
-        <v>582</v>
-      </c>
-      <c r="E86" s="1">
-        <f t="shared" si="15"/>
-        <v>461</v>
-      </c>
-      <c r="F86" s="1">
-        <f t="shared" si="16"/>
-        <v>461</v>
-      </c>
-      <c r="G86" s="1">
-        <v>21</v>
-      </c>
-      <c r="H86" s="1">
-        <v>10</v>
-      </c>
-      <c r="I86" s="1">
-        <f t="shared" si="13"/>
-        <v>21361</v>
-      </c>
-      <c r="J86">
-        <f t="shared" si="10"/>
-        <v>43298</v>
-      </c>
-      <c r="N86" s="1">
-        <v>84</v>
-      </c>
-      <c r="O86" s="1">
-        <f t="shared" si="11"/>
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="87" spans="2:15">
-      <c r="B87" s="1">
-        <v>85</v>
-      </c>
-      <c r="C87" s="1">
-        <f t="shared" si="12"/>
-        <v>599</v>
-      </c>
-      <c r="D87" s="1">
-        <f t="shared" si="14"/>
-        <v>599</v>
-      </c>
-      <c r="E87" s="1">
-        <f t="shared" si="15"/>
-        <v>474</v>
-      </c>
-      <c r="F87" s="1">
-        <f t="shared" si="16"/>
-        <v>474</v>
-      </c>
-      <c r="G87" s="1">
-        <v>22</v>
-      </c>
-      <c r="H87" s="1">
-        <v>10</v>
-      </c>
-      <c r="I87" s="1">
-        <f t="shared" si="13"/>
-        <v>21937</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="10"/>
-        <v>44459</v>
-      </c>
-      <c r="N87" s="1">
-        <v>85</v>
-      </c>
-      <c r="O87" s="1">
-        <f t="shared" si="11"/>
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="88" spans="2:15">
-      <c r="B88" s="1">
-        <v>86</v>
-      </c>
-      <c r="C88" s="1">
-        <f t="shared" si="12"/>
-        <v>616</v>
-      </c>
-      <c r="D88" s="1">
-        <f t="shared" si="14"/>
-        <v>616</v>
-      </c>
-      <c r="E88" s="1">
-        <f t="shared" si="15"/>
-        <v>487</v>
-      </c>
-      <c r="F88" s="1">
-        <f t="shared" si="16"/>
-        <v>487</v>
-      </c>
-      <c r="G88" s="1">
-        <v>22</v>
-      </c>
-      <c r="H88" s="1">
-        <v>10</v>
-      </c>
-      <c r="I88" s="1">
-        <f t="shared" si="13"/>
-        <v>22522</v>
-      </c>
-      <c r="J88">
-        <f t="shared" si="10"/>
-        <v>45638</v>
-      </c>
-      <c r="N88" s="1">
-        <v>86</v>
-      </c>
-      <c r="O88" s="1">
-        <f t="shared" si="11"/>
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="89" spans="2:15">
-      <c r="B89" s="1">
-        <v>87</v>
-      </c>
-      <c r="C89" s="1">
-        <f t="shared" si="12"/>
-        <v>634</v>
-      </c>
-      <c r="D89" s="1">
-        <f t="shared" si="14"/>
-        <v>634</v>
-      </c>
-      <c r="E89" s="1">
-        <f t="shared" si="15"/>
-        <v>501</v>
-      </c>
-      <c r="F89" s="1">
-        <f t="shared" si="16"/>
-        <v>501</v>
-      </c>
-      <c r="G89" s="1">
-        <v>22</v>
-      </c>
-      <c r="H89" s="1">
-        <v>10</v>
-      </c>
-      <c r="I89" s="1">
-        <f t="shared" si="13"/>
-        <v>23116</v>
-      </c>
-      <c r="J89">
-        <f t="shared" si="10"/>
-        <v>46834</v>
-      </c>
-      <c r="N89" s="1">
-        <v>87</v>
-      </c>
-      <c r="O89" s="1">
-        <f t="shared" si="11"/>
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="90" spans="2:15">
-      <c r="B90" s="1">
-        <v>88</v>
-      </c>
-      <c r="C90" s="1">
-        <f t="shared" si="12"/>
-        <v>652</v>
-      </c>
-      <c r="D90" s="1">
-        <f t="shared" si="14"/>
-        <v>652</v>
-      </c>
-      <c r="E90" s="1">
-        <f t="shared" si="15"/>
-        <v>515</v>
-      </c>
-      <c r="F90" s="1">
-        <f t="shared" si="16"/>
-        <v>515</v>
-      </c>
-      <c r="G90" s="1">
-        <v>22</v>
-      </c>
-      <c r="H90" s="1">
-        <v>10</v>
-      </c>
-      <c r="I90" s="1">
-        <f t="shared" si="13"/>
-        <v>23718</v>
-      </c>
-      <c r="J90">
-        <f t="shared" si="10"/>
-        <v>48047</v>
-      </c>
-      <c r="N90" s="1">
-        <v>88</v>
-      </c>
-      <c r="O90" s="1">
-        <f t="shared" si="11"/>
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="91" spans="2:15">
-      <c r="B91" s="1">
-        <v>89</v>
-      </c>
-      <c r="C91" s="1">
-        <f t="shared" si="12"/>
-        <v>671</v>
-      </c>
-      <c r="D91" s="1">
-        <f t="shared" si="14"/>
-        <v>671</v>
-      </c>
-      <c r="E91" s="1">
-        <f t="shared" si="15"/>
-        <v>530</v>
-      </c>
-      <c r="F91" s="1">
-        <f t="shared" si="16"/>
-        <v>530</v>
-      </c>
-      <c r="G91" s="1">
-        <v>22</v>
-      </c>
-      <c r="H91" s="1">
-        <v>10</v>
-      </c>
-      <c r="I91" s="1">
-        <f t="shared" si="13"/>
-        <v>24329</v>
-      </c>
-      <c r="J91">
-        <f t="shared" si="10"/>
-        <v>49277</v>
-      </c>
-      <c r="N91" s="1">
-        <v>89</v>
-      </c>
-      <c r="O91" s="1">
-        <f t="shared" si="11"/>
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="92" spans="2:15">
-      <c r="B92" s="1">
-        <v>90</v>
-      </c>
-      <c r="C92" s="1">
-        <f t="shared" si="12"/>
-        <v>690</v>
-      </c>
-      <c r="D92" s="1">
-        <f t="shared" si="14"/>
-        <v>690</v>
-      </c>
-      <c r="E92" s="1">
-        <f t="shared" si="15"/>
-        <v>545</v>
-      </c>
-      <c r="F92" s="1">
-        <f t="shared" si="16"/>
-        <v>545</v>
-      </c>
-      <c r="G92" s="1">
-        <v>22</v>
-      </c>
-      <c r="H92" s="1">
-        <v>10</v>
-      </c>
-      <c r="I92" s="1">
-        <f t="shared" si="13"/>
-        <v>24948</v>
-      </c>
-      <c r="J92">
-        <f t="shared" si="10"/>
-        <v>50524</v>
-      </c>
-      <c r="N92" s="1">
-        <v>90</v>
-      </c>
-      <c r="O92" s="1">
-        <f t="shared" si="11"/>
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="93" spans="2:15">
-      <c r="B93" s="1">
-        <v>91</v>
-      </c>
-      <c r="C93" s="1">
-        <f t="shared" si="12"/>
-        <v>710</v>
-      </c>
-      <c r="D93" s="1">
-        <f t="shared" si="14"/>
-        <v>710</v>
-      </c>
-      <c r="E93" s="1">
-        <f t="shared" si="15"/>
-        <v>561</v>
-      </c>
-      <c r="F93" s="1">
-        <f t="shared" si="16"/>
-        <v>561</v>
-      </c>
-      <c r="G93" s="1">
-        <v>22</v>
-      </c>
-      <c r="H93" s="1">
-        <v>10</v>
-      </c>
-      <c r="I93" s="1">
-        <f t="shared" si="13"/>
-        <v>25576</v>
-      </c>
-      <c r="J93">
-        <f t="shared" si="10"/>
-        <v>51789</v>
-      </c>
-      <c r="N93" s="1">
-        <v>91</v>
-      </c>
-      <c r="O93" s="1">
-        <f t="shared" si="11"/>
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="94" spans="2:15">
-      <c r="B94" s="1">
-        <v>92</v>
-      </c>
-      <c r="C94" s="1">
-        <f t="shared" si="12"/>
-        <v>730</v>
-      </c>
-      <c r="D94" s="1">
-        <f t="shared" si="14"/>
-        <v>730</v>
-      </c>
-      <c r="E94" s="1">
-        <f t="shared" si="15"/>
-        <v>577</v>
-      </c>
-      <c r="F94" s="1">
-        <f t="shared" si="16"/>
-        <v>577</v>
-      </c>
-      <c r="G94" s="1">
-        <v>22</v>
-      </c>
-      <c r="H94" s="1">
-        <v>10</v>
-      </c>
-      <c r="I94" s="1">
-        <f t="shared" si="13"/>
-        <v>26213</v>
-      </c>
-      <c r="J94">
-        <f t="shared" si="10"/>
-        <v>53071</v>
-      </c>
-      <c r="N94" s="1">
-        <v>92</v>
-      </c>
-      <c r="O94" s="1">
-        <f t="shared" si="11"/>
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="95" spans="2:15">
-      <c r="B95" s="1">
-        <v>93</v>
-      </c>
-      <c r="C95" s="1">
-        <f t="shared" si="12"/>
-        <v>751</v>
-      </c>
-      <c r="D95" s="1">
-        <f t="shared" si="14"/>
-        <v>751</v>
-      </c>
-      <c r="E95" s="1">
-        <f t="shared" si="15"/>
-        <v>593</v>
-      </c>
-      <c r="F95" s="1">
-        <f t="shared" si="16"/>
-        <v>593</v>
-      </c>
-      <c r="G95" s="1">
-        <v>22</v>
-      </c>
-      <c r="H95" s="1">
-        <v>10</v>
-      </c>
-      <c r="I95" s="1">
-        <f t="shared" si="13"/>
-        <v>26858</v>
-      </c>
-      <c r="J95">
-        <f t="shared" si="10"/>
-        <v>54370</v>
-      </c>
-      <c r="N95" s="1">
-        <v>93</v>
-      </c>
-      <c r="O95" s="1">
-        <f t="shared" si="11"/>
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="96" spans="2:15">
-      <c r="B96" s="1">
-        <v>94</v>
-      </c>
-      <c r="C96" s="1">
-        <f t="shared" si="12"/>
-        <v>773</v>
-      </c>
-      <c r="D96" s="1">
-        <f t="shared" si="14"/>
-        <v>773</v>
-      </c>
-      <c r="E96" s="1">
-        <f t="shared" si="15"/>
-        <v>610</v>
-      </c>
-      <c r="F96" s="1">
-        <f t="shared" si="16"/>
-        <v>610</v>
-      </c>
-      <c r="G96" s="1">
-        <v>22</v>
-      </c>
-      <c r="H96" s="1">
-        <v>10</v>
-      </c>
-      <c r="I96" s="1">
-        <f t="shared" si="13"/>
-        <v>27512</v>
-      </c>
-      <c r="J96">
-        <f t="shared" si="10"/>
-        <v>55687</v>
-      </c>
-      <c r="N96" s="1">
-        <v>94</v>
-      </c>
-      <c r="O96" s="1">
-        <f t="shared" si="11"/>
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="97" spans="2:15">
-      <c r="B97" s="1">
-        <v>95</v>
-      </c>
-      <c r="C97" s="1">
-        <f t="shared" si="12"/>
-        <v>795</v>
-      </c>
-      <c r="D97" s="1">
-        <f t="shared" si="14"/>
-        <v>795</v>
-      </c>
-      <c r="E97" s="1">
-        <f t="shared" si="15"/>
-        <v>627</v>
-      </c>
-      <c r="F97" s="1">
-        <f t="shared" si="16"/>
-        <v>627</v>
-      </c>
-      <c r="G97" s="1">
-        <v>23</v>
-      </c>
-      <c r="H97" s="1">
-        <v>10</v>
-      </c>
-      <c r="I97" s="1">
-        <f t="shared" si="13"/>
-        <v>28175</v>
-      </c>
-      <c r="J97">
-        <f t="shared" si="10"/>
-        <v>57022</v>
-      </c>
-      <c r="N97" s="1">
-        <v>95</v>
-      </c>
-      <c r="O97" s="1">
-        <f t="shared" si="11"/>
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="98" spans="2:15">
-      <c r="B98" s="1">
-        <v>96</v>
-      </c>
-      <c r="C98" s="1">
-        <f t="shared" si="12"/>
-        <v>818</v>
-      </c>
-      <c r="D98" s="1">
-        <f t="shared" si="14"/>
-        <v>818</v>
-      </c>
-      <c r="E98" s="1">
-        <f t="shared" si="15"/>
-        <v>645</v>
-      </c>
-      <c r="F98" s="1">
-        <f t="shared" si="16"/>
-        <v>645</v>
-      </c>
-      <c r="G98" s="1">
-        <v>23</v>
-      </c>
-      <c r="H98" s="1">
-        <v>10</v>
-      </c>
-      <c r="I98" s="1">
-        <f t="shared" si="13"/>
-        <v>28847</v>
-      </c>
-      <c r="J98">
-        <f t="shared" si="10"/>
-        <v>58375</v>
-      </c>
-      <c r="N98" s="1">
-        <v>96</v>
-      </c>
-      <c r="O98" s="1">
-        <f t="shared" si="11"/>
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="99" spans="2:15">
-      <c r="B99" s="1">
-        <v>97</v>
-      </c>
-      <c r="C99" s="1">
-        <f t="shared" si="12"/>
-        <v>842</v>
-      </c>
-      <c r="D99" s="1">
-        <f t="shared" si="14"/>
-        <v>842</v>
-      </c>
-      <c r="E99" s="1">
-        <f t="shared" si="15"/>
-        <v>664</v>
-      </c>
-      <c r="F99" s="1">
-        <f t="shared" si="16"/>
-        <v>664</v>
-      </c>
-      <c r="G99" s="1">
-        <v>23</v>
-      </c>
-      <c r="H99" s="1">
-        <v>10</v>
-      </c>
-      <c r="I99" s="1">
-        <f t="shared" si="13"/>
-        <v>29528</v>
-      </c>
-      <c r="J99">
-        <f t="shared" si="10"/>
-        <v>59745</v>
-      </c>
-      <c r="N99" s="1">
-        <v>97</v>
-      </c>
-      <c r="O99" s="1">
-        <f t="shared" si="11"/>
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="100" spans="2:15">
-      <c r="B100" s="1">
-        <v>98</v>
-      </c>
-      <c r="C100" s="1">
-        <f t="shared" si="12"/>
-        <v>867</v>
-      </c>
-      <c r="D100" s="1">
-        <f t="shared" si="14"/>
-        <v>867</v>
-      </c>
-      <c r="E100" s="1">
-        <f t="shared" si="15"/>
-        <v>683</v>
-      </c>
-      <c r="F100" s="1">
-        <f t="shared" si="16"/>
-        <v>683</v>
-      </c>
-      <c r="G100" s="1">
-        <v>23</v>
-      </c>
-      <c r="H100" s="1">
-        <v>10</v>
-      </c>
-      <c r="I100" s="1">
-        <f t="shared" si="13"/>
-        <v>30217</v>
-      </c>
-      <c r="J100">
-        <f t="shared" si="10"/>
-        <v>61132</v>
-      </c>
-      <c r="N100" s="1">
-        <v>98</v>
-      </c>
-      <c r="O100" s="1">
-        <f t="shared" si="11"/>
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="101" spans="2:15">
-      <c r="B101" s="1">
-        <v>99</v>
-      </c>
-      <c r="C101" s="1">
-        <f t="shared" si="12"/>
-        <v>892</v>
-      </c>
-      <c r="D101" s="1">
-        <f t="shared" si="14"/>
-        <v>892</v>
-      </c>
-      <c r="E101" s="1">
-        <f t="shared" si="15"/>
-        <v>703</v>
-      </c>
-      <c r="F101" s="1">
-        <f t="shared" si="16"/>
-        <v>703</v>
-      </c>
-      <c r="G101" s="1">
-        <v>23</v>
-      </c>
-      <c r="H101" s="1">
-        <v>10</v>
-      </c>
-      <c r="I101" s="1">
-        <f t="shared" si="13"/>
-        <v>30915</v>
-      </c>
-      <c r="J101">
-        <f t="shared" si="10"/>
-        <v>30915</v>
-      </c>
-      <c r="N101" s="1">
-        <v>99</v>
-      </c>
-      <c r="O101" s="1">
-        <f>FLOOR(FLOOR(5*POWER(N101,1.2),1),1)</f>
-        <v>1240</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>